--- a/convert c# to typescript - lower case.xlsx
+++ b/convert c# to typescript - lower case.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim.hilton\Documents\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC2E80-4125-44A1-92B7-795B86A18548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF00F7F-D0DF-44B3-9D5D-53E811E456E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C# model" sheetId="1" r:id="rId1"/>
-    <sheet name="Types" sheetId="2" r:id="rId2"/>
+    <sheet name="Static class" sheetId="3" r:id="rId2"/>
+    <sheet name="Types" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -146,13 +147,2554 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">FarmTrader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"farmTrader"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">FarmTraderAssistant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"farmTraderAssistant"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">NoteEditor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"noteEditor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ChangeAccountManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"changeAccountManager"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Forwarder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"forwarder"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Trader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"trader"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SeedOrderApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"seedOrderApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">FertiliserOrderApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fertiliserOrderApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PulseOrderApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"pulseOrderApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GenerateTradingPeriods </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"generateTradingPeriods"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PurchaseContactApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"purchaseContractApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SalesContractApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"salesContractApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GenerateFarmerInvoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"generateFarmerInvoice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CreateContractPrePayments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createContractPrePayments"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RollPurchaseContracts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rollPurchaseContracts"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">OilAdmin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"oilAdmin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SystemAdministrator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"systemAdministrator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">IdentityManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"identityManager"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ChangePartnerType </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"changePartnerType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">StockControl </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"stockControl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PoolController </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"poolController"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Finance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"finance"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SendTradingPartnerToNetsuite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sendTradingPartnerToNetsuite"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CancelContracts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cancelContracts"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">QualityControl </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"qualityControl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SeedPurchaseApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"seedPurchaseApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">FertiliserPurchaseApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fertiliserPurchaseApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">JourneyController </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"journeyController"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ProductionManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"productionManager"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SampleAdministrator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sampleAdministrator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ChooseBagTypes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"chooseBagTypes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CreateTradingPartners </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createTradingPartners"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">LabOperator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"labOperator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ChangePurchaseContractType </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"changePurchaseContractType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PurchaseContractDeductions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"purchaseContractDeductions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DatabaseEditor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"databaseEditor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GeneralPurchaseApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"generalPurchaseApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PurchasingManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"purchasingManager"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ShippingManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"shippingManager"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">StorageChargeAdmin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"storageChargeAdmin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">FeedAdmin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"feedAdmin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GenerateStorageInvoices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"generateStorageInvoices"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GenerateBrokerInvoices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"generateBrokerInvoices"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ExecuteDeferredDeliveryOrders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"executeDeferredDeliveryOrders"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PartnerPortalManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"partnerPortalManager"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ContractClauseAdmin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"contractClauseAdmin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">FxController </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fxController"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AnalyticsAdmin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"analyticsAdmin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CommodityManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"commodityManager"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ContractPricingAdmin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"contractPricingAdmin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CreateMerchantInvoices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createMerchantInvoices"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CreatePurchaseOrderInvoices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createPurchaseOrderInvoices"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CreateShippingInvoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createShippingInvoice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SendTransactionsToNetsuite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sendTransactionsToNetsuite"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GenerateSalesInvoices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"generateSalesInvoices"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">StockAdjuster </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"stockAdjuster"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GlobalConfigManager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"globalConfigManager"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Translator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"translator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PositionExcluder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"positionExcluder"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public const string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TradingPartnerAccountApprover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tradingPartnerAccountApprover"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>equals index</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public const string </t>
+  </si>
+  <si>
+    <t>camel case name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +2731,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6C95EB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF66C3CC"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBDBDBD"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC9A26D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +2775,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF262626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -222,18 +2795,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -551,11 +3130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="56.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="4" hidden="1" customWidth="1"/>
@@ -576,7 +3155,7 @@
     <col min="19" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -629,7 +3208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -689,12 +3268,12 @@
         <f>IFERROR(VLOOKUP(N2,Types!$A$3:$B$28,2,FALSE),N2)</f>
         <v>number</v>
       </c>
-      <c r="P2" s="7" t="str">
+      <c r="P2" s="6" t="str">
         <f>IFERROR(F2&amp;IF(M2,"?: ",": ")&amp;O2&amp;IF(K2,"[]","")&amp;";","")</f>
         <v>id: number;</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -754,13 +3333,13 @@
         <f>IFERROR(VLOOKUP(N3,Types!$A$3:$B$28,2,FALSE),N3)</f>
         <v>string</v>
       </c>
-      <c r="P3" s="7" t="str">
+      <c r="P3" s="6" t="str">
         <f t="shared" ref="P3:P50" si="9">IFERROR(F3&amp;IF(M3,"?: ",": ")&amp;O3&amp;IF(K3,"[]","")&amp;";","")</f>
         <v>notes: string;</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="7"/>
       <c r="B4" s="4" t="e">
         <f t="shared" ref="B4:B50" si="10">FIND("public ",A4)+7</f>
         <v>#VALUE!</v>
@@ -817,12 +3396,12 @@
         <f>IFERROR(VLOOKUP(N4,Types!$A$3:$B$28,2,FALSE),N4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P4" s="7" t="str">
+      <c r="P4" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="B5" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -879,12 +3458,12 @@
         <f>IFERROR(VLOOKUP(N5,Types!$A$3:$B$28,2,FALSE),N5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="7" t="str">
+      <c r="P5" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="B6" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -941,12 +3520,12 @@
         <f>IFERROR(VLOOKUP(N6,Types!$A$3:$B$28,2,FALSE),N6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P6" s="7" t="str">
+      <c r="P6" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="B7" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1003,12 +3582,12 @@
         <f>IFERROR(VLOOKUP(N7,Types!$A$3:$B$28,2,FALSE),N7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P7" s="7" t="str">
+      <c r="P7" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="B8" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1065,12 +3644,12 @@
         <f>IFERROR(VLOOKUP(N8,Types!$A$3:$B$28,2,FALSE),N8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P8" s="7" t="str">
+      <c r="P8" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="B9" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1127,12 +3706,12 @@
         <f>IFERROR(VLOOKUP(N9,Types!$A$3:$B$28,2,FALSE),N9)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P9" s="7" t="str">
+      <c r="P9" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="B10" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1189,12 +3768,12 @@
         <f>IFERROR(VLOOKUP(N10,Types!$A$3:$B$28,2,FALSE),N10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P10" s="7" t="str">
+      <c r="P10" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="B11" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1251,12 +3830,12 @@
         <f>IFERROR(VLOOKUP(N11,Types!$A$3:$B$28,2,FALSE),N11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P11" s="7" t="str">
+      <c r="P11" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="B12" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1313,12 +3892,12 @@
         <f>IFERROR(VLOOKUP(N12,Types!$A$3:$B$28,2,FALSE),N12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P12" s="7" t="str">
+      <c r="P12" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="B13" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1375,12 +3954,12 @@
         <f>IFERROR(VLOOKUP(N13,Types!$A$3:$B$28,2,FALSE),N13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P13" s="7" t="str">
+      <c r="P13" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="B14" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1437,12 +4016,12 @@
         <f>IFERROR(VLOOKUP(N14,Types!$A$3:$B$28,2,FALSE),N14)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P14" s="7" t="str">
+      <c r="P14" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="B15" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1499,12 +4078,12 @@
         <f>IFERROR(VLOOKUP(N15,Types!$A$3:$B$28,2,FALSE),N15)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P15" s="7" t="str">
+      <c r="P15" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="B16" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1561,12 +4140,12 @@
         <f>IFERROR(VLOOKUP(N16,Types!$A$3:$B$28,2,FALSE),N16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P16" s="7" t="str">
+      <c r="P16" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16">
       <c r="B17" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1623,12 +4202,12 @@
         <f>IFERROR(VLOOKUP(N17,Types!$A$3:$B$28,2,FALSE),N17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P17" s="7" t="str">
+      <c r="P17" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1685,12 +4264,12 @@
         <f>IFERROR(VLOOKUP(N18,Types!$A$3:$B$28,2,FALSE),N18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P18" s="7" t="str">
+      <c r="P18" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1747,12 +4326,12 @@
         <f>IFERROR(VLOOKUP(N19,Types!$A$3:$B$28,2,FALSE),N19)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P19" s="7" t="str">
+      <c r="P19" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20" s="4" t="e">
         <f>FIND("public ",A20)+7</f>
         <v>#VALUE!</v>
@@ -1809,12 +4388,12 @@
         <f>IFERROR(VLOOKUP(N20,Types!$A$3:$B$28,2,FALSE),N20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P20" s="7" t="str">
+      <c r="P20" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1871,12 +4450,12 @@
         <f>IFERROR(VLOOKUP(N21,Types!$A$3:$B$28,2,FALSE),N21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P21" s="7" t="str">
+      <c r="P21" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="B22" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1933,12 +4512,12 @@
         <f>IFERROR(VLOOKUP(N22,Types!$A$3:$B$28,2,FALSE),N22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P22" s="7" t="str">
+      <c r="P22" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16">
       <c r="B23" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -1995,12 +4574,12 @@
         <f>IFERROR(VLOOKUP(N23,Types!$A$3:$B$28,2,FALSE),N23)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P23" s="7" t="str">
+      <c r="P23" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16">
       <c r="B24" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2057,12 +4636,12 @@
         <f>IFERROR(VLOOKUP(N24,Types!$A$3:$B$28,2,FALSE),N24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="7" t="str">
+      <c r="P24" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16">
       <c r="B25" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2119,12 +4698,12 @@
         <f>IFERROR(VLOOKUP(N25,Types!$A$3:$B$28,2,FALSE),N25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P25" s="7" t="str">
+      <c r="P25" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16">
       <c r="B26" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2181,12 +4760,12 @@
         <f>IFERROR(VLOOKUP(N26,Types!$A$3:$B$28,2,FALSE),N26)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P26" s="7" t="str">
+      <c r="P26" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16">
       <c r="B27" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2243,12 +4822,12 @@
         <f>IFERROR(VLOOKUP(N27,Types!$A$3:$B$28,2,FALSE),N27)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P27" s="7" t="str">
+      <c r="P27" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16">
       <c r="B28" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2305,12 +4884,12 @@
         <f>IFERROR(VLOOKUP(N28,Types!$A$3:$B$28,2,FALSE),N28)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P28" s="7" t="str">
+      <c r="P28" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16">
       <c r="B29" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2367,12 +4946,12 @@
         <f>IFERROR(VLOOKUP(N29,Types!$A$3:$B$28,2,FALSE),N29)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P29" s="7" t="str">
+      <c r="P29" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16">
       <c r="B30" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2429,12 +5008,12 @@
         <f>IFERROR(VLOOKUP(N30,Types!$A$3:$B$28,2,FALSE),N30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P30" s="7" t="str">
+      <c r="P30" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16">
       <c r="B31" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2491,12 +5070,12 @@
         <f>IFERROR(VLOOKUP(N31,Types!$A$3:$B$28,2,FALSE),N31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P31" s="7" t="str">
+      <c r="P31" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16">
       <c r="B32" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2553,12 +5132,12 @@
         <f>IFERROR(VLOOKUP(N32,Types!$A$3:$B$28,2,FALSE),N32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P32" s="7" t="str">
+      <c r="P32" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16">
       <c r="B33" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2615,12 +5194,12 @@
         <f>IFERROR(VLOOKUP(N33,Types!$A$3:$B$28,2,FALSE),N33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P33" s="7" t="str">
+      <c r="P33" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16">
       <c r="B34" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2677,12 +5256,12 @@
         <f>IFERROR(VLOOKUP(N34,Types!$A$3:$B$28,2,FALSE),N34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P34" s="7" t="str">
+      <c r="P34" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16">
       <c r="B35" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2739,12 +5318,12 @@
         <f>IFERROR(VLOOKUP(N35,Types!$A$3:$B$28,2,FALSE),N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P35" s="7" t="str">
+      <c r="P35" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16">
       <c r="B36" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2801,12 +5380,12 @@
         <f>IFERROR(VLOOKUP(N36,Types!$A$3:$B$28,2,FALSE),N36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P36" s="7" t="str">
+      <c r="P36" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16">
       <c r="B37" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2863,12 +5442,12 @@
         <f>IFERROR(VLOOKUP(N37,Types!$A$3:$B$28,2,FALSE),N37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P37" s="7" t="str">
+      <c r="P37" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16">
       <c r="B38" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2925,12 +5504,12 @@
         <f>IFERROR(VLOOKUP(N38,Types!$A$3:$B$28,2,FALSE),N38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P38" s="7" t="str">
+      <c r="P38" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16">
       <c r="B39" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -2987,12 +5566,12 @@
         <f>IFERROR(VLOOKUP(N39,Types!$A$3:$B$28,2,FALSE),N39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P39" s="7" t="str">
+      <c r="P39" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16">
       <c r="B40" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3049,12 +5628,12 @@
         <f>IFERROR(VLOOKUP(N40,Types!$A$3:$B$28,2,FALSE),N40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P40" s="7" t="str">
+      <c r="P40" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16">
       <c r="B41" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3111,12 +5690,12 @@
         <f>IFERROR(VLOOKUP(N41,Types!$A$3:$B$28,2,FALSE),N41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P41" s="7" t="str">
+      <c r="P41" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16">
       <c r="B42" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3173,12 +5752,12 @@
         <f>IFERROR(VLOOKUP(N42,Types!$A$3:$B$28,2,FALSE),N42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P42" s="7" t="str">
+      <c r="P42" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16">
       <c r="B43" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3235,12 +5814,12 @@
         <f>IFERROR(VLOOKUP(N43,Types!$A$3:$B$28,2,FALSE),N43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P43" s="7" t="str">
+      <c r="P43" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16">
       <c r="B44" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3297,12 +5876,12 @@
         <f>IFERROR(VLOOKUP(N44,Types!$A$3:$B$28,2,FALSE),N44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P44" s="7" t="str">
+      <c r="P44" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16">
       <c r="B45" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3359,12 +5938,12 @@
         <f>IFERROR(VLOOKUP(N45,Types!$A$3:$B$28,2,FALSE),N45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P45" s="7" t="str">
+      <c r="P45" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16">
       <c r="B46" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3421,12 +6000,12 @@
         <f>IFERROR(VLOOKUP(N46,Types!$A$3:$B$28,2,FALSE),N46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P46" s="7" t="str">
+      <c r="P46" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16">
       <c r="B47" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3483,12 +6062,12 @@
         <f>IFERROR(VLOOKUP(N47,Types!$A$3:$B$28,2,FALSE),N47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P47" s="7" t="str">
+      <c r="P47" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16">
       <c r="B48" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3545,12 +6124,12 @@
         <f>IFERROR(VLOOKUP(N48,Types!$A$3:$B$28,2,FALSE),N48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P48" s="7" t="str">
+      <c r="P48" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16">
       <c r="B49" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3607,12 +6186,12 @@
         <f>IFERROR(VLOOKUP(N49,Types!$A$3:$B$28,2,FALSE),N49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P49" s="7" t="str">
+      <c r="P49" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16">
       <c r="B50" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -3669,7 +6248,7 @@
         <f>IFERROR(VLOOKUP(N50,Types!$A$3:$B$28,2,FALSE),N50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P50" s="7" t="str">
+      <c r="P50" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3681,6 +6260,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D574585A-7FEC-4159-B4CB-DE69CC75E979}">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="96.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="61.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f>LEFT(A2,G2-1)</f>
+        <v>public const string FarmTrader</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(B2, LEN(B2)-LEN($J$2))</f>
+        <v>FarmTrader</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(LOWER(LEFT(C2,1)),RIGHT(C2,LEN(C2)-1))</f>
+        <v>farmTrader</v>
+      </c>
+      <c r="E2" t="str">
+        <f>RIGHT(A2,LEN(A2)-G2-3)</f>
+        <v>farmTrader";</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(E2,LEN(E2)-2)</f>
+        <v>farmTrader</v>
+      </c>
+      <c r="G2">
+        <f>FIND(" =",A2)</f>
+        <v>31</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"static "&amp;D2&amp;" = '"&amp;F2&amp;"';"</f>
+        <v>static farmTrader = 'farmTrader';</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9" t="str">
+        <f t="shared" ref="B3:B45" si="0">LEFT(A3,G3-1)</f>
+        <v>public const string FarmTraderAssistant</v>
+      </c>
+      <c r="C3" t="str">
+        <f>RIGHT(B3, LEN(B3)-LEN($J$2))</f>
+        <v>FarmTraderAssistant</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D61" si="1">_xlfn.CONCAT(LOWER(LEFT(C3,1)),RIGHT(C3,LEN(C3)-1))</f>
+        <v>farmTraderAssistant</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E45" si="2">RIGHT(A3,LEN(A3)-G3-3)</f>
+        <v>farmTraderAssistant";</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F61" si="3">LEFT(E3,LEN(E3)-2)</f>
+        <v>farmTraderAssistant</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G45" si="4">FIND(" =",A3)</f>
+        <v>40</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H61" si="5">"static "&amp;D3&amp;" = '"&amp;F3&amp;"';"</f>
+        <v>static farmTraderAssistant = 'farmTraderAssistant';</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string NoteEditor</v>
+      </c>
+      <c r="C4" t="str">
+        <f>RIGHT(B4, LEN(B4)-LEN($J$2))</f>
+        <v>NoteEditor</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>noteEditor</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>noteEditor";</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>noteEditor</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>static noteEditor = 'noteEditor';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string ChangeAccountManager</v>
+      </c>
+      <c r="C5" t="str">
+        <f>RIGHT(B5, LEN(B5)-LEN($J$2))</f>
+        <v>ChangeAccountManager</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>changeAccountManager</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>changeAccountManager";</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>changeAccountManager</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>static changeAccountManager = 'changeAccountManager';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string Forwarder</v>
+      </c>
+      <c r="C6" t="str">
+        <f>RIGHT(B6, LEN(B6)-LEN($J$2))</f>
+        <v>Forwarder</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>forwarder</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>forwarder";</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>forwarder</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>static forwarder = 'forwarder';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string Trader</v>
+      </c>
+      <c r="C7" t="str">
+        <f>RIGHT(B7, LEN(B7)-LEN($J$2))</f>
+        <v>Trader</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>trader</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>trader";</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>trader</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>static trader = 'trader';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string SeedOrderApprover</v>
+      </c>
+      <c r="C8" t="str">
+        <f>RIGHT(B8, LEN(B8)-LEN($J$2))</f>
+        <v>SeedOrderApprover</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>seedOrderApprover</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>seedOrderApprover";</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>seedOrderApprover</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v>static seedOrderApprover = 'seedOrderApprover';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string FertiliserOrderApprover</v>
+      </c>
+      <c r="C9" t="str">
+        <f>RIGHT(B9, LEN(B9)-LEN($J$2))</f>
+        <v>FertiliserOrderApprover</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>fertiliserOrderApprover</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>fertiliserOrderApprover";</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>fertiliserOrderApprover</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="5"/>
+        <v>static fertiliserOrderApprover = 'fertiliserOrderApprover';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string PulseOrderApprover</v>
+      </c>
+      <c r="C10" t="str">
+        <f>RIGHT(B10, LEN(B10)-LEN($J$2))</f>
+        <v>PulseOrderApprover</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>pulseOrderApprover</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>pulseOrderApprover";</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>pulseOrderApprover</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="5"/>
+        <v>static pulseOrderApprover = 'pulseOrderApprover';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string GenerateTradingPeriods</v>
+      </c>
+      <c r="C11" t="str">
+        <f>RIGHT(B11, LEN(B11)-LEN($J$2))</f>
+        <v>GenerateTradingPeriods</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>generateTradingPeriods</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>generateTradingPeriods";</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v>generateTradingPeriods</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="5"/>
+        <v>static generateTradingPeriods = 'generateTradingPeriods';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string PurchaseContactApprover</v>
+      </c>
+      <c r="C12" t="str">
+        <f>RIGHT(B12, LEN(B12)-LEN($J$2))</f>
+        <v>PurchaseContactApprover</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>purchaseContactApprover</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>purchaseContractApprover";</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v>purchaseContractApprover</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="5"/>
+        <v>static purchaseContactApprover = 'purchaseContractApprover';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string SalesContractApprover</v>
+      </c>
+      <c r="C13" t="str">
+        <f>RIGHT(B13, LEN(B13)-LEN($J$2))</f>
+        <v>SalesContractApprover</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>salesContractApprover</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>salesContractApprover";</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v>salesContractApprover</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="5"/>
+        <v>static salesContractApprover = 'salesContractApprover';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string GenerateFarmerInvoice</v>
+      </c>
+      <c r="C14" t="str">
+        <f>RIGHT(B14, LEN(B14)-LEN($J$2))</f>
+        <v>GenerateFarmerInvoice</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>generateFarmerInvoice</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>generateFarmerInvoice";</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v>generateFarmerInvoice</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="5"/>
+        <v>static generateFarmerInvoice = 'generateFarmerInvoice';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string CreateContractPrePayments</v>
+      </c>
+      <c r="C15" t="str">
+        <f>RIGHT(B15, LEN(B15)-LEN($J$2))</f>
+        <v>CreateContractPrePayments</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>createContractPrePayments</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>createContractPrePayments";</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>createContractPrePayments</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="5"/>
+        <v>static createContractPrePayments = 'createContractPrePayments';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string RollPurchaseContracts</v>
+      </c>
+      <c r="C16" t="str">
+        <f>RIGHT(B16, LEN(B16)-LEN($J$2))</f>
+        <v>RollPurchaseContracts</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>rollPurchaseContracts</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>rollPurchaseContracts";</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>rollPurchaseContracts</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="5"/>
+        <v>static rollPurchaseContracts = 'rollPurchaseContracts';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string OilAdmin</v>
+      </c>
+      <c r="C17" t="str">
+        <f>RIGHT(B17, LEN(B17)-LEN($J$2))</f>
+        <v>OilAdmin</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>oilAdmin</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>oilAdmin";</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>oilAdmin</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="5"/>
+        <v>static oilAdmin = 'oilAdmin';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string SystemAdministrator</v>
+      </c>
+      <c r="C18" t="str">
+        <f>RIGHT(B18, LEN(B18)-LEN($J$2))</f>
+        <v>SystemAdministrator</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>systemAdministrator</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>systemAdministrator";</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>systemAdministrator</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="5"/>
+        <v>static systemAdministrator = 'systemAdministrator';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string IdentityManager</v>
+      </c>
+      <c r="C19" t="str">
+        <f>RIGHT(B19, LEN(B19)-LEN($J$2))</f>
+        <v>IdentityManager</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>identityManager</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>identityManager";</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>identityManager</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="5"/>
+        <v>static identityManager = 'identityManager';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string ChangePartnerType</v>
+      </c>
+      <c r="C20" t="str">
+        <f>RIGHT(B20, LEN(B20)-LEN($J$2))</f>
+        <v>ChangePartnerType</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>changePartnerType</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>changePartnerType";</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>changePartnerType</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="5"/>
+        <v>static changePartnerType = 'changePartnerType';</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string StockControl</v>
+      </c>
+      <c r="C21" t="str">
+        <f>RIGHT(B21, LEN(B21)-LEN($J$2))</f>
+        <v>StockControl</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>stockControl</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>stockControl";</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>stockControl</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="5"/>
+        <v>static stockControl = 'stockControl';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string PoolController</v>
+      </c>
+      <c r="C22" t="str">
+        <f>RIGHT(B22, LEN(B22)-LEN($J$2))</f>
+        <v>PoolController</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>poolController</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>poolController";</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>poolController</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>static poolController = 'poolController';</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string Finance</v>
+      </c>
+      <c r="C23" t="str">
+        <f>RIGHT(B23, LEN(B23)-LEN($J$2))</f>
+        <v>Finance</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>finance</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>finance";</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>finance</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v>static finance = 'finance';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string SendTradingPartnerToNetsuite</v>
+      </c>
+      <c r="C24" t="str">
+        <f>RIGHT(B24, LEN(B24)-LEN($J$2))</f>
+        <v>SendTradingPartnerToNetsuite</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>sendTradingPartnerToNetsuite</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>sendTradingPartnerToNetsuite";</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>sendTradingPartnerToNetsuite</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="5"/>
+        <v>static sendTradingPartnerToNetsuite = 'sendTradingPartnerToNetsuite';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string CancelContracts</v>
+      </c>
+      <c r="C25" t="str">
+        <f>RIGHT(B25, LEN(B25)-LEN($J$2))</f>
+        <v>CancelContracts</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>cancelContracts</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>cancelContracts";</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v>cancelContracts</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="5"/>
+        <v>static cancelContracts = 'cancelContracts';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string QualityControl</v>
+      </c>
+      <c r="C26" t="str">
+        <f>RIGHT(B26, LEN(B26)-LEN($J$2))</f>
+        <v>QualityControl</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>qualityControl</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>qualityControl";</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v>qualityControl</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="5"/>
+        <v>static qualityControl = 'qualityControl';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string SeedPurchaseApprover</v>
+      </c>
+      <c r="C27" t="str">
+        <f>RIGHT(B27, LEN(B27)-LEN($J$2))</f>
+        <v>SeedPurchaseApprover</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>seedPurchaseApprover</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>seedPurchaseApprover";</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v>seedPurchaseApprover</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="5"/>
+        <v>static seedPurchaseApprover = 'seedPurchaseApprover';</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string FertiliserPurchaseApprover</v>
+      </c>
+      <c r="C28" t="str">
+        <f>RIGHT(B28, LEN(B28)-LEN($J$2))</f>
+        <v>FertiliserPurchaseApprover</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>fertiliserPurchaseApprover</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>fertiliserPurchaseApprover";</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v>fertiliserPurchaseApprover</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="5"/>
+        <v>static fertiliserPurchaseApprover = 'fertiliserPurchaseApprover';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string JourneyController</v>
+      </c>
+      <c r="C29" t="str">
+        <f>RIGHT(B29, LEN(B29)-LEN($J$2))</f>
+        <v>JourneyController</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>journeyController</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>journeyController";</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v>journeyController</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="5"/>
+        <v>static journeyController = 'journeyController';</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string ProductionManager</v>
+      </c>
+      <c r="C30" t="str">
+        <f>RIGHT(B30, LEN(B30)-LEN($J$2))</f>
+        <v>ProductionManager</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>productionManager</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>productionManager";</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>productionManager</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="5"/>
+        <v>static productionManager = 'productionManager';</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string SampleAdministrator</v>
+      </c>
+      <c r="C31" t="str">
+        <f>RIGHT(B31, LEN(B31)-LEN($J$2))</f>
+        <v>SampleAdministrator</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>sampleAdministrator</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>sampleAdministrator";</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>sampleAdministrator</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="5"/>
+        <v>static sampleAdministrator = 'sampleAdministrator';</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string ChooseBagTypes</v>
+      </c>
+      <c r="C32" t="str">
+        <f>RIGHT(B32, LEN(B32)-LEN($J$2))</f>
+        <v>ChooseBagTypes</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>chooseBagTypes</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>chooseBagTypes";</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>chooseBagTypes</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="5"/>
+        <v>static chooseBagTypes = 'chooseBagTypes';</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string CreateTradingPartners</v>
+      </c>
+      <c r="C33" t="str">
+        <f>RIGHT(B33, LEN(B33)-LEN($J$2))</f>
+        <v>CreateTradingPartners</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>createTradingPartners</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>createTradingPartners";</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v>createTradingPartners</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="5"/>
+        <v>static createTradingPartners = 'createTradingPartners';</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string LabOperator</v>
+      </c>
+      <c r="C34" t="str">
+        <f>RIGHT(B34, LEN(B34)-LEN($J$2))</f>
+        <v>LabOperator</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>labOperator</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>labOperator";</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v>labOperator</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="5"/>
+        <v>static labOperator = 'labOperator';</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string ChangePurchaseContractType</v>
+      </c>
+      <c r="C35" t="str">
+        <f>RIGHT(B35, LEN(B35)-LEN($J$2))</f>
+        <v>ChangePurchaseContractType</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>changePurchaseContractType</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>changePurchaseContractType";</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v>changePurchaseContractType</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="5"/>
+        <v>static changePurchaseContractType = 'changePurchaseContractType';</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string PurchaseContractDeductions</v>
+      </c>
+      <c r="C36" t="str">
+        <f>RIGHT(B36, LEN(B36)-LEN($J$2))</f>
+        <v>PurchaseContractDeductions</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>purchaseContractDeductions</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>purchaseContractDeductions";</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v>purchaseContractDeductions</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="5"/>
+        <v>static purchaseContractDeductions = 'purchaseContractDeductions';</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string DatabaseEditor</v>
+      </c>
+      <c r="C37" t="str">
+        <f>RIGHT(B37, LEN(B37)-LEN($J$2))</f>
+        <v>DatabaseEditor</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>databaseEditor</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>databaseEditor";</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v>databaseEditor</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="5"/>
+        <v>static databaseEditor = 'databaseEditor';</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string GeneralPurchaseApprover</v>
+      </c>
+      <c r="C38" t="str">
+        <f>RIGHT(B38, LEN(B38)-LEN($J$2))</f>
+        <v>GeneralPurchaseApprover</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>generalPurchaseApprover</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>generalPurchaseApprover";</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v>generalPurchaseApprover</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="5"/>
+        <v>static generalPurchaseApprover = 'generalPurchaseApprover';</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string PurchasingManager</v>
+      </c>
+      <c r="C39" t="str">
+        <f>RIGHT(B39, LEN(B39)-LEN($J$2))</f>
+        <v>PurchasingManager</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>purchasingManager</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>purchasingManager";</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v>purchasingManager</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="5"/>
+        <v>static purchasingManager = 'purchasingManager';</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string ShippingManager</v>
+      </c>
+      <c r="C40" t="str">
+        <f>RIGHT(B40, LEN(B40)-LEN($J$2))</f>
+        <v>ShippingManager</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>shippingManager</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>shippingManager";</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v>shippingManager</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="5"/>
+        <v>static shippingManager = 'shippingManager';</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string StorageChargeAdmin</v>
+      </c>
+      <c r="C41" t="str">
+        <f>RIGHT(B41, LEN(B41)-LEN($J$2))</f>
+        <v>StorageChargeAdmin</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>storageChargeAdmin</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>storageChargeAdmin";</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v>storageChargeAdmin</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="5"/>
+        <v>static storageChargeAdmin = 'storageChargeAdmin';</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string FeedAdmin</v>
+      </c>
+      <c r="C42" t="str">
+        <f>RIGHT(B42, LEN(B42)-LEN($J$2))</f>
+        <v>FeedAdmin</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>feedAdmin</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>feedAdmin";</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v>feedAdmin</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="5"/>
+        <v>static feedAdmin = 'feedAdmin';</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string GenerateStorageInvoices</v>
+      </c>
+      <c r="C43" t="str">
+        <f>RIGHT(B43, LEN(B43)-LEN($J$2))</f>
+        <v>GenerateStorageInvoices</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>generateStorageInvoices</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>generateStorageInvoices";</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v>generateStorageInvoices</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="5"/>
+        <v>static generateStorageInvoices = 'generateStorageInvoices';</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string GenerateBrokerInvoices</v>
+      </c>
+      <c r="C44" t="str">
+        <f>RIGHT(B44, LEN(B44)-LEN($J$2))</f>
+        <v>GenerateBrokerInvoices</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>generateBrokerInvoices</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>generateBrokerInvoices";</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v>generateBrokerInvoices</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="5"/>
+        <v>static generateBrokerInvoices = 'generateBrokerInvoices';</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public const string ExecuteDeferredDeliveryOrders</v>
+      </c>
+      <c r="C45" t="str">
+        <f>RIGHT(B45, LEN(B45)-LEN($J$2))</f>
+        <v>ExecuteDeferredDeliveryOrders</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>executeDeferredDeliveryOrders</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>executeDeferredDeliveryOrders";</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v>executeDeferredDeliveryOrders</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="5"/>
+        <v>static executeDeferredDeliveryOrders = 'executeDeferredDeliveryOrders';</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="9" t="str">
+        <f>LEFT(A46,G46-1)</f>
+        <v>public const string PartnerPortalManager</v>
+      </c>
+      <c r="C46" t="str">
+        <f>RIGHT(B46, LEN(B46)-LEN($J$2))</f>
+        <v>PartnerPortalManager</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>partnerPortalManager</v>
+      </c>
+      <c r="E46" t="str">
+        <f>RIGHT(A46,LEN(A46)-G46-3)</f>
+        <v>partnerPortalManager";</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v>partnerPortalManager</v>
+      </c>
+      <c r="G46">
+        <f>FIND(" =",A46)</f>
+        <v>41</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="5"/>
+        <v>static partnerPortalManager = 'partnerPortalManager';</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f>LEFT(A47,G47-1)</f>
+        <v>public const string ContractClauseAdmin</v>
+      </c>
+      <c r="C47" t="str">
+        <f>RIGHT(B47, LEN(B47)-LEN($J$2))</f>
+        <v>ContractClauseAdmin</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>contractClauseAdmin</v>
+      </c>
+      <c r="E47" t="str">
+        <f>RIGHT(A47,LEN(A47)-G47-3)</f>
+        <v>contractClauseAdmin";</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v>contractClauseAdmin</v>
+      </c>
+      <c r="G47">
+        <f>FIND(" =",A47)</f>
+        <v>40</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="5"/>
+        <v>static contractClauseAdmin = 'contractClauseAdmin';</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f>LEFT(A48,G48-1)</f>
+        <v>public const string FxController</v>
+      </c>
+      <c r="C48" t="str">
+        <f>RIGHT(B48, LEN(B48)-LEN($J$2))</f>
+        <v>FxController</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>fxController</v>
+      </c>
+      <c r="E48" t="str">
+        <f>RIGHT(A48,LEN(A48)-G48-3)</f>
+        <v>fxController";</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v>fxController</v>
+      </c>
+      <c r="G48">
+        <f>FIND(" =",A48)</f>
+        <v>33</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="5"/>
+        <v>static fxController = 'fxController';</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="9" t="str">
+        <f>LEFT(A49,G49-1)</f>
+        <v>public const string AnalyticsAdmin</v>
+      </c>
+      <c r="C49" t="str">
+        <f>RIGHT(B49, LEN(B49)-LEN($J$2))</f>
+        <v>AnalyticsAdmin</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>analyticsAdmin</v>
+      </c>
+      <c r="E49" t="str">
+        <f>RIGHT(A49,LEN(A49)-G49-3)</f>
+        <v>analyticsAdmin";</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v>analyticsAdmin</v>
+      </c>
+      <c r="G49">
+        <f>FIND(" =",A49)</f>
+        <v>35</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="5"/>
+        <v>static analyticsAdmin = 'analyticsAdmin';</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="9" t="str">
+        <f>LEFT(A50,G50-1)</f>
+        <v>public const string CommodityManager</v>
+      </c>
+      <c r="C50" t="str">
+        <f>RIGHT(B50, LEN(B50)-LEN($J$2))</f>
+        <v>CommodityManager</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>commodityManager</v>
+      </c>
+      <c r="E50" t="str">
+        <f>RIGHT(A50,LEN(A50)-G50-3)</f>
+        <v>commodityManager";</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v>commodityManager</v>
+      </c>
+      <c r="G50">
+        <f>FIND(" =",A50)</f>
+        <v>37</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="5"/>
+        <v>static commodityManager = 'commodityManager';</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="9" t="str">
+        <f>LEFT(A51,G51-1)</f>
+        <v>public const string ContractPricingAdmin</v>
+      </c>
+      <c r="C51" t="str">
+        <f>RIGHT(B51, LEN(B51)-LEN($J$2))</f>
+        <v>ContractPricingAdmin</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>contractPricingAdmin</v>
+      </c>
+      <c r="E51" t="str">
+        <f>RIGHT(A51,LEN(A51)-G51-3)</f>
+        <v>contractPricingAdmin";</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v>contractPricingAdmin</v>
+      </c>
+      <c r="G51">
+        <f>FIND(" =",A51)</f>
+        <v>41</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="5"/>
+        <v>static contractPricingAdmin = 'contractPricingAdmin';</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="9" t="str">
+        <f>LEFT(A52,G52-1)</f>
+        <v>public const string CreateMerchantInvoices</v>
+      </c>
+      <c r="C52" t="str">
+        <f>RIGHT(B52, LEN(B52)-LEN($J$2))</f>
+        <v>CreateMerchantInvoices</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>createMerchantInvoices</v>
+      </c>
+      <c r="E52" t="str">
+        <f>RIGHT(A52,LEN(A52)-G52-3)</f>
+        <v>createMerchantInvoices";</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v>createMerchantInvoices</v>
+      </c>
+      <c r="G52">
+        <f>FIND(" =",A52)</f>
+        <v>43</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="5"/>
+        <v>static createMerchantInvoices = 'createMerchantInvoices';</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f>LEFT(A53,G53-1)</f>
+        <v>public const string CreatePurchaseOrderInvoices</v>
+      </c>
+      <c r="C53" t="str">
+        <f>RIGHT(B53, LEN(B53)-LEN($J$2))</f>
+        <v>CreatePurchaseOrderInvoices</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>createPurchaseOrderInvoices</v>
+      </c>
+      <c r="E53" t="str">
+        <f>RIGHT(A53,LEN(A53)-G53-3)</f>
+        <v>createPurchaseOrderInvoices";</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v>createPurchaseOrderInvoices</v>
+      </c>
+      <c r="G53">
+        <f>FIND(" =",A53)</f>
+        <v>48</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="5"/>
+        <v>static createPurchaseOrderInvoices = 'createPurchaseOrderInvoices';</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="9" t="str">
+        <f>LEFT(A54,G54-1)</f>
+        <v>public const string CreateShippingInvoice</v>
+      </c>
+      <c r="C54" t="str">
+        <f>RIGHT(B54, LEN(B54)-LEN($J$2))</f>
+        <v>CreateShippingInvoice</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>createShippingInvoice</v>
+      </c>
+      <c r="E54" t="str">
+        <f>RIGHT(A54,LEN(A54)-G54-3)</f>
+        <v>createShippingInvoice";</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v>createShippingInvoice</v>
+      </c>
+      <c r="G54">
+        <f>FIND(" =",A54)</f>
+        <v>42</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="5"/>
+        <v>static createShippingInvoice = 'createShippingInvoice';</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="9" t="str">
+        <f>LEFT(A55,G55-1)</f>
+        <v>public const string SendTransactionsToNetsuite</v>
+      </c>
+      <c r="C55" t="str">
+        <f>RIGHT(B55, LEN(B55)-LEN($J$2))</f>
+        <v>SendTransactionsToNetsuite</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>sendTransactionsToNetsuite</v>
+      </c>
+      <c r="E55" t="str">
+        <f>RIGHT(A55,LEN(A55)-G55-3)</f>
+        <v>sendTransactionsToNetsuite";</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v>sendTransactionsToNetsuite</v>
+      </c>
+      <c r="G55">
+        <f>FIND(" =",A55)</f>
+        <v>47</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="5"/>
+        <v>static sendTransactionsToNetsuite = 'sendTransactionsToNetsuite';</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="9" t="str">
+        <f>LEFT(A56,G56-1)</f>
+        <v>public const string GenerateSalesInvoices</v>
+      </c>
+      <c r="C56" t="str">
+        <f>RIGHT(B56, LEN(B56)-LEN($J$2))</f>
+        <v>GenerateSalesInvoices</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>generateSalesInvoices</v>
+      </c>
+      <c r="E56" t="str">
+        <f>RIGHT(A56,LEN(A56)-G56-3)</f>
+        <v>generateSalesInvoices";</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v>generateSalesInvoices</v>
+      </c>
+      <c r="G56">
+        <f>FIND(" =",A56)</f>
+        <v>42</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="5"/>
+        <v>static generateSalesInvoices = 'generateSalesInvoices';</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="9" t="str">
+        <f>LEFT(A57,G57-1)</f>
+        <v>public const string StockAdjuster</v>
+      </c>
+      <c r="C57" t="str">
+        <f>RIGHT(B57, LEN(B57)-LEN($J$2))</f>
+        <v>StockAdjuster</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>stockAdjuster</v>
+      </c>
+      <c r="E57" t="str">
+        <f>RIGHT(A57,LEN(A57)-G57-3)</f>
+        <v>stockAdjuster";</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v>stockAdjuster</v>
+      </c>
+      <c r="G57">
+        <f>FIND(" =",A57)</f>
+        <v>34</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="5"/>
+        <v>static stockAdjuster = 'stockAdjuster';</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="9" t="str">
+        <f>LEFT(A58,G58-1)</f>
+        <v>public const string GlobalConfigManager</v>
+      </c>
+      <c r="C58" t="str">
+        <f>RIGHT(B58, LEN(B58)-LEN($J$2))</f>
+        <v>GlobalConfigManager</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>globalConfigManager</v>
+      </c>
+      <c r="E58" t="str">
+        <f>RIGHT(A58,LEN(A58)-G58-3)</f>
+        <v>globalConfigManager";</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v>globalConfigManager</v>
+      </c>
+      <c r="G58">
+        <f>FIND(" =",A58)</f>
+        <v>40</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="5"/>
+        <v>static globalConfigManager = 'globalConfigManager';</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="9" t="str">
+        <f>LEFT(A59,G59-1)</f>
+        <v>public const string Translator</v>
+      </c>
+      <c r="C59" t="str">
+        <f>RIGHT(B59, LEN(B59)-LEN($J$2))</f>
+        <v>Translator</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>translator</v>
+      </c>
+      <c r="E59" t="str">
+        <f>RIGHT(A59,LEN(A59)-G59-3)</f>
+        <v>translator";</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v>translator</v>
+      </c>
+      <c r="G59">
+        <f>FIND(" =",A59)</f>
+        <v>31</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="5"/>
+        <v>static translator = 'translator';</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="9" t="str">
+        <f>LEFT(A60,G60-1)</f>
+        <v>public const string PositionExcluder</v>
+      </c>
+      <c r="C60" t="str">
+        <f>RIGHT(B60, LEN(B60)-LEN($J$2))</f>
+        <v>PositionExcluder</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>positionExcluder</v>
+      </c>
+      <c r="E60" t="str">
+        <f>RIGHT(A60,LEN(A60)-G60-3)</f>
+        <v>positionExcluder";</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v>positionExcluder</v>
+      </c>
+      <c r="G60">
+        <f>FIND(" =",A60)</f>
+        <v>37</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="5"/>
+        <v>static positionExcluder = 'positionExcluder';</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="9" t="str">
+        <f>LEFT(A61,G61-1)</f>
+        <v>public const string TradingPartnerAccountApprover</v>
+      </c>
+      <c r="C61" t="str">
+        <f>RIGHT(B61, LEN(B61)-LEN($J$2))</f>
+        <v>TradingPartnerAccountApprover</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>tradingPartnerAccountApprover</v>
+      </c>
+      <c r="E61" t="str">
+        <f>RIGHT(A61,LEN(A61)-G61-3)</f>
+        <v>tradingPartnerAccountApprover";</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v>tradingPartnerAccountApprover</v>
+      </c>
+      <c r="G61">
+        <f>FIND(" =",A61)</f>
+        <v>50</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="5"/>
+        <v>static tradingPartnerAccountApprover = 'tradingPartnerAccountApprover';</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3688,22 +8299,22 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="20.33203125" customWidth="1"/>
     <col min="4" max="5" width="53.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
       <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3714,7 +8325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3725,7 +8336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +8347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3747,7 +8358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3758,7 +8369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3769,7 +8380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3780,7 +8391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3788,7 +8399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>38</v>
       </c>

--- a/convert c# to typescript - lower case.xlsx
+++ b/convert c# to typescript - lower case.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim.hilton\Documents\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF00F7F-D0DF-44B3-9D5D-53E811E456E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="C# model" sheetId="1" r:id="rId1"/>
-    <sheet name="Static class" sheetId="3" r:id="rId2"/>
-    <sheet name="Types" sheetId="2" r:id="rId3"/>
+    <sheet name="C# model to ts" sheetId="1" r:id="rId1"/>
+    <sheet name="Static class to ts" sheetId="3" r:id="rId2"/>
+    <sheet name="ts model to C#" sheetId="6" r:id="rId3"/>
+    <sheet name="Types" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -137,12 +138,6 @@
     <t>camelCasedName</t>
   </si>
   <si>
-    <t xml:space="preserve">        public int Id { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public string Notes { get; set; }</t>
-  </si>
-  <si>
     <t>DateTimeOffset</t>
   </si>
   <si>
@@ -2688,13 +2683,467 @@
   </si>
   <si>
     <t>camel case name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public decimal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC191FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ICollection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC191FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>InvoiceLineForConsolidationResult</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Lines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public decimal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PricePerTonne </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public decimal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Tonnes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dueDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC191FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>salesInvoiceLineIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>[];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC191FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>PurchaseInvoiceStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Colon index</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Is array</t>
+  </si>
+  <si>
+    <t>Capitalised name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Non array type</t>
+  </si>
+  <si>
+    <t>Specify mapping from typescript to C# types</t>
+  </si>
+  <si>
+    <t>C# auto prop</t>
+  </si>
+  <si>
+    <t>C# possibly list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2756,6 +3205,24 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF66C3CC"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF39CC8F"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC191FF"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2795,7 +3262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -2803,14 +3270,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3131,28 +3603,28 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="P5" sqref="P2:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="26.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="26.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="27" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="66.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="82.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="4"/>
+    <col min="16" max="16" width="66.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="82.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3209,32 +3681,32 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="4">
         <f>FIND("public ",A2)+7</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <f>FIND(" ",A2,B2)+1</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <f>FIND(" ",A2,C2)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>MID(A2,C2,D2-C2)</f>
-        <v>Id</v>
+        <v>Description</v>
       </c>
       <c r="F2" s="4" t="str">
         <f xml:space="preserve"> CONCATENATE(LOWER(LEFT(E2,1)), RIGHT(E2,LEN(E2)-1))</f>
-        <v>id</v>
+        <v>description</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>MID(A2,B2,C2-B2-1)</f>
-        <v>int</v>
+        <v>string</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ref="H2:H50" si="0">IFERROR(FIND("&lt;",G2), -1)</f>
@@ -3249,12 +3721,12 @@
         <v/>
       </c>
       <c r="K2" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J2,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J2,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L2" s="4" t="str">
         <f t="shared" ref="L2" si="1">IF(K2,MID(G2,H2+1,I2-H2-1),G2)</f>
-        <v>int</v>
+        <v>string</v>
       </c>
       <c r="M2" s="4" t="b">
         <f>NOT(ISERROR(FIND("?",G2)))</f>
@@ -3262,44 +3734,44 @@
       </c>
       <c r="N2" s="4" t="str">
         <f t="shared" ref="N2" si="2">IFERROR(REPLACE(L2,FIND("?",L2),1,""),L2)</f>
-        <v>int</v>
+        <v>string</v>
       </c>
       <c r="O2" s="4" t="str">
-        <f>IFERROR(VLOOKUP(N2,Types!$A$3:$B$28,2,FALSE),N2)</f>
-        <v>number</v>
+        <f>IFERROR(VLOOKUP(N2,Types!$A$3:$B$27,2,FALSE),N2)</f>
+        <v>string</v>
       </c>
       <c r="P2" s="6" t="str">
         <f>IFERROR(F2&amp;IF(M2,"?: ",": ")&amp;O2&amp;IF(K2,"[]","")&amp;";","")</f>
-        <v>id: number;</v>
+        <v>description: string;</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
+      <c r="A3" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="B3" s="4">
         <f>FIND("public ",A3)+7</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <f>FIND(" ",A3,B3)+1</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <f>FIND(" ",A3,C3)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>MID(A3,C3,D3-C3)</f>
-        <v>Notes</v>
+        <v>PricePerTonne</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F50" si="3" xml:space="preserve"> CONCATENATE(LOWER(LEFT(E3,1)), RIGHT(E3,LEN(E3)-1))</f>
-        <v>notes</v>
+        <v>pricePerTonne</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>MID(A3,B3,C3-B3-1)</f>
-        <v>string</v>
+        <v>decimal</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
@@ -3314,12 +3786,12 @@
         <v/>
       </c>
       <c r="K3" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J3,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J3,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L3" s="4" t="str">
         <f t="shared" ref="L3:L50" si="6">IF(K3,MID(G3,H3+1,I3-H3-1),G3)</f>
-        <v>string</v>
+        <v>decimal</v>
       </c>
       <c r="M3" s="4" t="b">
         <f t="shared" ref="M3:M50" si="7">NOT(ISERROR(FIND("?",G3)))</f>
@@ -3327,42 +3799,44 @@
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" ref="N3:N50" si="8">IFERROR(REPLACE(L3,FIND("?",L3),1,""),L3)</f>
-        <v>string</v>
+        <v>decimal</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f>IFERROR(VLOOKUP(N3,Types!$A$3:$B$28,2,FALSE),N3)</f>
-        <v>string</v>
+        <f>IFERROR(VLOOKUP(N3,Types!$A$3:$B$27,2,FALSE),N3)</f>
+        <v>number</v>
       </c>
       <c r="P3" s="6" t="str">
         <f t="shared" ref="P3:P50" si="9">IFERROR(F3&amp;IF(M3,"?: ",": ")&amp;O3&amp;IF(K3,"[]","")&amp;";","")</f>
-        <v>notes: string;</v>
+        <v>pricePerTonne: number;</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4" t="e">
+      <c r="A4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B50" si="10">FIND("public ",A4)+7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" ref="C4:C50" si="11">FIND(" ",A4,B4)+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="4" t="e">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D50" si="12">FIND(" ",A4,C4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="4" t="e">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="str">
         <f t="shared" ref="E4:E50" si="13">MID(A4,C4,D4-C4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="4" t="e">
+        <v>Tonnes</v>
+      </c>
+      <c r="F4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" s="4" t="e">
+        <v>tonnes</v>
+      </c>
+      <c r="G4" s="4" t="str">
         <f t="shared" ref="G4:G50" si="14">MID(A4,B4,C4-B4-1)</f>
-        <v>#VALUE!</v>
+        <v>decimal</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
@@ -3377,54 +3851,57 @@
         <v/>
       </c>
       <c r="K4" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J4,Types!$D$3:$D$34,1,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <f>NOT(ISERROR(VLOOKUP(J4,Types!$D$3:$D$33,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>decimal</v>
       </c>
       <c r="M4" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N4" s="4" t="e">
+      <c r="N4" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O4" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N4,Types!$A$3:$B$28,2,FALSE),N4)</f>
-        <v>#VALUE!</v>
+        <v>decimal</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(N4,Types!$A$3:$B$27,2,FALSE),N4)</f>
+        <v>number</v>
       </c>
       <c r="P4" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>tonnes: number;</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="4" t="e">
+      <c r="A5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="4" t="e">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" s="4" t="e">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="4" t="e">
+        <v>Total</v>
+      </c>
+      <c r="F5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="4" t="e">
+        <v>total</v>
+      </c>
+      <c r="G5" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>decimal</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
@@ -3439,54 +3916,57 @@
         <v/>
       </c>
       <c r="K5" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J5,Types!$D$3:$D$34,1,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <f>NOT(ISERROR(VLOOKUP(J5,Types!$D$3:$D$33,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>decimal</v>
       </c>
       <c r="M5" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N5" s="4" t="e">
+      <c r="N5" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O5" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N5,Types!$A$3:$B$28,2,FALSE),N5)</f>
-        <v>#VALUE!</v>
+        <v>decimal</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(N5,Types!$A$3:$B$27,2,FALSE),N5)</f>
+        <v>number</v>
       </c>
       <c r="P5" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>total: number;</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="4" t="e">
+      <c r="A6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D6" s="4" t="e">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="4" t="e">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="4" t="e">
+        <v>Total</v>
+      </c>
+      <c r="F6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="4" t="e">
+        <v>total</v>
+      </c>
+      <c r="G6" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>decimal</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
@@ -3501,90 +3981,93 @@
         <v/>
       </c>
       <c r="K6" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J6,Types!$D$3:$D$34,1,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <f>NOT(ISERROR(VLOOKUP(J6,Types!$D$3:$D$33,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>decimal</v>
       </c>
       <c r="M6" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N6" s="4" t="e">
+      <c r="N6" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N6,Types!$A$3:$B$28,2,FALSE),N6)</f>
-        <v>#VALUE!</v>
+        <v>decimal</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(N6,Types!$A$3:$B$27,2,FALSE),N6)</f>
+        <v>number</v>
       </c>
       <c r="P6" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>total: number;</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="4" t="e">
+      <c r="A7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="4" t="e">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="4" t="e">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="4" t="e">
+        <v>Lines</v>
+      </c>
+      <c r="F7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="4" t="e">
+        <v>lines</v>
+      </c>
+      <c r="G7" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>ICollection&lt;InvoiceLineForConsolidationResult&gt;</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ICollection</v>
       </c>
       <c r="K7" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J7,Types!$D$3:$D$34,1,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <f>NOT(ISERROR(VLOOKUP(J7,Types!$D$3:$D$33,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>InvoiceLineForConsolidationResult</v>
       </c>
       <c r="M7" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N7" s="4" t="e">
+      <c r="N7" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N7,Types!$A$3:$B$28,2,FALSE),N7)</f>
-        <v>#VALUE!</v>
+        <v>InvoiceLineForConsolidationResult</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(N7,Types!$A$3:$B$27,2,FALSE),N7)</f>
+        <v>InvoiceLineForConsolidationResult</v>
       </c>
       <c r="P7" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>lines: InvoiceLineForConsolidationResult[];</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3625,7 +4108,7 @@
         <v/>
       </c>
       <c r="K8" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J8,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J8,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L8" s="4" t="e">
@@ -3641,7 +4124,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O8" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N8,Types!$A$3:$B$28,2,FALSE),N8)</f>
+        <f>IFERROR(VLOOKUP(N8,Types!$A$3:$B$27,2,FALSE),N8)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P8" s="6" t="str">
@@ -3687,7 +4170,7 @@
         <v/>
       </c>
       <c r="K9" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J9,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J9,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L9" s="4" t="e">
@@ -3703,7 +4186,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O9" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N9,Types!$A$3:$B$28,2,FALSE),N9)</f>
+        <f>IFERROR(VLOOKUP(N9,Types!$A$3:$B$27,2,FALSE),N9)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P9" s="6" t="str">
@@ -3749,7 +4232,7 @@
         <v/>
       </c>
       <c r="K10" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J10,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J10,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L10" s="4" t="e">
@@ -3765,7 +4248,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O10" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N10,Types!$A$3:$B$28,2,FALSE),N10)</f>
+        <f>IFERROR(VLOOKUP(N10,Types!$A$3:$B$27,2,FALSE),N10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P10" s="6" t="str">
@@ -3811,7 +4294,7 @@
         <v/>
       </c>
       <c r="K11" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J11,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J11,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L11" s="4" t="e">
@@ -3827,7 +4310,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O11" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N11,Types!$A$3:$B$28,2,FALSE),N11)</f>
+        <f>IFERROR(VLOOKUP(N11,Types!$A$3:$B$27,2,FALSE),N11)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P11" s="6" t="str">
@@ -3873,7 +4356,7 @@
         <v/>
       </c>
       <c r="K12" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J12,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J12,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L12" s="4" t="e">
@@ -3889,7 +4372,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O12" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N12,Types!$A$3:$B$28,2,FALSE),N12)</f>
+        <f>IFERROR(VLOOKUP(N12,Types!$A$3:$B$27,2,FALSE),N12)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P12" s="6" t="str">
@@ -3935,7 +4418,7 @@
         <v/>
       </c>
       <c r="K13" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J13,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J13,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L13" s="4" t="e">
@@ -3951,7 +4434,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O13" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N13,Types!$A$3:$B$28,2,FALSE),N13)</f>
+        <f>IFERROR(VLOOKUP(N13,Types!$A$3:$B$27,2,FALSE),N13)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P13" s="6" t="str">
@@ -3997,7 +4480,7 @@
         <v/>
       </c>
       <c r="K14" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J14,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J14,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L14" s="4" t="e">
@@ -4013,7 +4496,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O14" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N14,Types!$A$3:$B$28,2,FALSE),N14)</f>
+        <f>IFERROR(VLOOKUP(N14,Types!$A$3:$B$27,2,FALSE),N14)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P14" s="6" t="str">
@@ -4059,7 +4542,7 @@
         <v/>
       </c>
       <c r="K15" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J15,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J15,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L15" s="4" t="e">
@@ -4075,7 +4558,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O15" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N15,Types!$A$3:$B$28,2,FALSE),N15)</f>
+        <f>IFERROR(VLOOKUP(N15,Types!$A$3:$B$27,2,FALSE),N15)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P15" s="6" t="str">
@@ -4121,7 +4604,7 @@
         <v/>
       </c>
       <c r="K16" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J16,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J16,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L16" s="4" t="e">
@@ -4137,7 +4620,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O16" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N16,Types!$A$3:$B$28,2,FALSE),N16)</f>
+        <f>IFERROR(VLOOKUP(N16,Types!$A$3:$B$27,2,FALSE),N16)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P16" s="6" t="str">
@@ -4183,7 +4666,7 @@
         <v/>
       </c>
       <c r="K17" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J17,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J17,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L17" s="4" t="e">
@@ -4199,7 +4682,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O17" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N17,Types!$A$3:$B$28,2,FALSE),N17)</f>
+        <f>IFERROR(VLOOKUP(N17,Types!$A$3:$B$27,2,FALSE),N17)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P17" s="6" t="str">
@@ -4245,7 +4728,7 @@
         <v/>
       </c>
       <c r="K18" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J18,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J18,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L18" s="4" t="e">
@@ -4261,7 +4744,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O18" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N18,Types!$A$3:$B$28,2,FALSE),N18)</f>
+        <f>IFERROR(VLOOKUP(N18,Types!$A$3:$B$27,2,FALSE),N18)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P18" s="6" t="str">
@@ -4307,7 +4790,7 @@
         <v/>
       </c>
       <c r="K19" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J19,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J19,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L19" s="4" t="e">
@@ -4323,7 +4806,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O19" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N19,Types!$A$3:$B$28,2,FALSE),N19)</f>
+        <f>IFERROR(VLOOKUP(N19,Types!$A$3:$B$27,2,FALSE),N19)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P19" s="6" t="str">
@@ -4369,7 +4852,7 @@
         <v/>
       </c>
       <c r="K20" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J20,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J20,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L20" s="4" t="e">
@@ -4385,7 +4868,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O20" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N20,Types!$A$3:$B$28,2,FALSE),N20)</f>
+        <f>IFERROR(VLOOKUP(N20,Types!$A$3:$B$27,2,FALSE),N20)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P20" s="6" t="str">
@@ -4431,7 +4914,7 @@
         <v/>
       </c>
       <c r="K21" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J21,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J21,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L21" s="4" t="e">
@@ -4447,7 +4930,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O21" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N21,Types!$A$3:$B$28,2,FALSE),N21)</f>
+        <f>IFERROR(VLOOKUP(N21,Types!$A$3:$B$27,2,FALSE),N21)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P21" s="6" t="str">
@@ -4493,7 +4976,7 @@
         <v/>
       </c>
       <c r="K22" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J22,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J22,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L22" s="4" t="e">
@@ -4509,7 +4992,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O22" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N22,Types!$A$3:$B$28,2,FALSE),N22)</f>
+        <f>IFERROR(VLOOKUP(N22,Types!$A$3:$B$27,2,FALSE),N22)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P22" s="6" t="str">
@@ -4555,7 +5038,7 @@
         <v/>
       </c>
       <c r="K23" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J23,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J23,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L23" s="4" t="e">
@@ -4571,7 +5054,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O23" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N23,Types!$A$3:$B$28,2,FALSE),N23)</f>
+        <f>IFERROR(VLOOKUP(N23,Types!$A$3:$B$27,2,FALSE),N23)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P23" s="6" t="str">
@@ -4617,7 +5100,7 @@
         <v/>
       </c>
       <c r="K24" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J24,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J24,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L24" s="4" t="e">
@@ -4633,7 +5116,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O24" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N24,Types!$A$3:$B$28,2,FALSE),N24)</f>
+        <f>IFERROR(VLOOKUP(N24,Types!$A$3:$B$27,2,FALSE),N24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P24" s="6" t="str">
@@ -4679,7 +5162,7 @@
         <v/>
       </c>
       <c r="K25" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J25,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J25,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L25" s="4" t="e">
@@ -4695,7 +5178,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O25" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N25,Types!$A$3:$B$28,2,FALSE),N25)</f>
+        <f>IFERROR(VLOOKUP(N25,Types!$A$3:$B$27,2,FALSE),N25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P25" s="6" t="str">
@@ -4741,7 +5224,7 @@
         <v/>
       </c>
       <c r="K26" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J26,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J26,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L26" s="4" t="e">
@@ -4757,7 +5240,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O26" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N26,Types!$A$3:$B$28,2,FALSE),N26)</f>
+        <f>IFERROR(VLOOKUP(N26,Types!$A$3:$B$27,2,FALSE),N26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P26" s="6" t="str">
@@ -4803,7 +5286,7 @@
         <v/>
       </c>
       <c r="K27" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J27,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J27,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L27" s="4" t="e">
@@ -4819,7 +5302,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O27" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N27,Types!$A$3:$B$28,2,FALSE),N27)</f>
+        <f>IFERROR(VLOOKUP(N27,Types!$A$3:$B$27,2,FALSE),N27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P27" s="6" t="str">
@@ -4865,7 +5348,7 @@
         <v/>
       </c>
       <c r="K28" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J28,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J28,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L28" s="4" t="e">
@@ -4881,7 +5364,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N28,Types!$A$3:$B$28,2,FALSE),N28)</f>
+        <f>IFERROR(VLOOKUP(N28,Types!$A$3:$B$27,2,FALSE),N28)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P28" s="6" t="str">
@@ -4927,7 +5410,7 @@
         <v/>
       </c>
       <c r="K29" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J29,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J29,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L29" s="4" t="e">
@@ -4943,7 +5426,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N29,Types!$A$3:$B$28,2,FALSE),N29)</f>
+        <f>IFERROR(VLOOKUP(N29,Types!$A$3:$B$27,2,FALSE),N29)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="6" t="str">
@@ -4989,7 +5472,7 @@
         <v/>
       </c>
       <c r="K30" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J30,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J30,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L30" s="4" t="e">
@@ -5005,7 +5488,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N30,Types!$A$3:$B$28,2,FALSE),N30)</f>
+        <f>IFERROR(VLOOKUP(N30,Types!$A$3:$B$27,2,FALSE),N30)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P30" s="6" t="str">
@@ -5051,7 +5534,7 @@
         <v/>
       </c>
       <c r="K31" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J31,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J31,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L31" s="4" t="e">
@@ -5067,7 +5550,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N31,Types!$A$3:$B$28,2,FALSE),N31)</f>
+        <f>IFERROR(VLOOKUP(N31,Types!$A$3:$B$27,2,FALSE),N31)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P31" s="6" t="str">
@@ -5113,7 +5596,7 @@
         <v/>
       </c>
       <c r="K32" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J32,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J32,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L32" s="4" t="e">
@@ -5129,7 +5612,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N32,Types!$A$3:$B$28,2,FALSE),N32)</f>
+        <f>IFERROR(VLOOKUP(N32,Types!$A$3:$B$27,2,FALSE),N32)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P32" s="6" t="str">
@@ -5175,7 +5658,7 @@
         <v/>
       </c>
       <c r="K33" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J33,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J33,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L33" s="4" t="e">
@@ -5191,7 +5674,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O33" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N33,Types!$A$3:$B$28,2,FALSE),N33)</f>
+        <f>IFERROR(VLOOKUP(N33,Types!$A$3:$B$27,2,FALSE),N33)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P33" s="6" t="str">
@@ -5237,7 +5720,7 @@
         <v/>
       </c>
       <c r="K34" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J34,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J34,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L34" s="4" t="e">
@@ -5253,7 +5736,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O34" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N34,Types!$A$3:$B$28,2,FALSE),N34)</f>
+        <f>IFERROR(VLOOKUP(N34,Types!$A$3:$B$27,2,FALSE),N34)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P34" s="6" t="str">
@@ -5299,7 +5782,7 @@
         <v/>
       </c>
       <c r="K35" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J35,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J35,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L35" s="4" t="e">
@@ -5315,7 +5798,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O35" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N35,Types!$A$3:$B$28,2,FALSE),N35)</f>
+        <f>IFERROR(VLOOKUP(N35,Types!$A$3:$B$27,2,FALSE),N35)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P35" s="6" t="str">
@@ -5361,7 +5844,7 @@
         <v/>
       </c>
       <c r="K36" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J36,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J36,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L36" s="4" t="e">
@@ -5377,7 +5860,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O36" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N36,Types!$A$3:$B$28,2,FALSE),N36)</f>
+        <f>IFERROR(VLOOKUP(N36,Types!$A$3:$B$27,2,FALSE),N36)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P36" s="6" t="str">
@@ -5423,7 +5906,7 @@
         <v/>
       </c>
       <c r="K37" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J37,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J37,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L37" s="4" t="e">
@@ -5439,7 +5922,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O37" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N37,Types!$A$3:$B$28,2,FALSE),N37)</f>
+        <f>IFERROR(VLOOKUP(N37,Types!$A$3:$B$27,2,FALSE),N37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P37" s="6" t="str">
@@ -5485,7 +5968,7 @@
         <v/>
       </c>
       <c r="K38" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J38,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J38,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L38" s="4" t="e">
@@ -5501,7 +5984,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O38" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N38,Types!$A$3:$B$28,2,FALSE),N38)</f>
+        <f>IFERROR(VLOOKUP(N38,Types!$A$3:$B$27,2,FALSE),N38)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P38" s="6" t="str">
@@ -5547,7 +6030,7 @@
         <v/>
       </c>
       <c r="K39" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J39,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J39,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L39" s="4" t="e">
@@ -5563,7 +6046,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O39" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N39,Types!$A$3:$B$28,2,FALSE),N39)</f>
+        <f>IFERROR(VLOOKUP(N39,Types!$A$3:$B$27,2,FALSE),N39)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P39" s="6" t="str">
@@ -5609,7 +6092,7 @@
         <v/>
       </c>
       <c r="K40" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J40,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J40,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L40" s="4" t="e">
@@ -5625,7 +6108,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O40" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N40,Types!$A$3:$B$28,2,FALSE),N40)</f>
+        <f>IFERROR(VLOOKUP(N40,Types!$A$3:$B$27,2,FALSE),N40)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P40" s="6" t="str">
@@ -5671,7 +6154,7 @@
         <v/>
       </c>
       <c r="K41" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J41,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J41,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L41" s="4" t="e">
@@ -5687,7 +6170,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O41" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N41,Types!$A$3:$B$28,2,FALSE),N41)</f>
+        <f>IFERROR(VLOOKUP(N41,Types!$A$3:$B$27,2,FALSE),N41)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P41" s="6" t="str">
@@ -5733,7 +6216,7 @@
         <v/>
       </c>
       <c r="K42" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J42,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J42,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L42" s="4" t="e">
@@ -5749,7 +6232,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O42" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N42,Types!$A$3:$B$28,2,FALSE),N42)</f>
+        <f>IFERROR(VLOOKUP(N42,Types!$A$3:$B$27,2,FALSE),N42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P42" s="6" t="str">
@@ -5795,7 +6278,7 @@
         <v/>
       </c>
       <c r="K43" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J43,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J43,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L43" s="4" t="e">
@@ -5811,7 +6294,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O43" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N43,Types!$A$3:$B$28,2,FALSE),N43)</f>
+        <f>IFERROR(VLOOKUP(N43,Types!$A$3:$B$27,2,FALSE),N43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P43" s="6" t="str">
@@ -5857,7 +6340,7 @@
         <v/>
       </c>
       <c r="K44" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J44,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J44,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L44" s="4" t="e">
@@ -5873,7 +6356,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O44" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N44,Types!$A$3:$B$28,2,FALSE),N44)</f>
+        <f>IFERROR(VLOOKUP(N44,Types!$A$3:$B$27,2,FALSE),N44)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P44" s="6" t="str">
@@ -5919,7 +6402,7 @@
         <v/>
       </c>
       <c r="K45" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J45,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J45,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L45" s="4" t="e">
@@ -5935,7 +6418,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O45" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N45,Types!$A$3:$B$28,2,FALSE),N45)</f>
+        <f>IFERROR(VLOOKUP(N45,Types!$A$3:$B$27,2,FALSE),N45)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P45" s="6" t="str">
@@ -5981,7 +6464,7 @@
         <v/>
       </c>
       <c r="K46" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J46,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J46,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L46" s="4" t="e">
@@ -5997,7 +6480,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O46" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N46,Types!$A$3:$B$28,2,FALSE),N46)</f>
+        <f>IFERROR(VLOOKUP(N46,Types!$A$3:$B$27,2,FALSE),N46)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P46" s="6" t="str">
@@ -6043,7 +6526,7 @@
         <v/>
       </c>
       <c r="K47" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J47,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J47,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L47" s="4" t="e">
@@ -6059,7 +6542,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O47" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N47,Types!$A$3:$B$28,2,FALSE),N47)</f>
+        <f>IFERROR(VLOOKUP(N47,Types!$A$3:$B$27,2,FALSE),N47)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P47" s="6" t="str">
@@ -6105,7 +6588,7 @@
         <v/>
       </c>
       <c r="K48" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J48,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J48,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L48" s="4" t="e">
@@ -6121,7 +6604,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O48" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N48,Types!$A$3:$B$28,2,FALSE),N48)</f>
+        <f>IFERROR(VLOOKUP(N48,Types!$A$3:$B$27,2,FALSE),N48)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P48" s="6" t="str">
@@ -6167,7 +6650,7 @@
         <v/>
       </c>
       <c r="K49" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J49,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J49,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L49" s="4" t="e">
@@ -6183,7 +6666,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O49" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N49,Types!$A$3:$B$28,2,FALSE),N49)</f>
+        <f>IFERROR(VLOOKUP(N49,Types!$A$3:$B$27,2,FALSE),N49)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P49" s="6" t="str">
@@ -6229,7 +6712,7 @@
         <v/>
       </c>
       <c r="K50" s="4" t="b">
-        <f>NOT(ISERROR(VLOOKUP(J50,Types!$D$3:$D$34,1,FALSE)))</f>
+        <f>NOT(ISERROR(VLOOKUP(J50,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L50" s="4" t="e">
@@ -6245,7 +6728,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O50" s="4" t="e">
-        <f>IFERROR(VLOOKUP(N50,Types!$A$3:$B$28,2,FALSE),N50)</f>
+        <f>IFERROR(VLOOKUP(N50,Types!$A$3:$B$27,2,FALSE),N50)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P50" s="6" t="str">
@@ -6263,18 +6746,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D574585A-7FEC-4159-B4CB-DE69CC75E979}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="96.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="61.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6283,35 +6766,35 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="9" t="str">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="str">
         <f>LEFT(A2,G2-1)</f>
         <v>public const string FarmTrader</v>
       </c>
       <c r="C2" t="str">
-        <f>RIGHT(B2, LEN(B2)-LEN($J$2))</f>
+        <f t="shared" ref="C2:C33" si="0">RIGHT(B2, LEN(B2)-LEN($J$2))</f>
         <v>FarmTrader</v>
       </c>
       <c r="D2" t="str">
@@ -6335,1953 +6818,1953 @@
         <v>static farmTrader = 'farmTrader';</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f t="shared" ref="B3:B45" si="1">LEFT(A3,G3-1)</f>
+        <v>public const string FarmTraderAssistant</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>FarmTraderAssistant</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D61" si="2">_xlfn.CONCAT(LOWER(LEFT(C3,1)),RIGHT(C3,LEN(C3)-1))</f>
+        <v>farmTraderAssistant</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E45" si="3">RIGHT(A3,LEN(A3)-G3-3)</f>
+        <v>farmTraderAssistant";</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F61" si="4">LEFT(E3,LEN(E3)-2)</f>
+        <v>farmTraderAssistant</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G45" si="5">FIND(" =",A3)</f>
+        <v>40</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H61" si="6">"static "&amp;D3&amp;" = '"&amp;F3&amp;"';"</f>
+        <v>static farmTraderAssistant = 'farmTraderAssistant';</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string NoteEditor</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>NoteEditor</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>noteEditor</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>noteEditor";</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>noteEditor</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="6"/>
+        <v>static noteEditor = 'noteEditor';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="str">
-        <f t="shared" ref="B3:B45" si="0">LEFT(A3,G3-1)</f>
-        <v>public const string FarmTraderAssistant</v>
-      </c>
-      <c r="C3" t="str">
-        <f>RIGHT(B3, LEN(B3)-LEN($J$2))</f>
-        <v>FarmTraderAssistant</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D61" si="1">_xlfn.CONCAT(LOWER(LEFT(C3,1)),RIGHT(C3,LEN(C3)-1))</f>
-        <v>farmTraderAssistant</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E45" si="2">RIGHT(A3,LEN(A3)-G3-3)</f>
-        <v>farmTraderAssistant";</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F61" si="3">LEFT(E3,LEN(E3)-2)</f>
-        <v>farmTraderAssistant</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G45" si="4">FIND(" =",A3)</f>
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string ChangeAccountManager</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>ChangeAccountManager</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>changeAccountManager</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>changeAccountManager";</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>changeAccountManager</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="6"/>
+        <v>static changeAccountManager = 'changeAccountManager';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string Forwarder</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Forwarder</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>forwarder</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>forwarder";</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>forwarder</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="6"/>
+        <v>static forwarder = 'forwarder';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string Trader</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Trader</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>trader</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>trader";</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>trader</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="6"/>
+        <v>static trader = 'trader';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string SeedOrderApprover</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>SeedOrderApprover</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>seedOrderApprover</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>seedOrderApprover";</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>seedOrderApprover</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="6"/>
+        <v>static seedOrderApprover = 'seedOrderApprover';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string FertiliserOrderApprover</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>FertiliserOrderApprover</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>fertiliserOrderApprover</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>fertiliserOrderApprover";</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v>fertiliserOrderApprover</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="6"/>
+        <v>static fertiliserOrderApprover = 'fertiliserOrderApprover';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string PulseOrderApprover</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>PulseOrderApprover</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>pulseOrderApprover</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>pulseOrderApprover";</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v>pulseOrderApprover</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="6"/>
+        <v>static pulseOrderApprover = 'pulseOrderApprover';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string GenerateTradingPeriods</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>GenerateTradingPeriods</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>generateTradingPeriods</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>generateTradingPeriods";</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v>generateTradingPeriods</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="6"/>
+        <v>static generateTradingPeriods = 'generateTradingPeriods';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string PurchaseContactApprover</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>PurchaseContactApprover</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>purchaseContactApprover</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>purchaseContractApprover";</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>purchaseContractApprover</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="6"/>
+        <v>static purchaseContactApprover = 'purchaseContractApprover';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string SalesContractApprover</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>SalesContractApprover</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>salesContractApprover</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>salesContractApprover";</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v>salesContractApprover</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="6"/>
+        <v>static salesContractApprover = 'salesContractApprover';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string GenerateFarmerInvoice</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>GenerateFarmerInvoice</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>generateFarmerInvoice</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>generateFarmerInvoice";</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v>generateFarmerInvoice</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="6"/>
+        <v>static generateFarmerInvoice = 'generateFarmerInvoice';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string CreateContractPrePayments</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>CreateContractPrePayments</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>createContractPrePayments</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>createContractPrePayments";</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v>createContractPrePayments</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="6"/>
+        <v>static createContractPrePayments = 'createContractPrePayments';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string RollPurchaseContracts</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>RollPurchaseContracts</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>rollPurchaseContracts</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>rollPurchaseContracts";</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>rollPurchaseContracts</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="6"/>
+        <v>static rollPurchaseContracts = 'rollPurchaseContracts';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string OilAdmin</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>OilAdmin</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>oilAdmin</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>oilAdmin";</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>oilAdmin</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="6"/>
+        <v>static oilAdmin = 'oilAdmin';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string SystemAdministrator</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>SystemAdministrator</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>systemAdministrator</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>systemAdministrator";</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>systemAdministrator</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H61" si="5">"static "&amp;D3&amp;" = '"&amp;F3&amp;"';"</f>
-        <v>static farmTraderAssistant = 'farmTraderAssistant';</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="10" t="s">
+      <c r="H18" t="str">
+        <f t="shared" si="6"/>
+        <v>static systemAdministrator = 'systemAdministrator';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string IdentityManager</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>IdentityManager</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>identityManager</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>identityManager";</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>identityManager</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="6"/>
+        <v>static identityManager = 'identityManager';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string ChangePartnerType</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>ChangePartnerType</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>changePartnerType</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>changePartnerType";</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="4"/>
+        <v>changePartnerType</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="6"/>
+        <v>static changePartnerType = 'changePartnerType';</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string StockControl</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>StockControl</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>stockControl</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>stockControl";</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="4"/>
+        <v>stockControl</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="6"/>
+        <v>static stockControl = 'stockControl';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string PoolController</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>PoolController</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>poolController</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>poolController";</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="4"/>
+        <v>poolController</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="6"/>
+        <v>static poolController = 'poolController';</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string Finance</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Finance</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>finance</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>finance";</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="4"/>
+        <v>finance</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="6"/>
+        <v>static finance = 'finance';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string SendTradingPartnerToNetsuite</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>SendTradingPartnerToNetsuite</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>sendTradingPartnerToNetsuite</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>sendTradingPartnerToNetsuite";</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="4"/>
+        <v>sendTradingPartnerToNetsuite</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="6"/>
+        <v>static sendTradingPartnerToNetsuite = 'sendTradingPartnerToNetsuite';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string CancelContracts</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>CancelContracts</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>cancelContracts</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>cancelContracts";</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="4"/>
+        <v>cancelContracts</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="6"/>
+        <v>static cancelContracts = 'cancelContracts';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string QualityControl</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>QualityControl</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>qualityControl</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>qualityControl";</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="4"/>
+        <v>qualityControl</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="6"/>
+        <v>static qualityControl = 'qualityControl';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string SeedPurchaseApprover</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>SeedPurchaseApprover</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>seedPurchaseApprover</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>seedPurchaseApprover";</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="4"/>
+        <v>seedPurchaseApprover</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="6"/>
+        <v>static seedPurchaseApprover = 'seedPurchaseApprover';</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string FertiliserPurchaseApprover</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>FertiliserPurchaseApprover</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>fertiliserPurchaseApprover</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>fertiliserPurchaseApprover";</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="4"/>
+        <v>fertiliserPurchaseApprover</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="6"/>
+        <v>static fertiliserPurchaseApprover = 'fertiliserPurchaseApprover';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string JourneyController</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>JourneyController</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>journeyController</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>journeyController";</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="4"/>
+        <v>journeyController</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="6"/>
+        <v>static journeyController = 'journeyController';</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string ProductionManager</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>ProductionManager</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>productionManager</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>productionManager";</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="4"/>
+        <v>productionManager</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="6"/>
+        <v>static productionManager = 'productionManager';</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string SampleAdministrator</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>SampleAdministrator</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>sampleAdministrator</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>sampleAdministrator";</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="4"/>
+        <v>sampleAdministrator</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="6"/>
+        <v>static sampleAdministrator = 'sampleAdministrator';</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string ChooseBagTypes</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>ChooseBagTypes</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>chooseBagTypes</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="3"/>
+        <v>chooseBagTypes";</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="4"/>
+        <v>chooseBagTypes</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="6"/>
+        <v>static chooseBagTypes = 'chooseBagTypes';</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string CreateTradingPartners</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>CreateTradingPartners</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>createTradingPartners</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="3"/>
+        <v>createTradingPartners";</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="4"/>
+        <v>createTradingPartners</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="B4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string NoteEditor</v>
-      </c>
-      <c r="C4" t="str">
-        <f>RIGHT(B4, LEN(B4)-LEN($J$2))</f>
-        <v>NoteEditor</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="H33" t="str">
+        <f t="shared" si="6"/>
+        <v>static createTradingPartners = 'createTradingPartners';</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>noteEditor</v>
-      </c>
-      <c r="E4" t="str">
+        <v>public const string LabOperator</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C61" si="7">RIGHT(B34, LEN(B34)-LEN($J$2))</f>
+        <v>LabOperator</v>
+      </c>
+      <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>noteEditor";</v>
-      </c>
-      <c r="F4" t="str">
+        <v>labOperator</v>
+      </c>
+      <c r="E34" t="str">
         <f t="shared" si="3"/>
-        <v>noteEditor</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
+        <v>labOperator";</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="4"/>
+        <v>labOperator</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="6"/>
+        <v>static labOperator = 'labOperator';</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string ChangePurchaseContractType</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="7"/>
+        <v>ChangePurchaseContractType</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>changePurchaseContractType</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="3"/>
+        <v>changePurchaseContractType";</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="4"/>
+        <v>changePurchaseContractType</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="6"/>
+        <v>static changePurchaseContractType = 'changePurchaseContractType';</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string PurchaseContractDeductions</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="7"/>
+        <v>PurchaseContractDeductions</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>purchaseContractDeductions</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="3"/>
+        <v>purchaseContractDeductions";</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="4"/>
+        <v>purchaseContractDeductions</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="6"/>
+        <v>static purchaseContractDeductions = 'purchaseContractDeductions';</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string DatabaseEditor</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="7"/>
+        <v>DatabaseEditor</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>databaseEditor</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="3"/>
+        <v>databaseEditor";</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="4"/>
+        <v>databaseEditor</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="6"/>
+        <v>static databaseEditor = 'databaseEditor';</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string GeneralPurchaseApprover</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="7"/>
+        <v>GeneralPurchaseApprover</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>generalPurchaseApprover</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="3"/>
+        <v>generalPurchaseApprover";</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="4"/>
+        <v>generalPurchaseApprover</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="6"/>
+        <v>static generalPurchaseApprover = 'generalPurchaseApprover';</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string PurchasingManager</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="7"/>
+        <v>PurchasingManager</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>purchasingManager</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v>purchasingManager";</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="4"/>
+        <v>purchasingManager</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="6"/>
+        <v>static purchasingManager = 'purchasingManager';</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string ShippingManager</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="7"/>
+        <v>ShippingManager</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>shippingManager</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="3"/>
+        <v>shippingManager";</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="4"/>
+        <v>shippingManager</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="6"/>
+        <v>static shippingManager = 'shippingManager';</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string StorageChargeAdmin</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="7"/>
+        <v>StorageChargeAdmin</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>storageChargeAdmin</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="3"/>
+        <v>storageChargeAdmin";</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="4"/>
+        <v>storageChargeAdmin</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="6"/>
+        <v>static storageChargeAdmin = 'storageChargeAdmin';</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string FeedAdmin</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="7"/>
+        <v>FeedAdmin</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>feedAdmin</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="3"/>
+        <v>feedAdmin";</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="4"/>
+        <v>feedAdmin</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="6"/>
+        <v>static feedAdmin = 'feedAdmin';</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string GenerateStorageInvoices</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="7"/>
+        <v>GenerateStorageInvoices</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>generateStorageInvoices</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v>generateStorageInvoices";</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="4"/>
+        <v>generateStorageInvoices</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="6"/>
+        <v>static generateStorageInvoices = 'generateStorageInvoices';</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string GenerateBrokerInvoices</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="7"/>
+        <v>GenerateBrokerInvoices</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>generateBrokerInvoices</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="3"/>
+        <v>generateBrokerInvoices";</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="4"/>
+        <v>generateBrokerInvoices</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="6"/>
+        <v>static generateBrokerInvoices = 'generateBrokerInvoices';</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>public const string ExecuteDeferredDeliveryOrders</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="7"/>
+        <v>ExecuteDeferredDeliveryOrders</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>executeDeferredDeliveryOrders</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="3"/>
+        <v>executeDeferredDeliveryOrders";</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="4"/>
+        <v>executeDeferredDeliveryOrders</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="6"/>
+        <v>static executeDeferredDeliveryOrders = 'executeDeferredDeliveryOrders';</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="7" t="str">
+        <f t="shared" ref="B46:B61" si="8">LEFT(A46,G46-1)</f>
+        <v>public const string PartnerPortalManager</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="7"/>
+        <v>PartnerPortalManager</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>partnerPortalManager</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ref="E46:E61" si="9">RIGHT(A46,LEN(A46)-G46-3)</f>
+        <v>partnerPortalManager";</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="4"/>
+        <v>partnerPortalManager</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G61" si="10">FIND(" =",A46)</f>
+        <v>41</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="6"/>
+        <v>static partnerPortalManager = 'partnerPortalManager';</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string ContractClauseAdmin</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="7"/>
+        <v>ContractClauseAdmin</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>contractClauseAdmin</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="9"/>
+        <v>contractClauseAdmin";</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="4"/>
+        <v>contractClauseAdmin</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="6"/>
+        <v>static contractClauseAdmin = 'contractClauseAdmin';</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string FxController</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="7"/>
+        <v>FxController</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>fxController</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="9"/>
+        <v>fxController";</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="4"/>
+        <v>fxController</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="6"/>
+        <v>static fxController = 'fxController';</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string AnalyticsAdmin</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="7"/>
+        <v>AnalyticsAdmin</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>analyticsAdmin</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="9"/>
+        <v>analyticsAdmin";</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="4"/>
+        <v>analyticsAdmin</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="6"/>
+        <v>static analyticsAdmin = 'analyticsAdmin';</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string CommodityManager</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="7"/>
+        <v>CommodityManager</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>commodityManager</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="9"/>
+        <v>commodityManager";</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="4"/>
+        <v>commodityManager</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="6"/>
+        <v>static commodityManager = 'commodityManager';</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string ContractPricingAdmin</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="7"/>
+        <v>ContractPricingAdmin</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>contractPricingAdmin</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="9"/>
+        <v>contractPricingAdmin";</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="4"/>
+        <v>contractPricingAdmin</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="6"/>
+        <v>static contractPricingAdmin = 'contractPricingAdmin';</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string CreateMerchantInvoices</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="7"/>
+        <v>CreateMerchantInvoices</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v>createMerchantInvoices</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="9"/>
+        <v>createMerchantInvoices";</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="4"/>
+        <v>createMerchantInvoices</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="6"/>
+        <v>static createMerchantInvoices = 'createMerchantInvoices';</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string CreatePurchaseOrderInvoices</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="7"/>
+        <v>CreatePurchaseOrderInvoices</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="2"/>
+        <v>createPurchaseOrderInvoices</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="9"/>
+        <v>createPurchaseOrderInvoices";</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="4"/>
+        <v>createPurchaseOrderInvoices</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="6"/>
+        <v>static createPurchaseOrderInvoices = 'createPurchaseOrderInvoices';</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string CreateShippingInvoice</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="7"/>
+        <v>CreateShippingInvoice</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v>createShippingInvoice</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="9"/>
+        <v>createShippingInvoice";</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="4"/>
+        <v>createShippingInvoice</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="6"/>
+        <v>static createShippingInvoice = 'createShippingInvoice';</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string SendTransactionsToNetsuite</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="7"/>
+        <v>SendTransactionsToNetsuite</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v>sendTransactionsToNetsuite</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="9"/>
+        <v>sendTransactionsToNetsuite";</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="4"/>
+        <v>sendTransactionsToNetsuite</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="6"/>
+        <v>static sendTransactionsToNetsuite = 'sendTransactionsToNetsuite';</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string GenerateSalesInvoices</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="7"/>
+        <v>GenerateSalesInvoices</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v>generateSalesInvoices</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="9"/>
+        <v>generateSalesInvoices";</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="4"/>
+        <v>generateSalesInvoices</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="6"/>
+        <v>static generateSalesInvoices = 'generateSalesInvoices';</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string StockAdjuster</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="7"/>
+        <v>StockAdjuster</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v>stockAdjuster</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="9"/>
+        <v>stockAdjuster";</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="4"/>
+        <v>stockAdjuster</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="6"/>
+        <v>static stockAdjuster = 'stockAdjuster';</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string GlobalConfigManager</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="7"/>
+        <v>GlobalConfigManager</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v>globalConfigManager</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="9"/>
+        <v>globalConfigManager";</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="4"/>
+        <v>globalConfigManager</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="6"/>
+        <v>static globalConfigManager = 'globalConfigManager';</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string Translator</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="7"/>
+        <v>Translator</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="2"/>
+        <v>translator</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="9"/>
+        <v>translator";</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="4"/>
+        <v>translator</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="5"/>
-        <v>static noteEditor = 'noteEditor';</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string ChangeAccountManager</v>
-      </c>
-      <c r="C5" t="str">
-        <f>RIGHT(B5, LEN(B5)-LEN($J$2))</f>
-        <v>ChangeAccountManager</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>changeAccountManager</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="H59" t="str">
+        <f t="shared" si="6"/>
+        <v>static translator = 'translator';</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string PositionExcluder</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="7"/>
+        <v>PositionExcluder</v>
+      </c>
+      <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>changeAccountManager";</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="3"/>
-        <v>changeAccountManager</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="5"/>
-        <v>static changeAccountManager = 'changeAccountManager';</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string Forwarder</v>
-      </c>
-      <c r="C6" t="str">
-        <f>RIGHT(B6, LEN(B6)-LEN($J$2))</f>
-        <v>Forwarder</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>forwarder</v>
-      </c>
-      <c r="E6" t="str">
+        <v>positionExcluder</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="9"/>
+        <v>positionExcluder";</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="4"/>
+        <v>positionExcluder</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="6"/>
+        <v>static positionExcluder = 'positionExcluder';</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>public const string TradingPartnerAccountApprover</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="7"/>
+        <v>TradingPartnerAccountApprover</v>
+      </c>
+      <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>forwarder";</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="3"/>
-        <v>forwarder</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="5"/>
-        <v>static forwarder = 'forwarder';</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string Trader</v>
-      </c>
-      <c r="C7" t="str">
-        <f>RIGHT(B7, LEN(B7)-LEN($J$2))</f>
-        <v>Trader</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>trader</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="2"/>
-        <v>trader";</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="3"/>
-        <v>trader</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="5"/>
-        <v>static trader = 'trader';</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string SeedOrderApprover</v>
-      </c>
-      <c r="C8" t="str">
-        <f>RIGHT(B8, LEN(B8)-LEN($J$2))</f>
-        <v>SeedOrderApprover</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>seedOrderApprover</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v>seedOrderApprover";</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="3"/>
-        <v>seedOrderApprover</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="5"/>
-        <v>static seedOrderApprover = 'seedOrderApprover';</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string FertiliserOrderApprover</v>
-      </c>
-      <c r="C9" t="str">
-        <f>RIGHT(B9, LEN(B9)-LEN($J$2))</f>
-        <v>FertiliserOrderApprover</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>fertiliserOrderApprover</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="2"/>
-        <v>fertiliserOrderApprover";</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="3"/>
-        <v>fertiliserOrderApprover</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="5"/>
-        <v>static fertiliserOrderApprover = 'fertiliserOrderApprover';</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string PulseOrderApprover</v>
-      </c>
-      <c r="C10" t="str">
-        <f>RIGHT(B10, LEN(B10)-LEN($J$2))</f>
-        <v>PulseOrderApprover</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>pulseOrderApprover</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="2"/>
-        <v>pulseOrderApprover";</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseOrderApprover</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="5"/>
-        <v>static pulseOrderApprover = 'pulseOrderApprover';</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string GenerateTradingPeriods</v>
-      </c>
-      <c r="C11" t="str">
-        <f>RIGHT(B11, LEN(B11)-LEN($J$2))</f>
-        <v>GenerateTradingPeriods</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>generateTradingPeriods</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="2"/>
-        <v>generateTradingPeriods";</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="3"/>
-        <v>generateTradingPeriods</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="5"/>
-        <v>static generateTradingPeriods = 'generateTradingPeriods';</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+        <v>tradingPartnerAccountApprover</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="9"/>
+        <v>tradingPartnerAccountApprover";</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="4"/>
+        <v>tradingPartnerAccountApprover</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="B12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string PurchaseContactApprover</v>
-      </c>
-      <c r="C12" t="str">
-        <f>RIGHT(B12, LEN(B12)-LEN($J$2))</f>
-        <v>PurchaseContactApprover</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>purchaseContactApprover</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v>purchaseContractApprover";</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="3"/>
-        <v>purchaseContractApprover</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="5"/>
-        <v>static purchaseContactApprover = 'purchaseContractApprover';</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string SalesContractApprover</v>
-      </c>
-      <c r="C13" t="str">
-        <f>RIGHT(B13, LEN(B13)-LEN($J$2))</f>
-        <v>SalesContractApprover</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>salesContractApprover</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="2"/>
-        <v>salesContractApprover";</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="3"/>
-        <v>salesContractApprover</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="5"/>
-        <v>static salesContractApprover = 'salesContractApprover';</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string GenerateFarmerInvoice</v>
-      </c>
-      <c r="C14" t="str">
-        <f>RIGHT(B14, LEN(B14)-LEN($J$2))</f>
-        <v>GenerateFarmerInvoice</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>generateFarmerInvoice</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v>generateFarmerInvoice";</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="3"/>
-        <v>generateFarmerInvoice</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="5"/>
-        <v>static generateFarmerInvoice = 'generateFarmerInvoice';</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string CreateContractPrePayments</v>
-      </c>
-      <c r="C15" t="str">
-        <f>RIGHT(B15, LEN(B15)-LEN($J$2))</f>
-        <v>CreateContractPrePayments</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>createContractPrePayments</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v>createContractPrePayments";</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="3"/>
-        <v>createContractPrePayments</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="5"/>
-        <v>static createContractPrePayments = 'createContractPrePayments';</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string RollPurchaseContracts</v>
-      </c>
-      <c r="C16" t="str">
-        <f>RIGHT(B16, LEN(B16)-LEN($J$2))</f>
-        <v>RollPurchaseContracts</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>rollPurchaseContracts</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v>rollPurchaseContracts";</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="3"/>
-        <v>rollPurchaseContracts</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="5"/>
-        <v>static rollPurchaseContracts = 'rollPurchaseContracts';</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string OilAdmin</v>
-      </c>
-      <c r="C17" t="str">
-        <f>RIGHT(B17, LEN(B17)-LEN($J$2))</f>
-        <v>OilAdmin</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>oilAdmin</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="2"/>
-        <v>oilAdmin";</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="3"/>
-        <v>oilAdmin</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="5"/>
-        <v>static oilAdmin = 'oilAdmin';</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string SystemAdministrator</v>
-      </c>
-      <c r="C18" t="str">
-        <f>RIGHT(B18, LEN(B18)-LEN($J$2))</f>
-        <v>SystemAdministrator</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>systemAdministrator</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="2"/>
-        <v>systemAdministrator";</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="3"/>
-        <v>systemAdministrator</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="5"/>
-        <v>static systemAdministrator = 'systemAdministrator';</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string IdentityManager</v>
-      </c>
-      <c r="C19" t="str">
-        <f>RIGHT(B19, LEN(B19)-LEN($J$2))</f>
-        <v>IdentityManager</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>identityManager</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v>identityManager";</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="3"/>
-        <v>identityManager</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="5"/>
-        <v>static identityManager = 'identityManager';</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string ChangePartnerType</v>
-      </c>
-      <c r="C20" t="str">
-        <f>RIGHT(B20, LEN(B20)-LEN($J$2))</f>
-        <v>ChangePartnerType</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>changePartnerType</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="2"/>
-        <v>changePartnerType";</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="3"/>
-        <v>changePartnerType</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="5"/>
-        <v>static changePartnerType = 'changePartnerType';</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string StockControl</v>
-      </c>
-      <c r="C21" t="str">
-        <f>RIGHT(B21, LEN(B21)-LEN($J$2))</f>
-        <v>StockControl</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>stockControl</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v>stockControl";</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="3"/>
-        <v>stockControl</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="5"/>
-        <v>static stockControl = 'stockControl';</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string PoolController</v>
-      </c>
-      <c r="C22" t="str">
-        <f>RIGHT(B22, LEN(B22)-LEN($J$2))</f>
-        <v>PoolController</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>poolController</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v>poolController";</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="3"/>
-        <v>poolController</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="5"/>
-        <v>static poolController = 'poolController';</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string Finance</v>
-      </c>
-      <c r="C23" t="str">
-        <f>RIGHT(B23, LEN(B23)-LEN($J$2))</f>
-        <v>Finance</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>finance</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v>finance";</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="3"/>
-        <v>finance</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="5"/>
-        <v>static finance = 'finance';</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string SendTradingPartnerToNetsuite</v>
-      </c>
-      <c r="C24" t="str">
-        <f>RIGHT(B24, LEN(B24)-LEN($J$2))</f>
-        <v>SendTradingPartnerToNetsuite</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>sendTradingPartnerToNetsuite</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v>sendTradingPartnerToNetsuite";</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="3"/>
-        <v>sendTradingPartnerToNetsuite</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="5"/>
-        <v>static sendTradingPartnerToNetsuite = 'sendTradingPartnerToNetsuite';</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string CancelContracts</v>
-      </c>
-      <c r="C25" t="str">
-        <f>RIGHT(B25, LEN(B25)-LEN($J$2))</f>
-        <v>CancelContracts</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>cancelContracts</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v>cancelContracts";</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="3"/>
-        <v>cancelContracts</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="5"/>
-        <v>static cancelContracts = 'cancelContracts';</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string QualityControl</v>
-      </c>
-      <c r="C26" t="str">
-        <f>RIGHT(B26, LEN(B26)-LEN($J$2))</f>
-        <v>QualityControl</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>qualityControl</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v>qualityControl";</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="3"/>
-        <v>qualityControl</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="5"/>
-        <v>static qualityControl = 'qualityControl';</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string SeedPurchaseApprover</v>
-      </c>
-      <c r="C27" t="str">
-        <f>RIGHT(B27, LEN(B27)-LEN($J$2))</f>
-        <v>SeedPurchaseApprover</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>seedPurchaseApprover</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v>seedPurchaseApprover";</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="3"/>
-        <v>seedPurchaseApprover</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="5"/>
-        <v>static seedPurchaseApprover = 'seedPurchaseApprover';</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string FertiliserPurchaseApprover</v>
-      </c>
-      <c r="C28" t="str">
-        <f>RIGHT(B28, LEN(B28)-LEN($J$2))</f>
-        <v>FertiliserPurchaseApprover</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>fertiliserPurchaseApprover</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v>fertiliserPurchaseApprover";</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="3"/>
-        <v>fertiliserPurchaseApprover</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="5"/>
-        <v>static fertiliserPurchaseApprover = 'fertiliserPurchaseApprover';</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string JourneyController</v>
-      </c>
-      <c r="C29" t="str">
-        <f>RIGHT(B29, LEN(B29)-LEN($J$2))</f>
-        <v>JourneyController</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>journeyController</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v>journeyController";</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="3"/>
-        <v>journeyController</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="5"/>
-        <v>static journeyController = 'journeyController';</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string ProductionManager</v>
-      </c>
-      <c r="C30" t="str">
-        <f>RIGHT(B30, LEN(B30)-LEN($J$2))</f>
-        <v>ProductionManager</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>productionManager</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
-        <v>productionManager";</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="3"/>
-        <v>productionManager</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="5"/>
-        <v>static productionManager = 'productionManager';</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string SampleAdministrator</v>
-      </c>
-      <c r="C31" t="str">
-        <f>RIGHT(B31, LEN(B31)-LEN($J$2))</f>
-        <v>SampleAdministrator</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>sampleAdministrator</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v>sampleAdministrator";</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="3"/>
-        <v>sampleAdministrator</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="5"/>
-        <v>static sampleAdministrator = 'sampleAdministrator';</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string ChooseBagTypes</v>
-      </c>
-      <c r="C32" t="str">
-        <f>RIGHT(B32, LEN(B32)-LEN($J$2))</f>
-        <v>ChooseBagTypes</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>chooseBagTypes</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v>chooseBagTypes";</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="3"/>
-        <v>chooseBagTypes</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="5"/>
-        <v>static chooseBagTypes = 'chooseBagTypes';</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string CreateTradingPartners</v>
-      </c>
-      <c r="C33" t="str">
-        <f>RIGHT(B33, LEN(B33)-LEN($J$2))</f>
-        <v>CreateTradingPartners</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>createTradingPartners</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v>createTradingPartners";</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="3"/>
-        <v>createTradingPartners</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="5"/>
-        <v>static createTradingPartners = 'createTradingPartners';</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string LabOperator</v>
-      </c>
-      <c r="C34" t="str">
-        <f>RIGHT(B34, LEN(B34)-LEN($J$2))</f>
-        <v>LabOperator</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>labOperator</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v>labOperator";</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="3"/>
-        <v>labOperator</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="5"/>
-        <v>static labOperator = 'labOperator';</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string ChangePurchaseContractType</v>
-      </c>
-      <c r="C35" t="str">
-        <f>RIGHT(B35, LEN(B35)-LEN($J$2))</f>
-        <v>ChangePurchaseContractType</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>changePurchaseContractType</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v>changePurchaseContractType";</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="3"/>
-        <v>changePurchaseContractType</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="5"/>
-        <v>static changePurchaseContractType = 'changePurchaseContractType';</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string PurchaseContractDeductions</v>
-      </c>
-      <c r="C36" t="str">
-        <f>RIGHT(B36, LEN(B36)-LEN($J$2))</f>
-        <v>PurchaseContractDeductions</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>purchaseContractDeductions</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v>purchaseContractDeductions";</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="3"/>
-        <v>purchaseContractDeductions</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="5"/>
-        <v>static purchaseContractDeductions = 'purchaseContractDeductions';</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string DatabaseEditor</v>
-      </c>
-      <c r="C37" t="str">
-        <f>RIGHT(B37, LEN(B37)-LEN($J$2))</f>
-        <v>DatabaseEditor</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>databaseEditor</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>databaseEditor";</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="3"/>
-        <v>databaseEditor</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="5"/>
-        <v>static databaseEditor = 'databaseEditor';</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string GeneralPurchaseApprover</v>
-      </c>
-      <c r="C38" t="str">
-        <f>RIGHT(B38, LEN(B38)-LEN($J$2))</f>
-        <v>GeneralPurchaseApprover</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>generalPurchaseApprover</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v>generalPurchaseApprover";</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="3"/>
-        <v>generalPurchaseApprover</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="5"/>
-        <v>static generalPurchaseApprover = 'generalPurchaseApprover';</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string PurchasingManager</v>
-      </c>
-      <c r="C39" t="str">
-        <f>RIGHT(B39, LEN(B39)-LEN($J$2))</f>
-        <v>PurchasingManager</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v>purchasingManager</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v>purchasingManager";</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="3"/>
-        <v>purchasingManager</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="5"/>
-        <v>static purchasingManager = 'purchasingManager';</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string ShippingManager</v>
-      </c>
-      <c r="C40" t="str">
-        <f>RIGHT(B40, LEN(B40)-LEN($J$2))</f>
-        <v>ShippingManager</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>shippingManager</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>shippingManager";</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="3"/>
-        <v>shippingManager</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="5"/>
-        <v>static shippingManager = 'shippingManager';</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string StorageChargeAdmin</v>
-      </c>
-      <c r="C41" t="str">
-        <f>RIGHT(B41, LEN(B41)-LEN($J$2))</f>
-        <v>StorageChargeAdmin</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>storageChargeAdmin</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>storageChargeAdmin";</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="3"/>
-        <v>storageChargeAdmin</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="5"/>
-        <v>static storageChargeAdmin = 'storageChargeAdmin';</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string FeedAdmin</v>
-      </c>
-      <c r="C42" t="str">
-        <f>RIGHT(B42, LEN(B42)-LEN($J$2))</f>
-        <v>FeedAdmin</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>feedAdmin</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v>feedAdmin";</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="3"/>
-        <v>feedAdmin</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="5"/>
-        <v>static feedAdmin = 'feedAdmin';</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string GenerateStorageInvoices</v>
-      </c>
-      <c r="C43" t="str">
-        <f>RIGHT(B43, LEN(B43)-LEN($J$2))</f>
-        <v>GenerateStorageInvoices</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>generateStorageInvoices</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v>generateStorageInvoices";</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="3"/>
-        <v>generateStorageInvoices</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="5"/>
-        <v>static generateStorageInvoices = 'generateStorageInvoices';</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string GenerateBrokerInvoices</v>
-      </c>
-      <c r="C44" t="str">
-        <f>RIGHT(B44, LEN(B44)-LEN($J$2))</f>
-        <v>GenerateBrokerInvoices</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v>generateBrokerInvoices</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="2"/>
-        <v>generateBrokerInvoices";</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="3"/>
-        <v>generateBrokerInvoices</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="5"/>
-        <v>static generateBrokerInvoices = 'generateBrokerInvoices';</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>public const string ExecuteDeferredDeliveryOrders</v>
-      </c>
-      <c r="C45" t="str">
-        <f>RIGHT(B45, LEN(B45)-LEN($J$2))</f>
-        <v>ExecuteDeferredDeliveryOrders</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>executeDeferredDeliveryOrders</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="2"/>
-        <v>executeDeferredDeliveryOrders";</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="3"/>
-        <v>executeDeferredDeliveryOrders</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="5"/>
-        <v>static executeDeferredDeliveryOrders = 'executeDeferredDeliveryOrders';</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="9" t="str">
-        <f>LEFT(A46,G46-1)</f>
-        <v>public const string PartnerPortalManager</v>
-      </c>
-      <c r="C46" t="str">
-        <f>RIGHT(B46, LEN(B46)-LEN($J$2))</f>
-        <v>PartnerPortalManager</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v>partnerPortalManager</v>
-      </c>
-      <c r="E46" t="str">
-        <f>RIGHT(A46,LEN(A46)-G46-3)</f>
-        <v>partnerPortalManager";</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="3"/>
-        <v>partnerPortalManager</v>
-      </c>
-      <c r="G46">
-        <f>FIND(" =",A46)</f>
-        <v>41</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="5"/>
-        <v>static partnerPortalManager = 'partnerPortalManager';</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="9" t="str">
-        <f>LEFT(A47,G47-1)</f>
-        <v>public const string ContractClauseAdmin</v>
-      </c>
-      <c r="C47" t="str">
-        <f>RIGHT(B47, LEN(B47)-LEN($J$2))</f>
-        <v>ContractClauseAdmin</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v>contractClauseAdmin</v>
-      </c>
-      <c r="E47" t="str">
-        <f>RIGHT(A47,LEN(A47)-G47-3)</f>
-        <v>contractClauseAdmin";</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="3"/>
-        <v>contractClauseAdmin</v>
-      </c>
-      <c r="G47">
-        <f>FIND(" =",A47)</f>
-        <v>40</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="5"/>
-        <v>static contractClauseAdmin = 'contractClauseAdmin';</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="9" t="str">
-        <f>LEFT(A48,G48-1)</f>
-        <v>public const string FxController</v>
-      </c>
-      <c r="C48" t="str">
-        <f>RIGHT(B48, LEN(B48)-LEN($J$2))</f>
-        <v>FxController</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v>fxController</v>
-      </c>
-      <c r="E48" t="str">
-        <f>RIGHT(A48,LEN(A48)-G48-3)</f>
-        <v>fxController";</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="3"/>
-        <v>fxController</v>
-      </c>
-      <c r="G48">
-        <f>FIND(" =",A48)</f>
-        <v>33</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="5"/>
-        <v>static fxController = 'fxController';</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="9" t="str">
-        <f>LEFT(A49,G49-1)</f>
-        <v>public const string AnalyticsAdmin</v>
-      </c>
-      <c r="C49" t="str">
-        <f>RIGHT(B49, LEN(B49)-LEN($J$2))</f>
-        <v>AnalyticsAdmin</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>analyticsAdmin</v>
-      </c>
-      <c r="E49" t="str">
-        <f>RIGHT(A49,LEN(A49)-G49-3)</f>
-        <v>analyticsAdmin";</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="3"/>
-        <v>analyticsAdmin</v>
-      </c>
-      <c r="G49">
-        <f>FIND(" =",A49)</f>
-        <v>35</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="5"/>
-        <v>static analyticsAdmin = 'analyticsAdmin';</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="9" t="str">
-        <f>LEFT(A50,G50-1)</f>
-        <v>public const string CommodityManager</v>
-      </c>
-      <c r="C50" t="str">
-        <f>RIGHT(B50, LEN(B50)-LEN($J$2))</f>
-        <v>CommodityManager</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>commodityManager</v>
-      </c>
-      <c r="E50" t="str">
-        <f>RIGHT(A50,LEN(A50)-G50-3)</f>
-        <v>commodityManager";</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="3"/>
-        <v>commodityManager</v>
-      </c>
-      <c r="G50">
-        <f>FIND(" =",A50)</f>
-        <v>37</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="5"/>
-        <v>static commodityManager = 'commodityManager';</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="9" t="str">
-        <f>LEFT(A51,G51-1)</f>
-        <v>public const string ContractPricingAdmin</v>
-      </c>
-      <c r="C51" t="str">
-        <f>RIGHT(B51, LEN(B51)-LEN($J$2))</f>
-        <v>ContractPricingAdmin</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>contractPricingAdmin</v>
-      </c>
-      <c r="E51" t="str">
-        <f>RIGHT(A51,LEN(A51)-G51-3)</f>
-        <v>contractPricingAdmin";</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="3"/>
-        <v>contractPricingAdmin</v>
-      </c>
-      <c r="G51">
-        <f>FIND(" =",A51)</f>
-        <v>41</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="5"/>
-        <v>static contractPricingAdmin = 'contractPricingAdmin';</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="9" t="str">
-        <f>LEFT(A52,G52-1)</f>
-        <v>public const string CreateMerchantInvoices</v>
-      </c>
-      <c r="C52" t="str">
-        <f>RIGHT(B52, LEN(B52)-LEN($J$2))</f>
-        <v>CreateMerchantInvoices</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v>createMerchantInvoices</v>
-      </c>
-      <c r="E52" t="str">
-        <f>RIGHT(A52,LEN(A52)-G52-3)</f>
-        <v>createMerchantInvoices";</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="3"/>
-        <v>createMerchantInvoices</v>
-      </c>
-      <c r="G52">
-        <f>FIND(" =",A52)</f>
-        <v>43</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="5"/>
-        <v>static createMerchantInvoices = 'createMerchantInvoices';</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="9" t="str">
-        <f>LEFT(A53,G53-1)</f>
-        <v>public const string CreatePurchaseOrderInvoices</v>
-      </c>
-      <c r="C53" t="str">
-        <f>RIGHT(B53, LEN(B53)-LEN($J$2))</f>
-        <v>CreatePurchaseOrderInvoices</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v>createPurchaseOrderInvoices</v>
-      </c>
-      <c r="E53" t="str">
-        <f>RIGHT(A53,LEN(A53)-G53-3)</f>
-        <v>createPurchaseOrderInvoices";</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="3"/>
-        <v>createPurchaseOrderInvoices</v>
-      </c>
-      <c r="G53">
-        <f>FIND(" =",A53)</f>
-        <v>48</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="5"/>
-        <v>static createPurchaseOrderInvoices = 'createPurchaseOrderInvoices';</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="9" t="str">
-        <f>LEFT(A54,G54-1)</f>
-        <v>public const string CreateShippingInvoice</v>
-      </c>
-      <c r="C54" t="str">
-        <f>RIGHT(B54, LEN(B54)-LEN($J$2))</f>
-        <v>CreateShippingInvoice</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v>createShippingInvoice</v>
-      </c>
-      <c r="E54" t="str">
-        <f>RIGHT(A54,LEN(A54)-G54-3)</f>
-        <v>createShippingInvoice";</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="3"/>
-        <v>createShippingInvoice</v>
-      </c>
-      <c r="G54">
-        <f>FIND(" =",A54)</f>
-        <v>42</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="5"/>
-        <v>static createShippingInvoice = 'createShippingInvoice';</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="9" t="str">
-        <f>LEFT(A55,G55-1)</f>
-        <v>public const string SendTransactionsToNetsuite</v>
-      </c>
-      <c r="C55" t="str">
-        <f>RIGHT(B55, LEN(B55)-LEN($J$2))</f>
-        <v>SendTransactionsToNetsuite</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>sendTransactionsToNetsuite</v>
-      </c>
-      <c r="E55" t="str">
-        <f>RIGHT(A55,LEN(A55)-G55-3)</f>
-        <v>sendTransactionsToNetsuite";</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="3"/>
-        <v>sendTransactionsToNetsuite</v>
-      </c>
-      <c r="G55">
-        <f>FIND(" =",A55)</f>
-        <v>47</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="5"/>
-        <v>static sendTransactionsToNetsuite = 'sendTransactionsToNetsuite';</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="9" t="str">
-        <f>LEFT(A56,G56-1)</f>
-        <v>public const string GenerateSalesInvoices</v>
-      </c>
-      <c r="C56" t="str">
-        <f>RIGHT(B56, LEN(B56)-LEN($J$2))</f>
-        <v>GenerateSalesInvoices</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="1"/>
-        <v>generateSalesInvoices</v>
-      </c>
-      <c r="E56" t="str">
-        <f>RIGHT(A56,LEN(A56)-G56-3)</f>
-        <v>generateSalesInvoices";</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="3"/>
-        <v>generateSalesInvoices</v>
-      </c>
-      <c r="G56">
-        <f>FIND(" =",A56)</f>
-        <v>42</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="5"/>
-        <v>static generateSalesInvoices = 'generateSalesInvoices';</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="9" t="str">
-        <f>LEFT(A57,G57-1)</f>
-        <v>public const string StockAdjuster</v>
-      </c>
-      <c r="C57" t="str">
-        <f>RIGHT(B57, LEN(B57)-LEN($J$2))</f>
-        <v>StockAdjuster</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v>stockAdjuster</v>
-      </c>
-      <c r="E57" t="str">
-        <f>RIGHT(A57,LEN(A57)-G57-3)</f>
-        <v>stockAdjuster";</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="3"/>
-        <v>stockAdjuster</v>
-      </c>
-      <c r="G57">
-        <f>FIND(" =",A57)</f>
-        <v>34</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="5"/>
-        <v>static stockAdjuster = 'stockAdjuster';</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="9" t="str">
-        <f>LEFT(A58,G58-1)</f>
-        <v>public const string GlobalConfigManager</v>
-      </c>
-      <c r="C58" t="str">
-        <f>RIGHT(B58, LEN(B58)-LEN($J$2))</f>
-        <v>GlobalConfigManager</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v>globalConfigManager</v>
-      </c>
-      <c r="E58" t="str">
-        <f>RIGHT(A58,LEN(A58)-G58-3)</f>
-        <v>globalConfigManager";</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="3"/>
-        <v>globalConfigManager</v>
-      </c>
-      <c r="G58">
-        <f>FIND(" =",A58)</f>
-        <v>40</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="5"/>
-        <v>static globalConfigManager = 'globalConfigManager';</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="9" t="str">
-        <f>LEFT(A59,G59-1)</f>
-        <v>public const string Translator</v>
-      </c>
-      <c r="C59" t="str">
-        <f>RIGHT(B59, LEN(B59)-LEN($J$2))</f>
-        <v>Translator</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v>translator</v>
-      </c>
-      <c r="E59" t="str">
-        <f>RIGHT(A59,LEN(A59)-G59-3)</f>
-        <v>translator";</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="3"/>
-        <v>translator</v>
-      </c>
-      <c r="G59">
-        <f>FIND(" =",A59)</f>
-        <v>31</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="5"/>
-        <v>static translator = 'translator';</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="9" t="str">
-        <f>LEFT(A60,G60-1)</f>
-        <v>public const string PositionExcluder</v>
-      </c>
-      <c r="C60" t="str">
-        <f>RIGHT(B60, LEN(B60)-LEN($J$2))</f>
-        <v>PositionExcluder</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="1"/>
-        <v>positionExcluder</v>
-      </c>
-      <c r="E60" t="str">
-        <f>RIGHT(A60,LEN(A60)-G60-3)</f>
-        <v>positionExcluder";</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="3"/>
-        <v>positionExcluder</v>
-      </c>
-      <c r="G60">
-        <f>FIND(" =",A60)</f>
-        <v>37</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="5"/>
-        <v>static positionExcluder = 'positionExcluder';</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="9" t="str">
-        <f>LEFT(A61,G61-1)</f>
-        <v>public const string TradingPartnerAccountApprover</v>
-      </c>
-      <c r="C61" t="str">
-        <f>RIGHT(B61, LEN(B61)-LEN($J$2))</f>
-        <v>TradingPartnerAccountApprover</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v>tradingPartnerAccountApprover</v>
-      </c>
-      <c r="E61" t="str">
-        <f>RIGHT(A61,LEN(A61)-G61-3)</f>
-        <v>tradingPartnerAccountApprover";</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="3"/>
-        <v>tradingPartnerAccountApprover</v>
-      </c>
-      <c r="G61">
-        <f>FIND(" =",A61)</f>
-        <v>50</v>
-      </c>
       <c r="H61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>static tradingPartnerAccountApprover = 'tradingPartnerAccountApprover';</v>
       </c>
     </row>
@@ -8292,29 +8775,234 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810504A8-ACB8-4A50-87CA-E2EE7FA1209C}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="49.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <f>LEN(A2)</f>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <f>FIND(":", A2)</f>
+        <v>8</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LEFT(A2,C2-1)</f>
+        <v>dueDate</v>
+      </c>
+      <c r="E2" t="str">
+        <f>UPPER(LEFT(D2,1))&amp;RIGHT(D2, LEN(D2)-1)</f>
+        <v>DueDate</v>
+      </c>
+      <c r="F2" t="str">
+        <f>SUBSTITUTE(RIGHT(A2,B2-C2-1),";","")</f>
+        <v>Date</v>
+      </c>
+      <c r="G2" t="b">
+        <f>ISNUMBER(SEARCH("[]",F2))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(G2,LEFT(F2,LEN(F2)-2),F2)</f>
+        <v>Date</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IFERROR(VLOOKUP(H2,Types!$F$3:$G$7,2,FALSE),H2)</f>
+        <v>DateTime</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(G2,"List&lt;"&amp;I2&amp;"&gt;",I2)</f>
+        <v>DateTime</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>"public "&amp;J2&amp;" "&amp;E2&amp;" { get; set; }"</f>
+        <v>public DateTime DueDate { get; set; }</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B4" si="0">LEN(A3)</f>
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C4" si="1">FIND(":", A3)</f>
+        <v>7</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="2">LEFT(A3,C3-1)</f>
+        <v>status</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="3">UPPER(LEFT(D3,1))&amp;RIGHT(D3, LEN(D3)-1)</f>
+        <v>Status</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="4">SUBSTITUTE(RIGHT(A3,B3-C3-1),";","")</f>
+        <v>PurchaseInvoiceStatus</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G4" si="5">ISNUMBER(SEARCH("[]",F3))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(G3,LEFT(F3,LEN(F3)-2),F3)</f>
+        <v>PurchaseInvoiceStatus</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IFERROR(VLOOKUP(H3,Types!$F$3:$G$7,2,FALSE),H3)</f>
+        <v>PurchaseInvoiceStatus</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J4" si="6">IF(G3,"List&lt;"&amp;I3&amp;"&gt;",I3)</f>
+        <v>PurchaseInvoiceStatus</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K4" si="7">"public "&amp;J3&amp;" "&amp;E3&amp;" { get; set; }"</f>
+        <v>public PurchaseInvoiceStatus Status { get; set; }</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>salesInvoiceLineIds</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>SalesInvoiceLineIds</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>number[]</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(G4,LEFT(F4,LEN(F4)-2),F4)</f>
+        <v>number</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IFERROR(VLOOKUP(H4,Types!$F$3:$G$7,2,FALSE),H4)</f>
+        <v>int</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(G4,"ICollection&lt;"&amp;I4&amp;"&gt;",I4)</f>
+        <v>ICollection&lt;int&gt;</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>public ICollection&lt;int&gt; SalesInvoiceLineIds { get; set; }</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.33203125" customWidth="1"/>
-    <col min="4" max="5" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8324,8 +9012,14 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8335,8 +9029,14 @@
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8346,8 +9046,14 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -8357,19 +9063,31 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -8379,8 +9097,14 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -8391,7 +9115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -8399,17 +9123,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/convert c# to typescript - lower case.xlsx
+++ b/convert c# to typescript - lower case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim.hilton\Documents\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://audacia-my.sharepoint.com/personal/tim_hilton_audacia_co_uk/Documents/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4058BB3B-CE01-4D21-A653-BE9A54DE9564}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C# model to ts" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -2744,280 +2751,1215 @@
     </r>
   </si>
   <si>
+    <t>Colon index</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Is array</t>
+  </si>
+  <si>
+    <t>Capitalised name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Non array type</t>
+  </si>
+  <si>
+    <t>Specify mapping from typescript to C# types</t>
+  </si>
+  <si>
+    <t>C# auto prop</t>
+  </si>
+  <si>
+    <t>C# possibly list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SalesInvoiceId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InvoiceNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SalesContractNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CommodityType </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">MovementNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">FixingNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DeliveryTicketNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DeliveryOrderNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">public </t>
     </r>
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
+        <color rgb="FFE1BFFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DateTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DeliveryDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public decimal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD0D0D0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">NetWeight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public decimal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">UnitPrice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">VehicleRegistration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFE1BFFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DateTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InvoiceDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFE1BFFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>DateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD0D0D0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InvoiceDueDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Tonnage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">HasDraftConsolidatedLines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF39CC8F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD0D0D0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ICollection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD0D0D0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>InvoiceLineForConsolidationResult</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD0D0D0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Lines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD0D0D0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD0D0D0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>commodityType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>grainUsageProfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tradingPeriods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
         <color rgb="FFC191FF"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>ICollection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFC191FF"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>InvoiceLineForConsolidationResult</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF66C3CC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Lines </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF39CC8F"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF39CC8F"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>; }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public string </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF66C3CC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Description </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF39CC8F"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF39CC8F"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>; }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public decimal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF66C3CC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">PricePerTonne </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF39CC8F"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF39CC8F"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>; }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public decimal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF66C3CC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Tonnes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF39CC8F"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF39CC8F"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>; }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>dueDate</t>
+      <t>FutureContractBalanceTradingPeriod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>[];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>totalTonnage</t>
     </r>
     <r>
       <rPr>
@@ -3031,11 +3973,11 @@
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FFC191FF"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>Date</t>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -3049,7 +3991,7 @@
   </si>
   <si>
     <r>
-      <t>salesInvoiceLineIds</t>
+      <t>tradingPeriodId</t>
     </r>
     <r>
       <rPr>
@@ -3076,12 +4018,12 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>[];</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>status</t>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
     </r>
     <r>
       <rPr>
@@ -3095,11 +4037,11 @@
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FFC191FF"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>PurchaseInvoiceStatus</t>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
     </r>
     <r>
       <rPr>
@@ -3112,38 +4054,43 @@
     </r>
   </si>
   <si>
-    <t>Colon index</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Is array</t>
-  </si>
-  <si>
-    <t>Capitalised name</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Non array type</t>
-  </si>
-  <si>
-    <t>Specify mapping from typescript to C# types</t>
-  </si>
-  <si>
-    <t>C# auto prop</t>
-  </si>
-  <si>
-    <t>C# possibly list</t>
+    <r>
+      <t>tonnage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3223,6 +4170,18 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFD0D0D0"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFE1BFFF"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3276,14 +4235,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3603,28 +4562,28 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P2:P5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="26.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="26.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="27" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="66.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="82.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="4"/>
+    <col min="16" max="16" width="66.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="82.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3682,7 +4641,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4">
         <f>FIND("public ",A2)+7</f>
@@ -3690,7 +4649,7 @@
       </c>
       <c r="C2" s="4">
         <f>FIND(" ",A2,B2)+1</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4">
         <f>FIND(" ",A2,C2)</f>
@@ -3698,15 +4657,15 @@
       </c>
       <c r="E2" s="4" t="str">
         <f>MID(A2,C2,D2-C2)</f>
-        <v>Description</v>
+        <v>SalesInvoiceId</v>
       </c>
       <c r="F2" s="4" t="str">
         <f xml:space="preserve"> CONCATENATE(LOWER(LEFT(E2,1)), RIGHT(E2,LEN(E2)-1))</f>
-        <v>description</v>
+        <v>salesInvoiceId</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>MID(A2,B2,C2-B2-1)</f>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ref="H2:H50" si="0">IFERROR(FIND("&lt;",G2), -1)</f>
@@ -3726,7 +4685,7 @@
       </c>
       <c r="L2" s="4" t="str">
         <f t="shared" ref="L2" si="1">IF(K2,MID(G2,H2+1,I2-H2-1),G2)</f>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="M2" s="4" t="b">
         <f>NOT(ISERROR(FIND("?",G2)))</f>
@@ -3734,20 +4693,20 @@
       </c>
       <c r="N2" s="4" t="str">
         <f t="shared" ref="N2" si="2">IFERROR(REPLACE(L2,FIND("?",L2),1,""),L2)</f>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="O2" s="4" t="str">
         <f>IFERROR(VLOOKUP(N2,Types!$A$3:$B$27,2,FALSE),N2)</f>
-        <v>string</v>
+        <v>number</v>
       </c>
       <c r="P2" s="6" t="str">
         <f>IFERROR(F2&amp;IF(M2,"?: ",": ")&amp;O2&amp;IF(K2,"[]","")&amp;";","")</f>
-        <v>description: string;</v>
+        <v>salesInvoiceId: number;</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4">
         <f>FIND("public ",A3)+7</f>
@@ -3755,23 +4714,23 @@
       </c>
       <c r="C3" s="4">
         <f>FIND(" ",A3,B3)+1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <f>FIND(" ",A3,C3)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>MID(A3,C3,D3-C3)</f>
-        <v>PricePerTonne</v>
+        <v>InvoiceNumber</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F50" si="3" xml:space="preserve"> CONCATENATE(LOWER(LEFT(E3,1)), RIGHT(E3,LEN(E3)-1))</f>
-        <v>pricePerTonne</v>
+        <v>invoiceNumber</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>MID(A3,B3,C3-B3-1)</f>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
@@ -3791,7 +4750,7 @@
       </c>
       <c r="L3" s="4" t="str">
         <f t="shared" ref="L3:L50" si="6">IF(K3,MID(G3,H3+1,I3-H3-1),G3)</f>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="M3" s="4" t="b">
         <f t="shared" ref="M3:M50" si="7">NOT(ISERROR(FIND("?",G3)))</f>
@@ -3799,20 +4758,20 @@
       </c>
       <c r="N3" s="4" t="str">
         <f t="shared" ref="N3:N50" si="8">IFERROR(REPLACE(L3,FIND("?",L3),1,""),L3)</f>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="O3" s="4" t="str">
         <f>IFERROR(VLOOKUP(N3,Types!$A$3:$B$27,2,FALSE),N3)</f>
-        <v>number</v>
+        <v>string</v>
       </c>
       <c r="P3" s="6" t="str">
         <f t="shared" ref="P3:P50" si="9">IFERROR(F3&amp;IF(M3,"?: ",": ")&amp;O3&amp;IF(K3,"[]","")&amp;";","")</f>
-        <v>pricePerTonne: number;</v>
+        <v>invoiceNumber: string;</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B50" si="10">FIND("public ",A4)+7</f>
@@ -3820,23 +4779,23 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:C50" si="11">FIND(" ",A4,B4)+1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D50" si="12">FIND(" ",A4,C4)</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" ref="E4:E50" si="13">MID(A4,C4,D4-C4)</f>
-        <v>Tonnes</v>
+        <v>SalesContractNumber</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>tonnes</v>
+        <v>salesContractNumber</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" ref="G4:G50" si="14">MID(A4,B4,C4-B4-1)</f>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
@@ -3856,7 +4815,7 @@
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="M4" s="4" t="b">
         <f t="shared" si="7"/>
@@ -3864,20 +4823,20 @@
       </c>
       <c r="N4" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="O4" s="4" t="str">
         <f>IFERROR(VLOOKUP(N4,Types!$A$3:$B$27,2,FALSE),N4)</f>
-        <v>number</v>
+        <v>string</v>
       </c>
       <c r="P4" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>tonnes: number;</v>
+        <v>salesContractNumber: string;</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="10"/>
@@ -3885,23 +4844,23 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Total</v>
+        <v>CommodityType</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>total</v>
+        <v>commodityType</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
@@ -3921,7 +4880,7 @@
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="M5" s="4" t="b">
         <f t="shared" si="7"/>
@@ -3929,20 +4888,20 @@
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="O5" s="4" t="str">
         <f>IFERROR(VLOOKUP(N5,Types!$A$3:$B$27,2,FALSE),N5)</f>
-        <v>number</v>
+        <v>string</v>
       </c>
       <c r="P5" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>total: number;</v>
+        <v>commodityType: string;</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="10"/>
@@ -3950,23 +4909,23 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Total</v>
+        <v>MovementNumber</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>total</v>
+        <v>movementNumber</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
@@ -3986,7 +4945,7 @@
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="M6" s="4" t="b">
         <f t="shared" si="7"/>
@@ -3994,20 +4953,20 @@
       </c>
       <c r="N6" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>decimal</v>
+        <v>string</v>
       </c>
       <c r="O6" s="4" t="str">
         <f>IFERROR(VLOOKUP(N6,Types!$A$3:$B$27,2,FALSE),N6)</f>
-        <v>number</v>
+        <v>string</v>
       </c>
       <c r="P6" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>total: number;</v>
+        <v>movementNumber: string;</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="8" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="10"/>
@@ -4015,43 +4974,43 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Lines</v>
+        <v>FixingNumber</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>lines</v>
+        <v>fixingNumber</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>ICollection&lt;InvoiceLineForConsolidationResult&gt;</v>
+        <v>string</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>ICollection</v>
+        <v/>
       </c>
       <c r="K7" s="4" t="b">
         <f>NOT(ISERROR(VLOOKUP(J7,Types!$D$3:$D$33,1,FALSE)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>InvoiceLineForConsolidationResult</v>
+        <v>string</v>
       </c>
       <c r="M7" s="4" t="b">
         <f t="shared" si="7"/>
@@ -4059,41 +5018,44 @@
       </c>
       <c r="N7" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>InvoiceLineForConsolidationResult</v>
+        <v>string</v>
       </c>
       <c r="O7" s="4" t="str">
         <f>IFERROR(VLOOKUP(N7,Types!$A$3:$B$27,2,FALSE),N7)</f>
-        <v>InvoiceLineForConsolidationResult</v>
+        <v>string</v>
       </c>
       <c r="P7" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>lines: InvoiceLineForConsolidationResult[];</v>
+        <v>fixingNumber: string;</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="4" t="e">
+      <c r="A8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="4" t="e">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="4" t="e">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="4" t="e">
+        <v>DeliveryTicketNumber</v>
+      </c>
+      <c r="F8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" s="4" t="e">
+        <v>deliveryTicketNumber</v>
+      </c>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
@@ -4111,51 +5073,54 @@
         <f>NOT(ISERROR(VLOOKUP(J8,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="4" t="e">
+      <c r="L8" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="M8" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N8" s="4" t="e">
+      <c r="N8" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O8" s="4" t="e">
+        <v>string</v>
+      </c>
+      <c r="O8" s="4" t="str">
         <f>IFERROR(VLOOKUP(N8,Types!$A$3:$B$27,2,FALSE),N8)</f>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="P8" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>deliveryTicketNumber: string;</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="4" t="e">
+      <c r="A9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="4" t="e">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="4" t="e">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="4" t="e">
+        <v>DeliveryOrderNumber</v>
+      </c>
+      <c r="F9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="4" t="e">
+        <v>deliveryOrderNumber</v>
+      </c>
+      <c r="G9" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
@@ -4173,51 +5138,54 @@
         <f>NOT(ISERROR(VLOOKUP(J9,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="4" t="e">
+      <c r="L9" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="M9" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N9" s="4" t="e">
+      <c r="N9" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O9" s="4" t="e">
+        <v>string</v>
+      </c>
+      <c r="O9" s="4" t="str">
         <f>IFERROR(VLOOKUP(N9,Types!$A$3:$B$27,2,FALSE),N9)</f>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="P9" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>deliveryOrderNumber: string;</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="4" t="e">
+      <c r="A10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="4" t="e">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="4" t="e">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="4" t="e">
+        <v>DeliveryDate</v>
+      </c>
+      <c r="F10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="4" t="e">
+        <v>deliveryDate</v>
+      </c>
+      <c r="G10" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>DateTime</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
@@ -4235,51 +5203,54 @@
         <f>NOT(ISERROR(VLOOKUP(J10,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="4" t="e">
+      <c r="L10" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>DateTime</v>
       </c>
       <c r="M10" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N10" s="4" t="e">
+      <c r="N10" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O10" s="4" t="e">
+        <v>DateTime</v>
+      </c>
+      <c r="O10" s="4" t="str">
         <f>IFERROR(VLOOKUP(N10,Types!$A$3:$B$27,2,FALSE),N10)</f>
-        <v>#VALUE!</v>
+        <v>Date</v>
       </c>
       <c r="P10" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>deliveryDate: Date;</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="4" t="e">
+      <c r="A11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="4" t="e">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="4" t="e">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="4" t="e">
+        <v>NetWeight</v>
+      </c>
+      <c r="F11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="4" t="e">
+        <v>netWeight</v>
+      </c>
+      <c r="G11" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>decimal?</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
@@ -4297,51 +5268,54 @@
         <f>NOT(ISERROR(VLOOKUP(J11,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="4" t="e">
+      <c r="L11" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>decimal?</v>
       </c>
       <c r="M11" s="4" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4" t="e">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O11" s="4" t="e">
+        <v>decimal</v>
+      </c>
+      <c r="O11" s="4" t="str">
         <f>IFERROR(VLOOKUP(N11,Types!$A$3:$B$27,2,FALSE),N11)</f>
-        <v>#VALUE!</v>
+        <v>number</v>
       </c>
       <c r="P11" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>netWeight?: number;</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="4" t="e">
+      <c r="A12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="4" t="e">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="4" t="e">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="4" t="e">
+        <v>UnitPrice</v>
+      </c>
+      <c r="F12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" s="4" t="e">
+        <v>unitPrice</v>
+      </c>
+      <c r="G12" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>decimal</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
@@ -4359,51 +5333,54 @@
         <f>NOT(ISERROR(VLOOKUP(J12,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L12" s="4" t="e">
+      <c r="L12" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>decimal</v>
       </c>
       <c r="M12" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N12" s="4" t="e">
+      <c r="N12" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O12" s="4" t="e">
+        <v>decimal</v>
+      </c>
+      <c r="O12" s="4" t="str">
         <f>IFERROR(VLOOKUP(N12,Types!$A$3:$B$27,2,FALSE),N12)</f>
-        <v>#VALUE!</v>
+        <v>number</v>
       </c>
       <c r="P12" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>unitPrice: number;</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="4" t="e">
+      <c r="A13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="4" t="e">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="4" t="e">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="4" t="e">
+        <v>VehicleRegistration</v>
+      </c>
+      <c r="F13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="4" t="e">
+        <v>vehicleRegistration</v>
+      </c>
+      <c r="G13" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
@@ -4421,51 +5398,54 @@
         <f>NOT(ISERROR(VLOOKUP(J13,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L13" s="4" t="e">
+      <c r="L13" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="M13" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N13" s="4" t="e">
+      <c r="N13" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O13" s="4" t="e">
+        <v>string</v>
+      </c>
+      <c r="O13" s="4" t="str">
         <f>IFERROR(VLOOKUP(N13,Types!$A$3:$B$27,2,FALSE),N13)</f>
-        <v>#VALUE!</v>
+        <v>string</v>
       </c>
       <c r="P13" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>vehicleRegistration: string;</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="4" t="e">
+      <c r="A14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="4" t="e">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="4" t="e">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="4" t="e">
+        <v>InvoiceDate</v>
+      </c>
+      <c r="F14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" s="4" t="e">
+        <v>invoiceDate</v>
+      </c>
+      <c r="G14" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>DateTime</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
@@ -4483,51 +5463,54 @@
         <f>NOT(ISERROR(VLOOKUP(J14,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="4" t="e">
+      <c r="L14" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>DateTime</v>
       </c>
       <c r="M14" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N14" s="4" t="e">
+      <c r="N14" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O14" s="4" t="e">
+        <v>DateTime</v>
+      </c>
+      <c r="O14" s="4" t="str">
         <f>IFERROR(VLOOKUP(N14,Types!$A$3:$B$27,2,FALSE),N14)</f>
-        <v>#VALUE!</v>
+        <v>Date</v>
       </c>
       <c r="P14" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>invoiceDate: Date;</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="4" t="e">
+      <c r="A15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="4" t="e">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="4" t="e">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="4" t="e">
+        <v>InvoiceDueDate</v>
+      </c>
+      <c r="F15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="4" t="e">
+        <v>invoiceDueDate</v>
+      </c>
+      <c r="G15" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>DateTime?</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
@@ -4545,51 +5528,54 @@
         <f>NOT(ISERROR(VLOOKUP(J15,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L15" s="4" t="e">
+      <c r="L15" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>DateTime?</v>
       </c>
       <c r="M15" s="4" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="e">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O15" s="4" t="e">
+        <v>DateTime</v>
+      </c>
+      <c r="O15" s="4" t="str">
         <f>IFERROR(VLOOKUP(N15,Types!$A$3:$B$27,2,FALSE),N15)</f>
-        <v>#VALUE!</v>
+        <v>Date</v>
       </c>
       <c r="P15" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>invoiceDueDate?: Date;</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="4" t="e">
+      <c r="A16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="4" t="e">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="4" t="e">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="4" t="e">
+        <v>Tonnage</v>
+      </c>
+      <c r="F16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="4" t="e">
+        <v>tonnage</v>
+      </c>
+      <c r="G16" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>double</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
@@ -4607,51 +5593,54 @@
         <f>NOT(ISERROR(VLOOKUP(J16,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L16" s="4" t="e">
+      <c r="L16" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>double</v>
       </c>
       <c r="M16" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N16" s="4" t="e">
+      <c r="N16" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O16" s="4" t="e">
+        <v>double</v>
+      </c>
+      <c r="O16" s="4" t="str">
         <f>IFERROR(VLOOKUP(N16,Types!$A$3:$B$27,2,FALSE),N16)</f>
-        <v>#VALUE!</v>
+        <v>number</v>
       </c>
       <c r="P16" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="4" t="e">
+        <v>tonnage: number;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="4" t="e">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="4" t="e">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="4" t="e">
+        <v>Total</v>
+      </c>
+      <c r="F17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="4" t="e">
+        <v>total</v>
+      </c>
+      <c r="G17" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>decimal</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
@@ -4669,51 +5658,54 @@
         <f>NOT(ISERROR(VLOOKUP(J17,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L17" s="4" t="e">
+      <c r="L17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>decimal</v>
       </c>
       <c r="M17" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N17" s="4" t="e">
+      <c r="N17" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O17" s="4" t="e">
+        <v>decimal</v>
+      </c>
+      <c r="O17" s="4" t="str">
         <f>IFERROR(VLOOKUP(N17,Types!$A$3:$B$27,2,FALSE),N17)</f>
-        <v>#VALUE!</v>
+        <v>number</v>
       </c>
       <c r="P17" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="4" t="e">
+        <v>total: number;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="4" t="e">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="4" t="e">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="4" t="e">
+        <v>HasDraftConsolidatedLines</v>
+      </c>
+      <c r="F18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="4" t="e">
+        <v>hasDraftConsolidatedLines</v>
+      </c>
+      <c r="G18" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>bool</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
@@ -4731,90 +5723,93 @@
         <f>NOT(ISERROR(VLOOKUP(J18,Types!$D$3:$D$33,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="L18" s="4" t="e">
+      <c r="L18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>bool</v>
       </c>
       <c r="M18" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N18" s="4" t="e">
+      <c r="N18" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O18" s="4" t="e">
+        <v>bool</v>
+      </c>
+      <c r="O18" s="4" t="str">
         <f>IFERROR(VLOOKUP(N18,Types!$A$3:$B$27,2,FALSE),N18)</f>
-        <v>#VALUE!</v>
+        <v>boolean</v>
       </c>
       <c r="P18" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="4" t="e">
+        <v>hasDraftConsolidatedLines: boolean;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="4">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="4" t="e">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="4" t="e">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="4" t="e">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="4" t="e">
+        <v>Lines</v>
+      </c>
+      <c r="F19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="4" t="e">
+        <v>lines</v>
+      </c>
+      <c r="G19" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>ICollection&lt;InvoiceLineForConsolidationResult&gt;</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ICollection</v>
       </c>
       <c r="K19" s="4" t="b">
         <f>NOT(ISERROR(VLOOKUP(J19,Types!$D$3:$D$33,1,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="4" t="e">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>InvoiceLineForConsolidationResult</v>
       </c>
       <c r="M19" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N19" s="4" t="e">
+      <c r="N19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O19" s="4" t="e">
+        <v>InvoiceLineForConsolidationResult</v>
+      </c>
+      <c r="O19" s="4" t="str">
         <f>IFERROR(VLOOKUP(N19,Types!$A$3:$B$27,2,FALSE),N19)</f>
-        <v>#VALUE!</v>
+        <v>InvoiceLineForConsolidationResult</v>
       </c>
       <c r="P19" s="6" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
+        <v>lines: InvoiceLineForConsolidationResult[];</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="B20" s="4" t="e">
         <f>FIND("public ",A20)+7</f>
         <v>#VALUE!</v>
@@ -4876,7 +5871,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="1:16">
       <c r="B21" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -4938,7 +5933,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="1:16">
       <c r="B22" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5000,7 +5995,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="1:16">
       <c r="B23" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5062,7 +6057,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="1:16">
       <c r="B24" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5124,7 +6119,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="1:16">
       <c r="B25" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5186,7 +6181,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="1:16">
       <c r="B26" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5248,7 +6243,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="1:16">
       <c r="B27" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5310,7 +6305,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="1:16">
       <c r="B28" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5372,7 +6367,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="1:16">
       <c r="B29" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5434,7 +6429,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="1:16">
       <c r="B30" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5496,7 +6491,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="1:16">
       <c r="B31" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5558,7 +6553,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="1:16">
       <c r="B32" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6750,14 +7745,14 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="61.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8776,24 +9771,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810504A8-ACB8-4A50-87CA-E2EE7FA1209C}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K6" sqref="K6:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="7" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8801,59 +9797,59 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10" t="s">
-        <v>110</v>
+      <c r="A2" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="B2">
         <f>LEN(A2)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <f>FIND(":", A2)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="str">
         <f>LEFT(A2,C2-1)</f>
-        <v>dueDate</v>
+        <v>commodityType</v>
       </c>
       <c r="E2" t="str">
         <f>UPPER(LEFT(D2,1))&amp;RIGHT(D2, LEN(D2)-1)</f>
-        <v>DueDate</v>
+        <v>CommodityType</v>
       </c>
       <c r="F2" t="str">
         <f>SUBSTITUTE(RIGHT(A2,B2-C2-1),";","")</f>
-        <v>Date</v>
+        <v>string</v>
       </c>
       <c r="G2" t="b">
         <f>ISNUMBER(SEARCH("[]",F2))</f>
@@ -8861,44 +9857,44 @@
       </c>
       <c r="H2" t="str">
         <f>IF(G2,LEFT(F2,LEN(F2)-2),F2)</f>
-        <v>Date</v>
+        <v>string</v>
       </c>
       <c r="I2" t="str">
         <f>IFERROR(VLOOKUP(H2,Types!$F$3:$G$7,2,FALSE),H2)</f>
-        <v>DateTime</v>
+        <v>string</v>
       </c>
       <c r="J2" t="str">
         <f>IF(G2,"List&lt;"&amp;I2&amp;"&gt;",I2)</f>
-        <v>DateTime</v>
+        <v>string</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>"public "&amp;J2&amp;" "&amp;E2&amp;" { get; set; }"</f>
-        <v>public DateTime DueDate { get; set; }</v>
+        <v>public string CommodityType { get; set; }</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11" t="s">
-        <v>112</v>
+      <c r="A3" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B4" si="0">LEN(A3)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C4" si="1">FIND(":", A3)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" si="2">LEFT(A3,C3-1)</f>
-        <v>status</v>
+        <v>grainUsageProfile</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E4" si="3">UPPER(LEFT(D3,1))&amp;RIGHT(D3, LEN(D3)-1)</f>
-        <v>Status</v>
+        <v>GrainUsageProfile</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F4" si="4">SUBSTITUTE(RIGHT(A3,B3-C3-1),";","")</f>
-        <v>PurchaseInvoiceStatus</v>
+        <v>string</v>
       </c>
       <c r="G3" t="b">
         <f t="shared" ref="G3:G4" si="5">ISNUMBER(SEARCH("[]",F3))</f>
@@ -8906,44 +9902,44 @@
       </c>
       <c r="H3" t="str">
         <f>IF(G3,LEFT(F3,LEN(F3)-2),F3)</f>
-        <v>PurchaseInvoiceStatus</v>
+        <v>string</v>
       </c>
       <c r="I3" t="str">
         <f>IFERROR(VLOOKUP(H3,Types!$F$3:$G$7,2,FALSE),H3)</f>
-        <v>PurchaseInvoiceStatus</v>
+        <v>string</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J4" si="6">IF(G3,"List&lt;"&amp;I3&amp;"&gt;",I3)</f>
-        <v>PurchaseInvoiceStatus</v>
+        <f t="shared" ref="J3" si="6">IF(G3,"List&lt;"&amp;I3&amp;"&gt;",I3)</f>
+        <v>string</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K4" si="7">"public "&amp;J3&amp;" "&amp;E3&amp;" { get; set; }"</f>
-        <v>public PurchaseInvoiceStatus Status { get; set; }</v>
+        <f t="shared" ref="K3:K5" si="7">"public "&amp;J3&amp;" "&amp;E3&amp;" { get; set; }"</f>
+        <v>public string GrainUsageProfile { get; set; }</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>111</v>
+      <c r="A4" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>salesInvoiceLineIds</v>
+        <v>tradingPeriods</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
-        <v>SalesInvoiceLineIds</v>
+        <v>TradingPeriods</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="4"/>
-        <v>number[]</v>
+        <v>FutureContractBalanceTradingPeriod[]</v>
       </c>
       <c r="G4" t="b">
         <f t="shared" si="5"/>
@@ -8951,19 +9947,3643 @@
       </c>
       <c r="H4" t="str">
         <f>IF(G4,LEFT(F4,LEN(F4)-2),F4)</f>
-        <v>number</v>
+        <v>FutureContractBalanceTradingPeriod</v>
       </c>
       <c r="I4" t="str">
         <f>IFERROR(VLOOKUP(H4,Types!$F$3:$G$7,2,FALSE),H4)</f>
-        <v>int</v>
+        <v>FutureContractBalanceTradingPeriod</v>
       </c>
       <c r="J4" t="str">
         <f>IF(G4,"ICollection&lt;"&amp;I4&amp;"&gt;",I4)</f>
-        <v>ICollection&lt;int&gt;</v>
+        <v>ICollection&lt;FutureContractBalanceTradingPeriod&gt;</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>public ICollection&lt;int&gt; SalesInvoiceLineIds { get; set; }</v>
+        <v>public ICollection&lt;FutureContractBalanceTradingPeriod&gt; TradingPeriods { get; set; }</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B68" si="8">LEN(A5)</f>
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C68" si="9">FIND(":", A5)</f>
+        <v>13</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D68" si="10">LEFT(A5,C5-1)</f>
+        <v>totalTonnage</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E68" si="11">UPPER(LEFT(D5,1))&amp;RIGHT(D5, LEN(D5)-1)</f>
+        <v>TotalTonnage</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F68" si="12">SUBSTITUTE(RIGHT(A5,B5-C5-1),";","")</f>
+        <v>number</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ref="G5:G68" si="13">ISNUMBER(SEARCH("[]",F5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H68" si="14">IF(G5,LEFT(F5,LEN(F5)-2),F5)</f>
+        <v>number</v>
+      </c>
+      <c r="I5" t="str">
+        <f>IFERROR(VLOOKUP(H5,Types!$F$3:$G$7,2,FALSE),H5)</f>
+        <v>int</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J68" si="15">IF(G5,"ICollection&lt;"&amp;I5&amp;"&gt;",I5)</f>
+        <v>int</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" ref="K5:K68" si="16">"public "&amp;J5&amp;" "&amp;E5&amp;" { get; set; }"</f>
+        <v>public int TotalTonnage { get; set; }</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="10"/>
+        <v>tradingPeriodId</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="11"/>
+        <v>TradingPeriodId</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="12"/>
+        <v>number</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="14"/>
+        <v>number</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IFERROR(VLOOKUP(H6,Types!$F$3:$G$7,2,FALSE),H6)</f>
+        <v>int</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="15"/>
+        <v>int</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>public int TradingPeriodId { get; set; }</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="10"/>
+        <v>name</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="11"/>
+        <v>Name</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="12"/>
+        <v>string</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="14"/>
+        <v>string</v>
+      </c>
+      <c r="I7" t="str">
+        <f>IFERROR(VLOOKUP(H7,Types!$F$3:$G$7,2,FALSE),H7)</f>
+        <v>string</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="15"/>
+        <v>string</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>public string Name { get; set; }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="10"/>
+        <v>tonnage</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
+        <v>Tonnage</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="12"/>
+        <v>number</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="14"/>
+        <v>number</v>
+      </c>
+      <c r="I8" t="str">
+        <f>IFERROR(VLOOKUP(H8,Types!$F$3:$G$7,2,FALSE),H8)</f>
+        <v>int</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="15"/>
+        <v>int</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>public int Tonnage { get; set; }</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" t="e">
+        <f>IFERROR(VLOOKUP(H9,Types!$F$3:$G$7,2,FALSE),H9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" t="e">
+        <f>IFERROR(VLOOKUP(H10,Types!$F$3:$G$7,2,FALSE),H10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" t="e">
+        <f>IFERROR(VLOOKUP(H11,Types!$F$3:$G$7,2,FALSE),H11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" t="e">
+        <f>IFERROR(VLOOKUP(H12,Types!$F$3:$G$7,2,FALSE),H12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" t="e">
+        <f>IFERROR(VLOOKUP(H13,Types!$F$3:$G$7,2,FALSE),H13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" t="e">
+        <f>IFERROR(VLOOKUP(H14,Types!$F$3:$G$7,2,FALSE),H14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" t="e">
+        <f>IFERROR(VLOOKUP(H15,Types!$F$3:$G$7,2,FALSE),H15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" t="e">
+        <f>IFERROR(VLOOKUP(H16,Types!$F$3:$G$7,2,FALSE),H16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" t="e">
+        <f>IFERROR(VLOOKUP(H17,Types!$F$3:$G$7,2,FALSE),H17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" t="e">
+        <f>IFERROR(VLOOKUP(H18,Types!$F$3:$G$7,2,FALSE),H18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" t="e">
+        <f>IFERROR(VLOOKUP(H19,Types!$F$3:$G$7,2,FALSE),H19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" t="e">
+        <f>IFERROR(VLOOKUP(H20,Types!$F$3:$G$7,2,FALSE),H20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" t="e">
+        <f>IFERROR(VLOOKUP(H21,Types!$F$3:$G$7,2,FALSE),H21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" t="e">
+        <f>IFERROR(VLOOKUP(H22,Types!$F$3:$G$7,2,FALSE),H22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J22" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" t="e">
+        <f>IFERROR(VLOOKUP(H23,Types!$F$3:$G$7,2,FALSE),H23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J23" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" t="e">
+        <f>IFERROR(VLOOKUP(H24,Types!$F$3:$G$7,2,FALSE),H24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J24" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" t="e">
+        <f>IFERROR(VLOOKUP(H25,Types!$F$3:$G$7,2,FALSE),H25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J25" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" t="e">
+        <f>IFERROR(VLOOKUP(H26,Types!$F$3:$G$7,2,FALSE),H26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J26" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" t="e">
+        <f>IFERROR(VLOOKUP(H27,Types!$F$3:$G$7,2,FALSE),H27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J27" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" t="e">
+        <f>IFERROR(VLOOKUP(H28,Types!$F$3:$G$7,2,FALSE),H28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J28" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" t="e">
+        <f>IFERROR(VLOOKUP(H29,Types!$F$3:$G$7,2,FALSE),H29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" t="e">
+        <f>IFERROR(VLOOKUP(H30,Types!$F$3:$G$7,2,FALSE),H30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" t="e">
+        <f>IFERROR(VLOOKUP(H31,Types!$F$3:$G$7,2,FALSE),H31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" t="e">
+        <f>IFERROR(VLOOKUP(H32,Types!$F$3:$G$7,2,FALSE),H32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G33" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" t="e">
+        <f>IFERROR(VLOOKUP(H33,Types!$F$3:$G$7,2,FALSE),H33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G34" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" t="e">
+        <f>IFERROR(VLOOKUP(H34,Types!$F$3:$G$7,2,FALSE),H34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J34" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G35" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" t="e">
+        <f>IFERROR(VLOOKUP(H35,Types!$F$3:$G$7,2,FALSE),H35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" t="e">
+        <f>IFERROR(VLOOKUP(H36,Types!$F$3:$G$7,2,FALSE),H36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" t="e">
+        <f>IFERROR(VLOOKUP(H37,Types!$F$3:$G$7,2,FALSE),H37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J37" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G38" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" t="e">
+        <f>IFERROR(VLOOKUP(H38,Types!$F$3:$G$7,2,FALSE),H38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J38" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G39" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I39" t="e">
+        <f>IFERROR(VLOOKUP(H39,Types!$F$3:$G$7,2,FALSE),H39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J39" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G40" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I40" t="e">
+        <f>IFERROR(VLOOKUP(H40,Types!$F$3:$G$7,2,FALSE),H40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J40" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" t="e">
+        <f>IFERROR(VLOOKUP(H41,Types!$F$3:$G$7,2,FALSE),H41)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J41" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C42" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" t="e">
+        <f>IFERROR(VLOOKUP(H42,Types!$F$3:$G$7,2,FALSE),H42)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J42" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C43" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G43" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" t="e">
+        <f>IFERROR(VLOOKUP(H43,Types!$F$3:$G$7,2,FALSE),H43)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J43" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C44" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E44" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G44" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" t="e">
+        <f>IFERROR(VLOOKUP(H44,Types!$F$3:$G$7,2,FALSE),H44)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J44" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C45" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G45" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" t="e">
+        <f>IFERROR(VLOOKUP(H45,Types!$F$3:$G$7,2,FALSE),H45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J45" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C46" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E46" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G46" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" t="e">
+        <f>IFERROR(VLOOKUP(H46,Types!$F$3:$G$7,2,FALSE),H46)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J46" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I47" t="e">
+        <f>IFERROR(VLOOKUP(H47,Types!$F$3:$G$7,2,FALSE),H47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J47" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" t="e">
+        <f>IFERROR(VLOOKUP(H48,Types!$F$3:$G$7,2,FALSE),H48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C49" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" t="e">
+        <f>IFERROR(VLOOKUP(H49,Types!$F$3:$G$7,2,FALSE),H49)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J49" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" t="e">
+        <f>IFERROR(VLOOKUP(H50,Types!$F$3:$G$7,2,FALSE),H50)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J50" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" t="e">
+        <f>IFERROR(VLOOKUP(H51,Types!$F$3:$G$7,2,FALSE),H51)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J51" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C52" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" t="e">
+        <f>IFERROR(VLOOKUP(H52,Types!$F$3:$G$7,2,FALSE),H52)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J52" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C53" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" t="e">
+        <f>IFERROR(VLOOKUP(H53,Types!$F$3:$G$7,2,FALSE),H53)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J53" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C54" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E54" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" t="e">
+        <f>IFERROR(VLOOKUP(H54,Types!$F$3:$G$7,2,FALSE),H54)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J54" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C55" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E55" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" t="e">
+        <f>IFERROR(VLOOKUP(H55,Types!$F$3:$G$7,2,FALSE),H55)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J55" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C56" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E56" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G56" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I56" t="e">
+        <f>IFERROR(VLOOKUP(H56,Types!$F$3:$G$7,2,FALSE),H56)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J56" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C57" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D57" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E57" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G57" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I57" t="e">
+        <f>IFERROR(VLOOKUP(H57,Types!$F$3:$G$7,2,FALSE),H57)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J57" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C58" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D58" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" t="e">
+        <f>IFERROR(VLOOKUP(H58,Types!$F$3:$G$7,2,FALSE),H58)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J58" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C59" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D59" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" t="e">
+        <f>IFERROR(VLOOKUP(H59,Types!$F$3:$G$7,2,FALSE),H59)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J59" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C60" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" t="e">
+        <f>IFERROR(VLOOKUP(H60,Types!$F$3:$G$7,2,FALSE),H60)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J60" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C61" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D61" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" t="e">
+        <f>IFERROR(VLOOKUP(H61,Types!$F$3:$G$7,2,FALSE),H61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J61" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C62" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D62" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E62" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G62" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I62" t="e">
+        <f>IFERROR(VLOOKUP(H62,Types!$F$3:$G$7,2,FALSE),H62)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J62" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C63" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D63" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E63" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F63" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G63" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I63" t="e">
+        <f>IFERROR(VLOOKUP(H63,Types!$F$3:$G$7,2,FALSE),H63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J63" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K63" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C64" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D64" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E64" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G64" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I64" t="e">
+        <f>IFERROR(VLOOKUP(H64,Types!$F$3:$G$7,2,FALSE),H64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J64" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C65" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D65" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E65" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G65" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I65" t="e">
+        <f>IFERROR(VLOOKUP(H65,Types!$F$3:$G$7,2,FALSE),H65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J65" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C66" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D66" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E66" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I66" t="e">
+        <f>IFERROR(VLOOKUP(H66,Types!$F$3:$G$7,2,FALSE),H66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J66" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K66" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C67" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D67" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E67" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G67" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I67" t="e">
+        <f>IFERROR(VLOOKUP(H67,Types!$F$3:$G$7,2,FALSE),H67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J67" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C68" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D68" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E68" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G68" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I68" t="e">
+        <f>IFERROR(VLOOKUP(H68,Types!$F$3:$G$7,2,FALSE),H68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J68" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K68" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69">
+        <f t="shared" ref="B69:B90" si="17">LEN(A69)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" t="e">
+        <f t="shared" ref="C69:C90" si="18">FIND(":", A69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D69" t="e">
+        <f t="shared" ref="D69:D90" si="19">LEFT(A69,C69-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E69" t="e">
+        <f t="shared" ref="E69:E90" si="20">UPPER(LEFT(D69,1))&amp;RIGHT(D69, LEN(D69)-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" t="e">
+        <f t="shared" ref="F69:F90" si="21">SUBSTITUTE(RIGHT(A69,B69-C69-1),";","")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G69" t="b">
+        <f t="shared" ref="G69:G90" si="22">ISNUMBER(SEARCH("[]",F69))</f>
+        <v>0</v>
+      </c>
+      <c r="H69" t="e">
+        <f t="shared" ref="H69:H90" si="23">IF(G69,LEFT(F69,LEN(F69)-2),F69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I69" t="e">
+        <f>IFERROR(VLOOKUP(H69,Types!$F$3:$G$7,2,FALSE),H69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J69" t="e">
+        <f t="shared" ref="J69:J90" si="24">IF(G69,"ICollection&lt;"&amp;I69&amp;"&gt;",I69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K69" s="2" t="e">
+        <f t="shared" ref="K69:K90" si="25">"public "&amp;J69&amp;" "&amp;E69&amp;" { get; set; }"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C70" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D70" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G70" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I70" t="e">
+        <f>IFERROR(VLOOKUP(H70,Types!$F$3:$G$7,2,FALSE),H70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J70" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K70" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C71" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D71" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E71" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G71" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I71" t="e">
+        <f>IFERROR(VLOOKUP(H71,Types!$F$3:$G$7,2,FALSE),H71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J71" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K71" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C72" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D72" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E72" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G72" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I72" t="e">
+        <f>IFERROR(VLOOKUP(H72,Types!$F$3:$G$7,2,FALSE),H72)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J72" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K72" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C73" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D73" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E73" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G73" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I73" t="e">
+        <f>IFERROR(VLOOKUP(H73,Types!$F$3:$G$7,2,FALSE),H73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J73" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K73" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C74" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D74" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E74" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G74" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I74" t="e">
+        <f>IFERROR(VLOOKUP(H74,Types!$F$3:$G$7,2,FALSE),H74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J74" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K74" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C75" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D75" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E75" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G75" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I75" t="e">
+        <f>IFERROR(VLOOKUP(H75,Types!$F$3:$G$7,2,FALSE),H75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J75" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K75" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C76" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D76" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E76" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G76" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I76" t="e">
+        <f>IFERROR(VLOOKUP(H76,Types!$F$3:$G$7,2,FALSE),H76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J76" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K76" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C77" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D77" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E77" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G77" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I77" t="e">
+        <f>IFERROR(VLOOKUP(H77,Types!$F$3:$G$7,2,FALSE),H77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J77" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K77" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C78" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D78" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E78" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G78" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I78" t="e">
+        <f>IFERROR(VLOOKUP(H78,Types!$F$3:$G$7,2,FALSE),H78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J78" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K78" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C79" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D79" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E79" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G79" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I79" t="e">
+        <f>IFERROR(VLOOKUP(H79,Types!$F$3:$G$7,2,FALSE),H79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J79" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K79" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C80" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D80" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E80" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G80" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I80" t="e">
+        <f>IFERROR(VLOOKUP(H80,Types!$F$3:$G$7,2,FALSE),H80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J80" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K80" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C81" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D81" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G81" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I81" t="e">
+        <f>IFERROR(VLOOKUP(H81,Types!$F$3:$G$7,2,FALSE),H81)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J81" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K81" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C82" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D82" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E82" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G82" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I82" t="e">
+        <f>IFERROR(VLOOKUP(H82,Types!$F$3:$G$7,2,FALSE),H82)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J82" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K82" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C83" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D83" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E83" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G83" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I83" t="e">
+        <f>IFERROR(VLOOKUP(H83,Types!$F$3:$G$7,2,FALSE),H83)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J83" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K83" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C84" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D84" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E84" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G84" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I84" t="e">
+        <f>IFERROR(VLOOKUP(H84,Types!$F$3:$G$7,2,FALSE),H84)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J84" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K84" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C85" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D85" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E85" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G85" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I85" t="e">
+        <f>IFERROR(VLOOKUP(H85,Types!$F$3:$G$7,2,FALSE),H85)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J85" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K85" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C86" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D86" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E86" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G86" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I86" t="e">
+        <f>IFERROR(VLOOKUP(H86,Types!$F$3:$G$7,2,FALSE),H86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J86" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K86" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C87" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D87" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E87" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G87" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I87" t="e">
+        <f>IFERROR(VLOOKUP(H87,Types!$F$3:$G$7,2,FALSE),H87)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J87" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K87" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C88" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D88" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E88" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G88" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I88" t="e">
+        <f>IFERROR(VLOOKUP(H88,Types!$F$3:$G$7,2,FALSE),H88)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J88" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K88" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C89" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G89" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I89" t="e">
+        <f>IFERROR(VLOOKUP(H89,Types!$F$3:$G$7,2,FALSE),H89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J89" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K89" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C90" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D90" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E90" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G90" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I90" t="e">
+        <f>IFERROR(VLOOKUP(H90,Types!$F$3:$G$7,2,FALSE),H90)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J90" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K90" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -8980,27 +13600,27 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
       <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="9"/>
+      <c r="F1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">

--- a/convert c# to typescript - lower case.xlsx
+++ b/convert c# to typescript - lower case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://audacia-my.sharepoint.com/personal/tim_hilton_audacia_co_uk/Documents/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4058BB3B-CE01-4D21-A653-BE9A54DE9564}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07BDB4D7-BBB6-470E-9FE8-A54948E4EC5C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C# model to ts" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -3863,7 +3863,7 @@
   </si>
   <si>
     <r>
-      <t>commodityType</t>
+      <t>tonnage</t>
     </r>
     <r>
       <rPr>
@@ -3881,7 +3881,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>string</t>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -3895,7 +3895,7 @@
   </si>
   <si>
     <r>
-      <t>grainUsageProfile</t>
+      <t>tradingPartnerId</t>
     </r>
     <r>
       <rPr>
@@ -3913,7 +3913,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>string</t>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -3927,48 +3927,48 @@
   </si>
   <si>
     <r>
-      <t>tradingPeriods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFC191FF"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>FutureContractBalanceTradingPeriod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>[];</t>
+      <t>commodityTypeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
     </r>
   </si>
   <si>
     <r>
-      <t>totalTonnage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t>grainUsageProfileId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
     </r>
     <r>
       <rPr>
@@ -3991,16 +3991,16 @@
   </si>
   <si>
     <r>
-      <t>tradingPeriodId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t>storeAddressId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
     </r>
     <r>
       <rPr>
@@ -4023,25 +4023,25 @@
   </si>
   <si>
     <r>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>string</t>
+      <t>tradingPeriodSelection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC191FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>TradingPeriodSelection</t>
     </r>
     <r>
       <rPr>
@@ -4055,35 +4055,38 @@
   </si>
   <si>
     <r>
-      <t>tonnage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
+      <t>tradingPeriods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC191FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>[];</t>
+    </r>
+  </si>
+  <si>
+    <t>C# nullable type</t>
   </si>
 </sst>
 </file>
@@ -9771,10 +9774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810504A8-ACB8-4A50-87CA-E2EE7FA1209C}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K8"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9782,17 +9785,17 @@
     <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="7" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="42.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="22.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -9809,3780 +9812,4498 @@
         <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2">
         <f>LEN(A2)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <f>FIND(":", A2)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="str">
         <f>LEFT(A2,C2-1)</f>
-        <v>commodityType</v>
+        <v>tradingPartnerId</v>
       </c>
       <c r="E2" t="str">
-        <f>UPPER(LEFT(D2,1))&amp;RIGHT(D2, LEN(D2)-1)</f>
-        <v>CommodityType</v>
-      </c>
-      <c r="F2" t="str">
+        <f>SUBSTITUTE(UPPER(LEFT(D2,1))&amp;RIGHT(D2, LEN(D2)-1),"?","")</f>
+        <v>TradingPartnerId</v>
+      </c>
+      <c r="F2" t="b">
+        <f>ISNUMBER(SEARCH("~?",D2))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
         <f>SUBSTITUTE(RIGHT(A2,B2-C2-1),";","")</f>
-        <v>string</v>
-      </c>
-      <c r="G2" t="b">
-        <f>ISNUMBER(SEARCH("[]",F2))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" t="str">
-        <f>IF(G2,LEFT(F2,LEN(F2)-2),F2)</f>
-        <v>string</v>
+        <v>number</v>
+      </c>
+      <c r="H2" t="b">
+        <f>ISNUMBER(SEARCH("[]",G2))</f>
+        <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f>IFERROR(VLOOKUP(H2,Types!$F$3:$G$7,2,FALSE),H2)</f>
-        <v>string</v>
+        <f>IF(H2,LEFT(G2,LEN(G2)-2),G2)</f>
+        <v>number</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(G2,"List&lt;"&amp;I2&amp;"&gt;",I2)</f>
-        <v>string</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <f>"public "&amp;J2&amp;" "&amp;E2&amp;" { get; set; }"</f>
-        <v>public string CommodityType { get; set; }</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <f>IFERROR(VLOOKUP(I2,Types!$F$3:$G$7,2,FALSE),I2)</f>
+        <v>int</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(F2,J2&amp;"?",J2)</f>
+        <v>int</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(H2,"List&lt;"&amp;K2&amp;"&gt;",K2)</f>
+        <v>int</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>"public "&amp;L2&amp;" "&amp;E2&amp;" { get; set; }"</f>
+        <v>public int TradingPartnerId { get; set; }</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B4" si="0">LEN(A3)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C4" si="1">FIND(":", A3)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" si="2">LEFT(A3,C3-1)</f>
-        <v>grainUsageProfile</v>
+        <v>commodityTypeId?</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="3">UPPER(LEFT(D3,1))&amp;RIGHT(D3, LEN(D3)-1)</f>
-        <v>GrainUsageProfile</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F4" si="4">SUBSTITUTE(RIGHT(A3,B3-C3-1),";","")</f>
-        <v>string</v>
-      </c>
-      <c r="G3" t="b">
-        <f t="shared" ref="G3:G4" si="5">ISNUMBER(SEARCH("[]",F3))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" t="str">
-        <f>IF(G3,LEFT(F3,LEN(F3)-2),F3)</f>
-        <v>string</v>
+        <f t="shared" ref="E3:E66" si="3">SUBSTITUTE(UPPER(LEFT(D3,1))&amp;RIGHT(D3, LEN(D3)-1),"?","")</f>
+        <v>CommodityTypeId</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F66" si="4">ISNUMBER(SEARCH("~?",D3))</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G4" si="5">SUBSTITUTE(RIGHT(A3,B3-C3-1),";","")</f>
+        <v>number</v>
+      </c>
+      <c r="H3" t="b">
+        <f t="shared" ref="H3:H4" si="6">ISNUMBER(SEARCH("[]",G3))</f>
+        <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f>IFERROR(VLOOKUP(H3,Types!$F$3:$G$7,2,FALSE),H3)</f>
-        <v>string</v>
+        <f>IF(H3,LEFT(G3,LEN(G3)-2),G3)</f>
+        <v>number</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3" si="6">IF(G3,"List&lt;"&amp;I3&amp;"&gt;",I3)</f>
-        <v>string</v>
-      </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K5" si="7">"public "&amp;J3&amp;" "&amp;E3&amp;" { get; set; }"</f>
-        <v>public string GrainUsageProfile { get; set; }</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <f>IFERROR(VLOOKUP(I3,Types!$F$3:$G$7,2,FALSE),I3)</f>
+        <v>int</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="7">IF(F3,J3&amp;"?",J3)</f>
+        <v>int?</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="8">IF(H3,"List&lt;"&amp;K3&amp;"&gt;",K3)</f>
+        <v>int?</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M4" si="9">"public "&amp;L3&amp;" "&amp;E3&amp;" { get; set; }"</f>
+        <v>public int? CommodityTypeId { get; set; }</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>tradingPeriods</v>
+        <v>grainUsageProfileId?</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
+        <v>GrainUsageProfileId</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="5"/>
+        <v>number</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(H4,LEFT(G4,LEN(G4)-2),G4)</f>
+        <v>number</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IFERROR(VLOOKUP(I4,Types!$F$3:$G$7,2,FALSE),I4)</f>
+        <v>int</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="7"/>
+        <v>int?</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="8"/>
+        <v>int?</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>public int? GrainUsageProfileId { get; set; }</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B68" si="10">LEN(A5)</f>
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C68" si="11">FIND(":", A5)</f>
+        <v>16</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D68" si="12">LEFT(A5,C5-1)</f>
+        <v>storeAddressId?</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>StoreAddressId</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G68" si="13">SUBSTITUTE(RIGHT(A5,B5-C5-1),";","")</f>
+        <v>number</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" ref="H5:H68" si="14">ISNUMBER(SEARCH("[]",G5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I68" si="15">IF(H5,LEFT(G5,LEN(G5)-2),G5)</f>
+        <v>number</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IFERROR(VLOOKUP(I5,Types!$F$3:$G$7,2,FALSE),I5)</f>
+        <v>int</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="7"/>
+        <v>int?</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="8"/>
+        <v>int?</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" ref="M5:M68" si="16">"public "&amp;L5&amp;" "&amp;E5&amp;" { get; set; }"</f>
+        <v>public int? StoreAddressId { get; set; }</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="12"/>
+        <v>tradingPeriodSelection?</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>TradingPeriodSelection</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="13"/>
+        <v>TradingPeriodSelection</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="15"/>
+        <v>TradingPeriodSelection</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IFERROR(VLOOKUP(I6,Types!$F$3:$G$7,2,FALSE),I6)</f>
+        <v>TradingPeriodSelection</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="7"/>
+        <v>TradingPeriodSelection?</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="8"/>
+        <v>TradingPeriodSelection?</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>public TradingPeriodSelection? TradingPeriodSelection { get; set; }</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="12"/>
+        <v>tradingPeriods?</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
         <v>TradingPeriods</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>FutureContractBalanceTradingPeriod[]</v>
-      </c>
-      <c r="G4" t="b">
-        <f t="shared" si="5"/>
+      <c r="F7" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H4" t="str">
-        <f>IF(G4,LEFT(F4,LEN(F4)-2),F4)</f>
-        <v>FutureContractBalanceTradingPeriod</v>
-      </c>
-      <c r="I4" t="str">
-        <f>IFERROR(VLOOKUP(H4,Types!$F$3:$G$7,2,FALSE),H4)</f>
-        <v>FutureContractBalanceTradingPeriod</v>
-      </c>
-      <c r="J4" t="str">
-        <f>IF(G4,"ICollection&lt;"&amp;I4&amp;"&gt;",I4)</f>
-        <v>ICollection&lt;FutureContractBalanceTradingPeriod&gt;</v>
-      </c>
-      <c r="K4" s="2" t="str">
+      <c r="G7" t="str">
+        <f t="shared" si="13"/>
+        <v>Date[]</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="15"/>
+        <v>Date</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IFERROR(VLOOKUP(I7,Types!$F$3:$G$7,2,FALSE),I7)</f>
+        <v>DateTime</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="7"/>
-        <v>public ICollection&lt;FutureContractBalanceTradingPeriod&gt; TradingPeriods { get; set; }</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ref="B5:B68" si="8">LEN(A5)</f>
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C68" si="9">FIND(":", A5)</f>
-        <v>13</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D68" si="10">LEFT(A5,C5-1)</f>
-        <v>totalTonnage</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5:E68" si="11">UPPER(LEFT(D5,1))&amp;RIGHT(D5, LEN(D5)-1)</f>
-        <v>TotalTonnage</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" ref="F5:F68" si="12">SUBSTITUTE(RIGHT(A5,B5-C5-1),";","")</f>
+        <v>DateTime?</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="8"/>
+        <v>List&lt;DateTime?&gt;</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>public List&lt;DateTime?&gt; TradingPeriods { get; set; }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="12"/>
+        <v>tonnage</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>Tonnage</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="13"/>
         <v>number</v>
       </c>
-      <c r="G5" t="b">
-        <f t="shared" ref="G5:G68" si="13">ISNUMBER(SEARCH("[]",F5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ref="H5:H68" si="14">IF(G5,LEFT(F5,LEN(F5)-2),F5)</f>
+      <c r="H8" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="15"/>
         <v>number</v>
       </c>
-      <c r="I5" t="str">
-        <f>IFERROR(VLOOKUP(H5,Types!$F$3:$G$7,2,FALSE),H5)</f>
+      <c r="J8" t="str">
+        <f>IFERROR(VLOOKUP(I8,Types!$F$3:$G$7,2,FALSE),I8)</f>
         <v>int</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J68" si="15">IF(G5,"ICollection&lt;"&amp;I5&amp;"&gt;",I5)</f>
+      <c r="K8" t="str">
+        <f t="shared" si="7"/>
         <v>int</v>
       </c>
-      <c r="K5" s="2" t="str">
-        <f t="shared" ref="K5:K68" si="16">"public "&amp;J5&amp;" "&amp;E5&amp;" { get; set; }"</f>
-        <v>public int TotalTonnage { get; set; }</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6">
+      <c r="L8" t="str">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="10"/>
-        <v>tradingPeriodId</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="11"/>
-        <v>TradingPeriodId</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="12"/>
-        <v>number</v>
-      </c>
-      <c r="G6" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="14"/>
-        <v>number</v>
-      </c>
-      <c r="I6" t="str">
-        <f>IFERROR(VLOOKUP(H6,Types!$F$3:$G$7,2,FALSE),H6)</f>
         <v>int</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" si="15"/>
-        <v>int</v>
-      </c>
-      <c r="K6" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>public int TradingPeriodId { get; set; }</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="10"/>
-        <v>name</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="11"/>
-        <v>Name</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="12"/>
-        <v>string</v>
-      </c>
-      <c r="G7" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="14"/>
-        <v>string</v>
-      </c>
-      <c r="I7" t="str">
-        <f>IFERROR(VLOOKUP(H7,Types!$F$3:$G$7,2,FALSE),H7)</f>
-        <v>string</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="15"/>
-        <v>string</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>public string Name { get; set; }</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="10"/>
-        <v>tonnage</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="11"/>
-        <v>Tonnage</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="12"/>
-        <v>number</v>
-      </c>
-      <c r="G8" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="14"/>
-        <v>number</v>
-      </c>
-      <c r="I8" t="str">
-        <f>IFERROR(VLOOKUP(H8,Types!$F$3:$G$7,2,FALSE),H8)</f>
-        <v>int</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="15"/>
-        <v>int</v>
-      </c>
-      <c r="K8" s="2" t="str">
+      <c r="M8" s="2" t="str">
         <f t="shared" si="16"/>
         <v>public int Tonnage { get; set; }</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="B9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" t="e">
+        <f>IFERROR(VLOOKUP(I9,Types!$F$3:$G$7,2,FALSE),I9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C9" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" t="e">
+        <v>0</v>
+      </c>
+      <c r="C10" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F9" t="e">
+      <c r="D10" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" t="b">
+      <c r="E10" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" t="e">
-        <f>IFERROR(VLOOKUP(H9,Types!$F$3:$G$7,2,FALSE),H9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" t="e">
+        <v>0</v>
+      </c>
+      <c r="I10" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="2" t="e">
+      <c r="J10" t="e">
+        <f>IFERROR(VLOOKUP(I10,Types!$F$3:$G$7,2,FALSE),I10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="B10">
+    <row r="11" spans="1:13">
+      <c r="B11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" t="e">
+        <f>IFERROR(VLOOKUP(I11,Types!$F$3:$G$7,2,FALSE),I11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C10" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" t="e">
+        <v>0</v>
+      </c>
+      <c r="C12" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" t="e">
+      <c r="D12" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" t="b">
+      <c r="E12" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" t="e">
-        <f>IFERROR(VLOOKUP(H10,Types!$F$3:$G$7,2,FALSE),H10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" t="e">
+        <v>0</v>
+      </c>
+      <c r="I12" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="2" t="e">
+      <c r="J12" t="e">
+        <f>IFERROR(VLOOKUP(I12,Types!$F$3:$G$7,2,FALSE),I12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="B11">
+    <row r="13" spans="1:13">
+      <c r="B13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" t="e">
+        <f>IFERROR(VLOOKUP(I13,Types!$F$3:$G$7,2,FALSE),I13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L13" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" t="e">
+        <v>0</v>
+      </c>
+      <c r="C14" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" t="e">
+      <c r="D14" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" t="b">
+      <c r="E14" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" t="e">
-        <f>IFERROR(VLOOKUP(H11,Types!$F$3:$G$7,2,FALSE),H11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" t="e">
+        <v>0</v>
+      </c>
+      <c r="I14" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="2" t="e">
+      <c r="J14" t="e">
+        <f>IFERROR(VLOOKUP(I14,Types!$F$3:$G$7,2,FALSE),I14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="B12">
+    <row r="15" spans="1:13">
+      <c r="B15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" t="e">
+        <f>IFERROR(VLOOKUP(I15,Types!$F$3:$G$7,2,FALSE),I15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C12" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" t="e">
+        <v>0</v>
+      </c>
+      <c r="C16" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F12" t="e">
+      <c r="D16" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" t="b">
+      <c r="E16" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" t="e">
-        <f>IFERROR(VLOOKUP(H12,Types!$F$3:$G$7,2,FALSE),H12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" t="e">
+        <v>0</v>
+      </c>
+      <c r="I16" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="2" t="e">
+      <c r="J16" t="e">
+        <f>IFERROR(VLOOKUP(I16,Types!$F$3:$G$7,2,FALSE),I16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="B13">
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" t="e">
+        <f>IFERROR(VLOOKUP(I17,Types!$F$3:$G$7,2,FALSE),I17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C13" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" t="e">
+        <v>0</v>
+      </c>
+      <c r="C18" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" t="e">
+      <c r="D18" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" t="b">
+      <c r="E18" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" t="e">
-        <f>IFERROR(VLOOKUP(H13,Types!$F$3:$G$7,2,FALSE),H13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" t="e">
+        <v>0</v>
+      </c>
+      <c r="I18" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="2" t="e">
+      <c r="J18" t="e">
+        <f>IFERROR(VLOOKUP(I18,Types!$F$3:$G$7,2,FALSE),I18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="B14">
+    <row r="19" spans="2:13">
+      <c r="B19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J19" t="e">
+        <f>IFERROR(VLOOKUP(I19,Types!$F$3:$G$7,2,FALSE),I19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L19" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C14" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" t="e">
+        <v>0</v>
+      </c>
+      <c r="C20" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" t="e">
+      <c r="D20" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" t="b">
+      <c r="E20" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" t="e">
-        <f>IFERROR(VLOOKUP(H14,Types!$F$3:$G$7,2,FALSE),H14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" t="e">
+        <v>0</v>
+      </c>
+      <c r="I20" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="2" t="e">
+      <c r="J20" t="e">
+        <f>IFERROR(VLOOKUP(I20,Types!$F$3:$G$7,2,FALSE),I20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="B15">
+    <row r="21" spans="2:13">
+      <c r="B21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" t="e">
+        <f>IFERROR(VLOOKUP(I21,Types!$F$3:$G$7,2,FALSE),I21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C15" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" t="e">
+        <v>0</v>
+      </c>
+      <c r="C22" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" t="e">
+      <c r="D22" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" t="b">
+      <c r="E22" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" t="e">
-        <f>IFERROR(VLOOKUP(H15,Types!$F$3:$G$7,2,FALSE),H15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" t="e">
+        <v>0</v>
+      </c>
+      <c r="I22" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="2" t="e">
+      <c r="J22" t="e">
+        <f>IFERROR(VLOOKUP(I22,Types!$F$3:$G$7,2,FALSE),I22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="B16">
+    <row r="23" spans="2:13">
+      <c r="B23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J23" t="e">
+        <f>IFERROR(VLOOKUP(I23,Types!$F$3:$G$7,2,FALSE),I23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C16" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" t="e">
+        <v>0</v>
+      </c>
+      <c r="C24" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F16" t="e">
+      <c r="D24" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G16" t="b">
+      <c r="E24" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" t="e">
-        <f>IFERROR(VLOOKUP(H16,Types!$F$3:$G$7,2,FALSE),H16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" t="e">
+        <v>0</v>
+      </c>
+      <c r="I24" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="2" t="e">
+      <c r="J24" t="e">
+        <f>IFERROR(VLOOKUP(I24,Types!$F$3:$G$7,2,FALSE),I24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17">
+    <row r="25" spans="2:13">
+      <c r="B25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J25" t="e">
+        <f>IFERROR(VLOOKUP(I25,Types!$F$3:$G$7,2,FALSE),I25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C17" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" t="e">
+        <v>0</v>
+      </c>
+      <c r="C26" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F17" t="e">
+      <c r="D26" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" t="b">
+      <c r="E26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" t="e">
-        <f>IFERROR(VLOOKUP(H17,Types!$F$3:$G$7,2,FALSE),H17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" t="e">
+        <v>0</v>
+      </c>
+      <c r="I26" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="2" t="e">
+      <c r="J26" t="e">
+        <f>IFERROR(VLOOKUP(I26,Types!$F$3:$G$7,2,FALSE),I26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18">
+    <row r="27" spans="2:13">
+      <c r="B27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J27" t="e">
+        <f>IFERROR(VLOOKUP(I27,Types!$F$3:$G$7,2,FALSE),I27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C18" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" t="e">
+        <v>0</v>
+      </c>
+      <c r="C28" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F18" t="e">
+      <c r="D28" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G18" t="b">
+      <c r="E28" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" t="e">
-        <f>IFERROR(VLOOKUP(H18,Types!$F$3:$G$7,2,FALSE),H18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" t="e">
+        <v>0</v>
+      </c>
+      <c r="I28" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="2" t="e">
+      <c r="J28" t="e">
+        <f>IFERROR(VLOOKUP(I28,Types!$F$3:$G$7,2,FALSE),I28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19">
+    <row r="29" spans="2:13">
+      <c r="B29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" t="e">
+        <f>IFERROR(VLOOKUP(I29,Types!$F$3:$G$7,2,FALSE),I29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C19" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" t="e">
+        <v>0</v>
+      </c>
+      <c r="C30" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F19" t="e">
+      <c r="D30" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" t="b">
+      <c r="E30" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" t="e">
-        <f>IFERROR(VLOOKUP(H19,Types!$F$3:$G$7,2,FALSE),H19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" t="e">
+        <v>0</v>
+      </c>
+      <c r="I30" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="2" t="e">
+      <c r="J30" t="e">
+        <f>IFERROR(VLOOKUP(I30,Types!$F$3:$G$7,2,FALSE),I30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20">
+    <row r="31" spans="2:13">
+      <c r="B31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" t="e">
+        <f>IFERROR(VLOOKUP(I31,Types!$F$3:$G$7,2,FALSE),I31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C20" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" t="e">
+        <v>0</v>
+      </c>
+      <c r="C32" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F20" t="e">
+      <c r="D32" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G20" t="b">
+      <c r="E32" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" t="e">
-        <f>IFERROR(VLOOKUP(H20,Types!$F$3:$G$7,2,FALSE),H20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" t="e">
+        <v>0</v>
+      </c>
+      <c r="I32" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="2" t="e">
+      <c r="J32" t="e">
+        <f>IFERROR(VLOOKUP(I32,Types!$F$3:$G$7,2,FALSE),I32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21">
+    <row r="33" spans="2:13">
+      <c r="B33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" t="e">
+        <f>IFERROR(VLOOKUP(I33,Types!$F$3:$G$7,2,FALSE),I33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C21" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" t="e">
+        <v>0</v>
+      </c>
+      <c r="C34" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F21" t="e">
+      <c r="D34" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G21" t="b">
+      <c r="E34" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" t="e">
-        <f>IFERROR(VLOOKUP(H21,Types!$F$3:$G$7,2,FALSE),H21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" t="e">
+        <v>0</v>
+      </c>
+      <c r="I34" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="2" t="e">
+      <c r="J34" t="e">
+        <f>IFERROR(VLOOKUP(I34,Types!$F$3:$G$7,2,FALSE),I34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L34" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22">
+    <row r="35" spans="2:13">
+      <c r="B35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H35" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" t="e">
+        <f>IFERROR(VLOOKUP(I35,Types!$F$3:$G$7,2,FALSE),I35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C22" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M35" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" t="e">
+        <v>0</v>
+      </c>
+      <c r="C36" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F22" t="e">
+      <c r="D36" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G22" t="b">
+      <c r="E36" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" t="e">
-        <f>IFERROR(VLOOKUP(H22,Types!$F$3:$G$7,2,FALSE),H22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" t="e">
+        <v>0</v>
+      </c>
+      <c r="I36" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="2" t="e">
+      <c r="J36" t="e">
+        <f>IFERROR(VLOOKUP(I36,Types!$F$3:$G$7,2,FALSE),I36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L36" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23">
+    <row r="37" spans="2:13">
+      <c r="B37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J37" t="e">
+        <f>IFERROR(VLOOKUP(I37,Types!$F$3:$G$7,2,FALSE),I37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L37" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C23" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M37" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" t="e">
+        <v>0</v>
+      </c>
+      <c r="C38" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" t="e">
+      <c r="D38" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G23" t="b">
+      <c r="E38" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" t="e">
-        <f>IFERROR(VLOOKUP(H23,Types!$F$3:$G$7,2,FALSE),H23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" t="e">
+        <v>0</v>
+      </c>
+      <c r="I38" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="2" t="e">
+      <c r="J38" t="e">
+        <f>IFERROR(VLOOKUP(I38,Types!$F$3:$G$7,2,FALSE),I38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L38" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
-      <c r="B24">
+    <row r="39" spans="2:13">
+      <c r="B39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J39" t="e">
+        <f>IFERROR(VLOOKUP(I39,Types!$F$3:$G$7,2,FALSE),I39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L39" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C24" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" t="e">
+        <v>0</v>
+      </c>
+      <c r="C40" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" t="e">
+      <c r="D40" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G24" t="b">
+      <c r="E40" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H24" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" t="e">
-        <f>IFERROR(VLOOKUP(H24,Types!$F$3:$G$7,2,FALSE),H24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" t="e">
+        <v>0</v>
+      </c>
+      <c r="I40" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="2" t="e">
+      <c r="J40" t="e">
+        <f>IFERROR(VLOOKUP(I40,Types!$F$3:$G$7,2,FALSE),I40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L40" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M40" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
-      <c r="B25">
+    <row r="41" spans="2:13">
+      <c r="B41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J41" t="e">
+        <f>IFERROR(VLOOKUP(I41,Types!$F$3:$G$7,2,FALSE),I41)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L41" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C25" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M41" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E25" t="e">
+        <v>0</v>
+      </c>
+      <c r="C42" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" t="e">
+      <c r="D42" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G25" t="b">
+      <c r="E42" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H25" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H42" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" t="e">
-        <f>IFERROR(VLOOKUP(H25,Types!$F$3:$G$7,2,FALSE),H25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" t="e">
+        <v>0</v>
+      </c>
+      <c r="I42" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="2" t="e">
+      <c r="J42" t="e">
+        <f>IFERROR(VLOOKUP(I42,Types!$F$3:$G$7,2,FALSE),I42)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L42" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M42" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
-      <c r="B26">
+    <row r="43" spans="2:13">
+      <c r="B43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C43" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H43" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J43" t="e">
+        <f>IFERROR(VLOOKUP(I43,Types!$F$3:$G$7,2,FALSE),I43)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L43" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C26" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M43" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" t="e">
+        <v>0</v>
+      </c>
+      <c r="C44" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" t="e">
+      <c r="D44" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G26" t="b">
+      <c r="E44" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H26" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" t="e">
-        <f>IFERROR(VLOOKUP(H26,Types!$F$3:$G$7,2,FALSE),H26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" t="e">
+        <v>0</v>
+      </c>
+      <c r="I44" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="2" t="e">
+      <c r="J44" t="e">
+        <f>IFERROR(VLOOKUP(I44,Types!$F$3:$G$7,2,FALSE),I44)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L44" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
-      <c r="B27">
+    <row r="45" spans="2:13">
+      <c r="B45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C45" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J45" t="e">
+        <f>IFERROR(VLOOKUP(I45,Types!$F$3:$G$7,2,FALSE),I45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L45" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C27" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" t="e">
+        <v>0</v>
+      </c>
+      <c r="C46" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" t="e">
+      <c r="D46" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G27" t="b">
+      <c r="E46" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H27" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" t="e">
-        <f>IFERROR(VLOOKUP(H27,Types!$F$3:$G$7,2,FALSE),H27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" t="e">
+        <v>0</v>
+      </c>
+      <c r="I46" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="2" t="e">
+      <c r="J46" t="e">
+        <f>IFERROR(VLOOKUP(I46,Types!$F$3:$G$7,2,FALSE),I46)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L46" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
-      <c r="B28">
+    <row r="47" spans="2:13">
+      <c r="B47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J47" t="e">
+        <f>IFERROR(VLOOKUP(I47,Types!$F$3:$G$7,2,FALSE),I47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L47" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C28" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" t="e">
+        <v>0</v>
+      </c>
+      <c r="C48" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" t="e">
+      <c r="D48" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G28" t="b">
+      <c r="E48" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" t="e">
-        <f>IFERROR(VLOOKUP(H28,Types!$F$3:$G$7,2,FALSE),H28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" t="e">
+        <v>0</v>
+      </c>
+      <c r="I48" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="2" t="e">
+      <c r="J48" t="e">
+        <f>IFERROR(VLOOKUP(I48,Types!$F$3:$G$7,2,FALSE),I48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L48" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29">
+    <row r="49" spans="2:13">
+      <c r="B49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C49" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J49" t="e">
+        <f>IFERROR(VLOOKUP(I49,Types!$F$3:$G$7,2,FALSE),I49)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L49" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C29" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M49" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" t="e">
+        <v>0</v>
+      </c>
+      <c r="C50" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F29" t="e">
+      <c r="D50" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G29" t="b">
+      <c r="E50" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H29" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" t="e">
-        <f>IFERROR(VLOOKUP(H29,Types!$F$3:$G$7,2,FALSE),H29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" t="e">
+        <v>0</v>
+      </c>
+      <c r="I50" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="2" t="e">
+      <c r="J50" t="e">
+        <f>IFERROR(VLOOKUP(I50,Types!$F$3:$G$7,2,FALSE),I50)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M50" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
-      <c r="B30">
+    <row r="51" spans="2:13">
+      <c r="B51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J51" t="e">
+        <f>IFERROR(VLOOKUP(I51,Types!$F$3:$G$7,2,FALSE),I51)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L51" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C30" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" t="e">
+        <v>0</v>
+      </c>
+      <c r="C52" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F30" t="e">
+      <c r="D52" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G30" t="b">
+      <c r="E52" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H30" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" t="e">
-        <f>IFERROR(VLOOKUP(H30,Types!$F$3:$G$7,2,FALSE),H30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" t="e">
+        <v>0</v>
+      </c>
+      <c r="I52" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="2" t="e">
+      <c r="J52" t="e">
+        <f>IFERROR(VLOOKUP(I52,Types!$F$3:$G$7,2,FALSE),I52)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L52" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
-      <c r="B31">
+    <row r="53" spans="2:13">
+      <c r="B53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C53" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H53" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J53" t="e">
+        <f>IFERROR(VLOOKUP(I53,Types!$F$3:$G$7,2,FALSE),I53)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L53" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C31" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M53" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" t="e">
+        <v>0</v>
+      </c>
+      <c r="C54" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" t="e">
+      <c r="D54" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G31" t="b">
+      <c r="E54" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H54" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" t="e">
-        <f>IFERROR(VLOOKUP(H31,Types!$F$3:$G$7,2,FALSE),H31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" t="e">
+        <v>0</v>
+      </c>
+      <c r="I54" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="2" t="e">
+      <c r="J54" t="e">
+        <f>IFERROR(VLOOKUP(I54,Types!$F$3:$G$7,2,FALSE),I54)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L54" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M54" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
-      <c r="B32">
+    <row r="55" spans="2:13">
+      <c r="B55">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C55" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E55" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J55" t="e">
+        <f>IFERROR(VLOOKUP(I55,Types!$F$3:$G$7,2,FALSE),I55)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L55" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C32" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M55" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" t="e">
+        <v>0</v>
+      </c>
+      <c r="C56" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" t="e">
+      <c r="D56" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G32" t="b">
+      <c r="E56" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H32" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" t="e">
-        <f>IFERROR(VLOOKUP(H32,Types!$F$3:$G$7,2,FALSE),H32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" t="e">
+        <v>0</v>
+      </c>
+      <c r="I56" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="2" t="e">
+      <c r="J56" t="e">
+        <f>IFERROR(VLOOKUP(I56,Types!$F$3:$G$7,2,FALSE),I56)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L56" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M56" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
-      <c r="B33">
+    <row r="57" spans="2:13">
+      <c r="B57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C57" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D57" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E57" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G57" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H57" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J57" t="e">
+        <f>IFERROR(VLOOKUP(I57,Types!$F$3:$G$7,2,FALSE),I57)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L57" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C33" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M57" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" t="e">
+        <v>0</v>
+      </c>
+      <c r="C58" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" t="e">
+      <c r="D58" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G33" t="b">
+      <c r="E58" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H33" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" t="e">
-        <f>IFERROR(VLOOKUP(H33,Types!$F$3:$G$7,2,FALSE),H33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" t="e">
+        <v>0</v>
+      </c>
+      <c r="I58" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="2" t="e">
+      <c r="J58" t="e">
+        <f>IFERROR(VLOOKUP(I58,Types!$F$3:$G$7,2,FALSE),I58)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L58" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M58" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
-      <c r="B34">
+    <row r="59" spans="2:13">
+      <c r="B59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C59" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D59" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J59" t="e">
+        <f>IFERROR(VLOOKUP(I59,Types!$F$3:$G$7,2,FALSE),I59)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L59" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C34" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M59" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E34" t="e">
+        <v>0</v>
+      </c>
+      <c r="C60" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" t="e">
+      <c r="D60" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G34" t="b">
+      <c r="E60" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H34" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" t="e">
-        <f>IFERROR(VLOOKUP(H34,Types!$F$3:$G$7,2,FALSE),H34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" t="e">
+        <v>0</v>
+      </c>
+      <c r="I60" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K34" s="2" t="e">
+      <c r="J60" t="e">
+        <f>IFERROR(VLOOKUP(I60,Types!$F$3:$G$7,2,FALSE),I60)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L60" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
-      <c r="B35">
+    <row r="61" spans="2:13">
+      <c r="B61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C61" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D61" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G61" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J61" t="e">
+        <f>IFERROR(VLOOKUP(I61,Types!$F$3:$G$7,2,FALSE),I61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L61" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C35" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M61" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E35" t="e">
+        <v>0</v>
+      </c>
+      <c r="C62" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" t="e">
+      <c r="D62" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G35" t="b">
+      <c r="E62" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H35" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" t="e">
-        <f>IFERROR(VLOOKUP(H35,Types!$F$3:$G$7,2,FALSE),H35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J35" t="e">
+        <v>0</v>
+      </c>
+      <c r="I62" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="2" t="e">
+      <c r="J62" t="e">
+        <f>IFERROR(VLOOKUP(I62,Types!$F$3:$G$7,2,FALSE),I62)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L62" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M62" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
-      <c r="B36">
+    <row r="63" spans="2:13">
+      <c r="B63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C63" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D63" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E63" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F63" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H63" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J63" t="e">
+        <f>IFERROR(VLOOKUP(I63,Types!$F$3:$G$7,2,FALSE),I63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K63" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L63" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C36" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M63" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" t="e">
+        <v>0</v>
+      </c>
+      <c r="C64" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F36" t="e">
+      <c r="D64" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G36" t="b">
+      <c r="E64" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H36" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" t="e">
-        <f>IFERROR(VLOOKUP(H36,Types!$F$3:$G$7,2,FALSE),H36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J36" t="e">
+        <v>0</v>
+      </c>
+      <c r="I64" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K36" s="2" t="e">
+      <c r="J64" t="e">
+        <f>IFERROR(VLOOKUP(I64,Types!$F$3:$G$7,2,FALSE),I64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L64" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M64" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
-      <c r="B37">
+    <row r="65" spans="2:13">
+      <c r="B65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C65" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D65" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E65" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G65" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J65" t="e">
+        <f>IFERROR(VLOOKUP(I65,Types!$F$3:$G$7,2,FALSE),I65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L65" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C37" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M65" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E37" t="e">
+        <v>0</v>
+      </c>
+      <c r="C66" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F37" t="e">
+      <c r="D66" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G37" t="b">
+      <c r="E66" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H37" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" t="e">
-        <f>IFERROR(VLOOKUP(H37,Types!$F$3:$G$7,2,FALSE),H37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J37" t="e">
+        <v>0</v>
+      </c>
+      <c r="I66" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K37" s="2" t="e">
+      <c r="J66" t="e">
+        <f>IFERROR(VLOOKUP(I66,Types!$F$3:$G$7,2,FALSE),I66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K66" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L66" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M66" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
-      <c r="B38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C38" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" t="e">
+    <row r="67" spans="2:13">
+      <c r="B67">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E38" t="e">
+        <v>0</v>
+      </c>
+      <c r="C67" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F38" t="e">
+      <c r="D67" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G38" t="b">
+      <c r="E67" t="e">
+        <f t="shared" ref="E67:E90" si="17">SUBSTITUTE(UPPER(LEFT(D67,1))&amp;RIGHT(D67, LEN(D67)-1),"?","")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" t="b">
+        <f t="shared" ref="F67:F90" si="18">ISNUMBER(SEARCH("~?",D67))</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H38" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I38" t="e">
-        <f>IFERROR(VLOOKUP(H38,Types!$F$3:$G$7,2,FALSE),H38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J38" t="e">
+        <v>0</v>
+      </c>
+      <c r="I67" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K38" s="2" t="e">
+      <c r="J67" t="e">
+        <f>IFERROR(VLOOKUP(I67,Types!$F$3:$G$7,2,FALSE),I67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" t="e">
+        <f t="shared" ref="K67:K90" si="19">IF(F67,J67&amp;"?",J67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L67" t="e">
+        <f t="shared" ref="L67:L90" si="20">IF(H67,"List&lt;"&amp;K67&amp;"&gt;",K67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
-      <c r="B39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C39" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" t="e">
+    <row r="68" spans="2:13">
+      <c r="B68">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E39" t="e">
+        <v>0</v>
+      </c>
+      <c r="C68" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" t="e">
+      <c r="D68" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G39" t="b">
+      <c r="E68" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H39" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" t="b">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I39" t="e">
-        <f>IFERROR(VLOOKUP(H39,Types!$F$3:$G$7,2,FALSE),H39)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I68" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="2" t="e">
+      <c r="J68" t="e">
+        <f>IFERROR(VLOOKUP(I68,Types!$F$3:$G$7,2,FALSE),I68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K68" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L68" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M68" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
-      <c r="B40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C40" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" t="e">
-        <f>IFERROR(VLOOKUP(H40,Types!$F$3:$G$7,2,FALSE),H40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C41" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H41" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" t="e">
-        <f>IFERROR(VLOOKUP(H41,Types!$F$3:$G$7,2,FALSE),H41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K41" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C42" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D42" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E42" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H42" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I42" t="e">
-        <f>IFERROR(VLOOKUP(H42,Types!$F$3:$G$7,2,FALSE),H42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J42" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K42" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C43" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D43" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E43" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H43" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" t="e">
-        <f>IFERROR(VLOOKUP(H43,Types!$F$3:$G$7,2,FALSE),H43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J43" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K43" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C44" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D44" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E44" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H44" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I44" t="e">
-        <f>IFERROR(VLOOKUP(H44,Types!$F$3:$G$7,2,FALSE),H44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J44" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K44" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C45" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D45" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E45" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F45" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H45" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I45" t="e">
-        <f>IFERROR(VLOOKUP(H45,Types!$F$3:$G$7,2,FALSE),H45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J45" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C46" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D46" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E46" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F46" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G46" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H46" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I46" t="e">
-        <f>IFERROR(VLOOKUP(H46,Types!$F$3:$G$7,2,FALSE),H46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J46" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C47" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D47" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E47" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F47" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G47" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H47" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I47" t="e">
-        <f>IFERROR(VLOOKUP(H47,Types!$F$3:$G$7,2,FALSE),H47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C48" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D48" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E48" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H48" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I48" t="e">
-        <f>IFERROR(VLOOKUP(H48,Types!$F$3:$G$7,2,FALSE),H48)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J48" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C49" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D49" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E49" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H49" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I49" t="e">
-        <f>IFERROR(VLOOKUP(H49,Types!$F$3:$G$7,2,FALSE),H49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J49" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C50" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H50" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" t="e">
-        <f>IFERROR(VLOOKUP(H50,Types!$F$3:$G$7,2,FALSE),H50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C51" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E51" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H51" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I51" t="e">
-        <f>IFERROR(VLOOKUP(H51,Types!$F$3:$G$7,2,FALSE),H51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C52" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E52" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H52" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I52" t="e">
-        <f>IFERROR(VLOOKUP(H52,Types!$F$3:$G$7,2,FALSE),H52)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J52" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C53" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H53" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I53" t="e">
-        <f>IFERROR(VLOOKUP(H53,Types!$F$3:$G$7,2,FALSE),H53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J53" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K53" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C54" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D54" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E54" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H54" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" t="e">
-        <f>IFERROR(VLOOKUP(H54,Types!$F$3:$G$7,2,FALSE),H54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C55" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D55" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E55" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H55" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I55" t="e">
-        <f>IFERROR(VLOOKUP(H55,Types!$F$3:$G$7,2,FALSE),H55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J55" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C56" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D56" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E56" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H56" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I56" t="e">
-        <f>IFERROR(VLOOKUP(H56,Types!$F$3:$G$7,2,FALSE),H56)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J56" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K56" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C57" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D57" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E57" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H57" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I57" t="e">
-        <f>IFERROR(VLOOKUP(H57,Types!$F$3:$G$7,2,FALSE),H57)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J57" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K57" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C58" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D58" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E58" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H58" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I58" t="e">
-        <f>IFERROR(VLOOKUP(H58,Types!$F$3:$G$7,2,FALSE),H58)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J58" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K58" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C59" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D59" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E59" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H59" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I59" t="e">
-        <f>IFERROR(VLOOKUP(H59,Types!$F$3:$G$7,2,FALSE),H59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J59" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K59" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C60" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D60" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H60" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" t="e">
-        <f>IFERROR(VLOOKUP(H60,Types!$F$3:$G$7,2,FALSE),H60)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J60" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K60" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C61" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D61" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H61" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" t="e">
-        <f>IFERROR(VLOOKUP(H61,Types!$F$3:$G$7,2,FALSE),H61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J61" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C62" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D62" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E62" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G62" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H62" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I62" t="e">
-        <f>IFERROR(VLOOKUP(H62,Types!$F$3:$G$7,2,FALSE),H62)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J62" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K62" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C63" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D63" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E63" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G63" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H63" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I63" t="e">
-        <f>IFERROR(VLOOKUP(H63,Types!$F$3:$G$7,2,FALSE),H63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J63" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K63" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C64" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D64" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E64" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G64" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H64" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I64" t="e">
-        <f>IFERROR(VLOOKUP(H64,Types!$F$3:$G$7,2,FALSE),H64)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J64" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K64" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C65" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D65" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E65" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G65" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H65" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I65" t="e">
-        <f>IFERROR(VLOOKUP(H65,Types!$F$3:$G$7,2,FALSE),H65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J65" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K65" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C66" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D66" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E66" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G66" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H66" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I66" t="e">
-        <f>IFERROR(VLOOKUP(H66,Types!$F$3:$G$7,2,FALSE),H66)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J66" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K66" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C67" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D67" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E67" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G67" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H67" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I67" t="e">
-        <f>IFERROR(VLOOKUP(H67,Types!$F$3:$G$7,2,FALSE),H67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J67" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K67" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C68" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D68" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E68" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G68" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H68" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I68" t="e">
-        <f>IFERROR(VLOOKUP(H68,Types!$F$3:$G$7,2,FALSE),H68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J68" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K68" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:13">
       <c r="B69">
-        <f t="shared" ref="B69:B90" si="17">LEN(A69)</f>
+        <f t="shared" ref="B69:B90" si="21">LEN(A69)</f>
         <v>0</v>
       </c>
       <c r="C69" t="e">
-        <f t="shared" ref="C69:C90" si="18">FIND(":", A69)</f>
+        <f t="shared" ref="C69:C90" si="22">FIND(":", A69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D69" t="e">
-        <f t="shared" ref="D69:D90" si="19">LEFT(A69,C69-1)</f>
+        <f t="shared" ref="D69:D90" si="23">LEFT(A69,C69-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E69" t="e">
-        <f t="shared" ref="E69:E90" si="20">UPPER(LEFT(D69,1))&amp;RIGHT(D69, LEN(D69)-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F69" t="e">
-        <f t="shared" ref="F69:F90" si="21">SUBSTITUTE(RIGHT(A69,B69-C69-1),";","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G69" t="b">
-        <f t="shared" ref="G69:G90" si="22">ISNUMBER(SEARCH("[]",F69))</f>
-        <v>0</v>
-      </c>
-      <c r="H69" t="e">
-        <f t="shared" ref="H69:H90" si="23">IF(G69,LEFT(F69,LEN(F69)-2),F69)</f>
-        <v>#VALUE!</v>
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G69" t="e">
+        <f t="shared" ref="G69:G90" si="24">SUBSTITUTE(RIGHT(A69,B69-C69-1),";","")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" t="b">
+        <f t="shared" ref="H69:H90" si="25">ISNUMBER(SEARCH("[]",G69))</f>
+        <v>0</v>
       </c>
       <c r="I69" t="e">
-        <f>IFERROR(VLOOKUP(H69,Types!$F$3:$G$7,2,FALSE),H69)</f>
+        <f t="shared" ref="I69:I90" si="26">IF(H69,LEFT(G69,LEN(G69)-2),G69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J69" t="e">
-        <f t="shared" ref="J69:J90" si="24">IF(G69,"ICollection&lt;"&amp;I69&amp;"&gt;",I69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K69" s="2" t="e">
-        <f t="shared" ref="K69:K90" si="25">"public "&amp;J69&amp;" "&amp;E69&amp;" { get; set; }"</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
+        <f>IFERROR(VLOOKUP(I69,Types!$F$3:$G$7,2,FALSE),I69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K69" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L69" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M69" s="2" t="e">
+        <f t="shared" ref="M69:M90" si="27">"public "&amp;L69&amp;" "&amp;E69&amp;" { get; set; }"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C70" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D70" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D70" t="e">
+        <v>0</v>
+      </c>
+      <c r="G70" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J70" t="e">
+        <f>IFERROR(VLOOKUP(I70,Types!$F$3:$G$7,2,FALSE),I70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K70" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E70" t="e">
+      <c r="L70" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F70" t="e">
+      <c r="M70" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D71" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I70" t="e">
-        <f>IFERROR(VLOOKUP(H70,Types!$F$3:$G$7,2,FALSE),H70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J70" t="e">
+      <c r="E71" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K70" s="2" t="e">
+      <c r="H71" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J71" t="e">
+        <f>IFERROR(VLOOKUP(I71,Types!$F$3:$G$7,2,FALSE),I71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K71" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L71" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M71" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C72" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D72" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E72" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D71" t="e">
+        <v>0</v>
+      </c>
+      <c r="G72" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J72" t="e">
+        <f>IFERROR(VLOOKUP(I72,Types!$F$3:$G$7,2,FALSE),I72)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K72" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E71" t="e">
+      <c r="L72" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F71" t="e">
+      <c r="M72" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D73" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I71" t="e">
-        <f>IFERROR(VLOOKUP(H71,Types!$F$3:$G$7,2,FALSE),H71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J71" t="e">
+      <c r="E73" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G73" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K71" s="2" t="e">
+      <c r="H73" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="I73" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J73" t="e">
+        <f>IFERROR(VLOOKUP(I73,Types!$F$3:$G$7,2,FALSE),I73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K73" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L73" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M73" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C74" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D74" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E74" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D72" t="e">
+        <v>0</v>
+      </c>
+      <c r="G74" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J74" t="e">
+        <f>IFERROR(VLOOKUP(I74,Types!$F$3:$G$7,2,FALSE),I74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K74" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E72" t="e">
+      <c r="L74" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F72" t="e">
+      <c r="M74" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D75" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I72" t="e">
-        <f>IFERROR(VLOOKUP(H72,Types!$F$3:$G$7,2,FALSE),H72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J72" t="e">
+      <c r="E75" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G75" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K72" s="2" t="e">
+      <c r="H75" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="I75" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J75" t="e">
+        <f>IFERROR(VLOOKUP(I75,Types!$F$3:$G$7,2,FALSE),I75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K75" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L75" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M75" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C76" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D76" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E76" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D73" t="e">
+        <v>0</v>
+      </c>
+      <c r="G76" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J76" t="e">
+        <f>IFERROR(VLOOKUP(I76,Types!$F$3:$G$7,2,FALSE),I76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K76" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E73" t="e">
+      <c r="L76" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F73" t="e">
+      <c r="M76" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D77" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I73" t="e">
-        <f>IFERROR(VLOOKUP(H73,Types!$F$3:$G$7,2,FALSE),H73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J73" t="e">
+      <c r="E77" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G77" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K73" s="2" t="e">
+      <c r="H77" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="I77" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J77" t="e">
+        <f>IFERROR(VLOOKUP(I77,Types!$F$3:$G$7,2,FALSE),I77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K77" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L77" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M77" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C78" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D78" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E78" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D74" t="e">
+        <v>0</v>
+      </c>
+      <c r="G78" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J78" t="e">
+        <f>IFERROR(VLOOKUP(I78,Types!$F$3:$G$7,2,FALSE),I78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K78" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E74" t="e">
+      <c r="L78" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F74" t="e">
+      <c r="M78" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D79" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I74" t="e">
-        <f>IFERROR(VLOOKUP(H74,Types!$F$3:$G$7,2,FALSE),H74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J74" t="e">
+      <c r="E79" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K74" s="2" t="e">
+      <c r="H79" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="I79" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J79" t="e">
+        <f>IFERROR(VLOOKUP(I79,Types!$F$3:$G$7,2,FALSE),I79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K79" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L79" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M79" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C80" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D80" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E80" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D75" t="e">
+        <v>0</v>
+      </c>
+      <c r="G80" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J80" t="e">
+        <f>IFERROR(VLOOKUP(I80,Types!$F$3:$G$7,2,FALSE),I80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K80" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E75" t="e">
+      <c r="L80" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F75" t="e">
+      <c r="M80" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D81" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I75" t="e">
-        <f>IFERROR(VLOOKUP(H75,Types!$F$3:$G$7,2,FALSE),H75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J75" t="e">
+      <c r="E81" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G81" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K75" s="2" t="e">
+      <c r="H81" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="I81" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J81" t="e">
+        <f>IFERROR(VLOOKUP(I81,Types!$F$3:$G$7,2,FALSE),I81)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K81" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M81" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C82" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D82" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E82" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D76" t="e">
+        <v>0</v>
+      </c>
+      <c r="G82" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H82" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J82" t="e">
+        <f>IFERROR(VLOOKUP(I82,Types!$F$3:$G$7,2,FALSE),I82)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K82" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E76" t="e">
+      <c r="L82" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F76" t="e">
+      <c r="M82" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D83" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I76" t="e">
-        <f>IFERROR(VLOOKUP(H76,Types!$F$3:$G$7,2,FALSE),H76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J76" t="e">
+      <c r="E83" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G83" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K76" s="2" t="e">
+      <c r="H83" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="I83" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J83" t="e">
+        <f>IFERROR(VLOOKUP(I83,Types!$F$3:$G$7,2,FALSE),I83)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K83" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L83" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M83" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C84" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D84" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E84" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C77" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D77" t="e">
+        <v>0</v>
+      </c>
+      <c r="G84" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H84" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J84" t="e">
+        <f>IFERROR(VLOOKUP(I84,Types!$F$3:$G$7,2,FALSE),I84)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K84" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E77" t="e">
+      <c r="L84" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F77" t="e">
+      <c r="M84" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H77" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D85" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I77" t="e">
-        <f>IFERROR(VLOOKUP(H77,Types!$F$3:$G$7,2,FALSE),H77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J77" t="e">
+      <c r="E85" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G85" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K77" s="2" t="e">
+      <c r="H85" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="I85" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J85" t="e">
+        <f>IFERROR(VLOOKUP(I85,Types!$F$3:$G$7,2,FALSE),I85)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K85" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L85" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M85" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C86" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D86" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E86" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C78" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D78" t="e">
+        <v>0</v>
+      </c>
+      <c r="G86" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J86" t="e">
+        <f>IFERROR(VLOOKUP(I86,Types!$F$3:$G$7,2,FALSE),I86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K86" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E78" t="e">
+      <c r="L86" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F78" t="e">
+      <c r="M86" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H78" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D87" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I78" t="e">
-        <f>IFERROR(VLOOKUP(H78,Types!$F$3:$G$7,2,FALSE),H78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J78" t="e">
+      <c r="E87" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G87" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K78" s="2" t="e">
+      <c r="H87" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="I87" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J87" t="e">
+        <f>IFERROR(VLOOKUP(I87,Types!$F$3:$G$7,2,FALSE),I87)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K87" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L87" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M87" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C88" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D88" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E88" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C79" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D79" t="e">
+        <v>0</v>
+      </c>
+      <c r="G88" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H88" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J88" t="e">
+        <f>IFERROR(VLOOKUP(I88,Types!$F$3:$G$7,2,FALSE),I88)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K88" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E79" t="e">
+      <c r="L88" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F79" t="e">
+      <c r="M88" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H79" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I79" t="e">
-        <f>IFERROR(VLOOKUP(H79,Types!$F$3:$G$7,2,FALSE),H79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J79" t="e">
+      <c r="E89" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G89" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K79" s="2" t="e">
+      <c r="H89" t="b">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="I89" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J89" t="e">
+        <f>IFERROR(VLOOKUP(I89,Types!$F$3:$G$7,2,FALSE),I89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K89" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L89" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M89" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C90" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D90" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E90" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C80" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" t="b">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D80" t="e">
+        <v>0</v>
+      </c>
+      <c r="G90" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J90" t="e">
+        <f>IFERROR(VLOOKUP(I90,Types!$F$3:$G$7,2,FALSE),I90)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K90" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E80" t="e">
+      <c r="L90" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F80" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G80" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H80" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I80" t="e">
-        <f>IFERROR(VLOOKUP(H80,Types!$F$3:$G$7,2,FALSE),H80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J80" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K80" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C81" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D81" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F81" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G81" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H81" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I81" t="e">
-        <f>IFERROR(VLOOKUP(H81,Types!$F$3:$G$7,2,FALSE),H81)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J81" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K81" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C82" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D82" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E82" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F82" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G82" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H82" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I82" t="e">
-        <f>IFERROR(VLOOKUP(H82,Types!$F$3:$G$7,2,FALSE),H82)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J82" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K82" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C83" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D83" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E83" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G83" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H83" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I83" t="e">
-        <f>IFERROR(VLOOKUP(H83,Types!$F$3:$G$7,2,FALSE),H83)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J83" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K83" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="B84">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C84" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D84" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E84" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G84" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H84" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I84" t="e">
-        <f>IFERROR(VLOOKUP(H84,Types!$F$3:$G$7,2,FALSE),H84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J84" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K84" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C85" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D85" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E85" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G85" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H85" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I85" t="e">
-        <f>IFERROR(VLOOKUP(H85,Types!$F$3:$G$7,2,FALSE),H85)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J85" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K85" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C86" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D86" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E86" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G86" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H86" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I86" t="e">
-        <f>IFERROR(VLOOKUP(H86,Types!$F$3:$G$7,2,FALSE),H86)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J86" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K86" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C87" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D87" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E87" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G87" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H87" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I87" t="e">
-        <f>IFERROR(VLOOKUP(H87,Types!$F$3:$G$7,2,FALSE),H87)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J87" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K87" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C88" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D88" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E88" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F88" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G88" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H88" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I88" t="e">
-        <f>IFERROR(VLOOKUP(H88,Types!$F$3:$G$7,2,FALSE),H88)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J88" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K88" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C89" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H89" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I89" t="e">
-        <f>IFERROR(VLOOKUP(H89,Types!$F$3:$G$7,2,FALSE),H89)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J89" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K89" s="2" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C90" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D90" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E90" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F90" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G90" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H90" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I90" t="e">
-        <f>IFERROR(VLOOKUP(H90,Types!$F$3:$G$7,2,FALSE),H90)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J90" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K90" s="2" t="e">
-        <f t="shared" si="25"/>
+      <c r="M90" s="2" t="e">
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/convert c# to typescript - lower case.xlsx
+++ b/convert c# to typescript - lower case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://audacia-my.sharepoint.com/personal/tim_hilton_audacia_co_uk/Documents/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07BDB4D7-BBB6-470E-9FE8-A54948E4EC5C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2C27D8-ED40-44C8-8DDE-C2424F98DD04}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -3862,40 +3862,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>tonnage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
+    <t>C# nullable type</t>
   </si>
   <si>
     <r>
-      <t>tradingPartnerId</t>
+      <t>Username</t>
     </r>
     <r>
       <rPr>
@@ -3913,7 +3884,25 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>number</t>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
     </r>
     <r>
       <rPr>
@@ -3927,16 +3916,16 @@
   </si>
   <si>
     <r>
-      <t>commodityTypeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -3945,7 +3934,25 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>number</t>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
     </r>
     <r>
       <rPr>
@@ -3959,16 +3966,16 @@
   </si>
   <si>
     <r>
-      <t>grainUsageProfileId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
+      <t>Host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -3977,7 +3984,25 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>number</t>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
     </r>
     <r>
       <rPr>
@@ -3991,16 +4016,16 @@
   </si>
   <si>
     <r>
-      <t>storeAddressId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
+      <t>Port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -4009,7 +4034,25 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>number</t>
+      <t xml:space="preserve">number </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
     </r>
     <r>
       <rPr>
@@ -4023,25 +4066,43 @@
   </si>
   <si>
     <r>
-      <t>tradingPeriodSelection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFC191FF"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>TradingPeriodSelection</t>
+      <t>EnableSsl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
     </r>
     <r>
       <rPr>
@@ -4055,45 +4116,163 @@
   </si>
   <si>
     <r>
-      <t>tradingPeriods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFC191FF"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>[];</t>
+      <t>From</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
     </r>
   </si>
   <si>
-    <t>C# nullable type</t>
+    <r>
+      <t>FromDisplayName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UseCredentials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6C95EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Type onwards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4164,12 +4343,6 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF39CC8F"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFC191FF"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -9774,10 +9947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810504A8-ACB8-4A50-87CA-E2EE7FA1209C}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9787,15 +9960,15 @@
     <col min="3" max="3" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.21875" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="22.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -9815,46 +9988,49 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B2">
         <f>LEN(A2)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <f>FIND(":", A2)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D2" t="str">
         <f>LEFT(A2,C2-1)</f>
-        <v>tradingPartnerId</v>
+        <v>Username</v>
       </c>
       <c r="E2" t="str">
         <f>SUBSTITUTE(UPPER(LEFT(D2,1))&amp;RIGHT(D2, LEN(D2)-1),"?","")</f>
-        <v>TradingPartnerId</v>
+        <v>Username</v>
       </c>
       <c r="F2" t="b">
         <f>ISNUMBER(SEARCH("~?",D2))</f>
@@ -9862,4448 +10038,4807 @@
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(RIGHT(A2,B2-C2-1),";","")</f>
-        <v>number</v>
-      </c>
-      <c r="H2" t="b">
+        <v>string = null</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(FIND("=",G2) &gt; -1, TRIM(LEFT(G2, FIND("=", G2) - 1)), G2)</f>
+        <v>string</v>
+      </c>
+      <c r="I2" t="b">
         <f>ISNUMBER(SEARCH("[]",G2))</f>
         <v>0</v>
       </c>
-      <c r="I2" t="str">
-        <f>IF(H2,LEFT(G2,LEN(G2)-2),G2)</f>
-        <v>number</v>
-      </c>
       <c r="J2" t="str">
-        <f>IFERROR(VLOOKUP(I2,Types!$F$3:$G$7,2,FALSE),I2)</f>
-        <v>int</v>
+        <f>IF(I2,LEFT(H2,LEN(H2)-2),H2)</f>
+        <v>string</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(F2,J2&amp;"?",J2)</f>
-        <v>int</v>
+        <f>IFERROR(VLOOKUP(J2,Types!$F$3:$G$7,2,FALSE),J2)</f>
+        <v>string</v>
       </c>
       <c r="L2" t="str">
-        <f>IF(H2,"List&lt;"&amp;K2&amp;"&gt;",K2)</f>
-        <v>int</v>
-      </c>
-      <c r="M2" s="2" t="str">
-        <f>"public "&amp;L2&amp;" "&amp;E2&amp;" { get; set; }"</f>
-        <v>public int TradingPartnerId { get; set; }</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <f>IF(F2,K2&amp;"?",K2)</f>
+        <v>string</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(I2,"List&lt;"&amp;L2&amp;"&gt;",L2)</f>
+        <v>string</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>"public "&amp;M2&amp;" "&amp;E2&amp;" { get; set; }"</f>
+        <v>public string Username { get; set; }</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B4" si="0">LEN(A3)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C4" si="1">FIND(":", A3)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" si="2">LEFT(A3,C3-1)</f>
-        <v>commodityTypeId?</v>
+        <v>Password</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="3">SUBSTITUTE(UPPER(LEFT(D3,1))&amp;RIGHT(D3, LEN(D3)-1),"?","")</f>
-        <v>CommodityTypeId</v>
+        <v>Password</v>
       </c>
       <c r="F3" t="b">
         <f t="shared" ref="F3:F66" si="4">ISNUMBER(SEARCH("~?",D3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G4" si="5">SUBSTITUTE(RIGHT(A3,B3-C3-1),";","")</f>
-        <v>number</v>
-      </c>
-      <c r="H3" t="b">
-        <f t="shared" ref="H3:H4" si="6">ISNUMBER(SEARCH("[]",G3))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="str">
-        <f>IF(H3,LEFT(G3,LEN(G3)-2),G3)</f>
-        <v>number</v>
+        <v>string = null</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="6">IF(FIND("=",G3) &gt; -1, TRIM(LEFT(G3, FIND("=", G3) - 1)), G3)</f>
+        <v>string</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I4" si="7">ISNUMBER(SEARCH("[]",G3))</f>
+        <v>0</v>
       </c>
       <c r="J3" t="str">
-        <f>IFERROR(VLOOKUP(I3,Types!$F$3:$G$7,2,FALSE),I3)</f>
-        <v>int</v>
+        <f t="shared" ref="J3:J66" si="8">IF(I3,LEFT(H3,LEN(H3)-2),H3)</f>
+        <v>string</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="7">IF(F3,J3&amp;"?",J3)</f>
-        <v>int?</v>
+        <f>IFERROR(VLOOKUP(J3,Types!$F$3:$G$7,2,FALSE),J3)</f>
+        <v>string</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="8">IF(H3,"List&lt;"&amp;K3&amp;"&gt;",K3)</f>
-        <v>int?</v>
-      </c>
-      <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M4" si="9">"public "&amp;L3&amp;" "&amp;E3&amp;" { get; set; }"</f>
-        <v>public int? CommodityTypeId { get; set; }</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <f t="shared" ref="L3:L66" si="9">IF(F3,K3&amp;"?",K3)</f>
+        <v>string</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="10">IF(I3,"List&lt;"&amp;L3&amp;"&gt;",L3)</f>
+        <v>string</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N4" si="11">"public "&amp;M3&amp;" "&amp;E3&amp;" { get; set; }"</f>
+        <v>public string Password { get; set; }</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>grainUsageProfileId?</v>
+        <v>Host</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
-        <v>GrainUsageProfileId</v>
+        <v>Host</v>
       </c>
       <c r="F4" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="5"/>
-        <v>number</v>
-      </c>
-      <c r="H4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I4" t="str">
-        <f>IF(H4,LEFT(G4,LEN(G4)-2),G4)</f>
-        <v>number</v>
+        <v>string = null</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J4" t="str">
-        <f>IFERROR(VLOOKUP(I4,Types!$F$3:$G$7,2,FALSE),I4)</f>
-        <v>int</v>
+        <f t="shared" si="8"/>
+        <v>string</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="7"/>
-        <v>int?</v>
+        <f>IFERROR(VLOOKUP(J4,Types!$F$3:$G$7,2,FALSE),J4)</f>
+        <v>string</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="8"/>
-        <v>int?</v>
-      </c>
-      <c r="M4" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>public int? GrainUsageProfileId { get; set; }</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>string</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="10"/>
+        <v>string</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>public string Host { get; set; }</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B68" si="10">LEN(A5)</f>
-        <v>24</v>
+        <f t="shared" ref="B5:B68" si="12">LEN(A5)</f>
+        <v>20</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C68" si="11">FIND(":", A5)</f>
-        <v>16</v>
+        <f t="shared" ref="C5:C68" si="13">FIND(":", A5)</f>
+        <v>5</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D68" si="12">LEFT(A5,C5-1)</f>
-        <v>storeAddressId?</v>
+        <f t="shared" ref="D5:D68" si="14">LEFT(A5,C5-1)</f>
+        <v>Port</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="3"/>
-        <v>StoreAddressId</v>
+        <v>Port</v>
       </c>
       <c r="F5" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G68" si="13">SUBSTITUTE(RIGHT(A5,B5-C5-1),";","")</f>
+        <f t="shared" ref="G5:G68" si="15">SUBSTITUTE(RIGHT(A5,B5-C5-1),";","")</f>
+        <v>number = null</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="H5" t="b">
-        <f t="shared" ref="H5:H68" si="14">ISNUMBER(SEARCH("[]",G5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5:I68" si="15">IF(H5,LEFT(G5,LEN(G5)-2),G5)</f>
+      <c r="I5" t="b">
+        <f t="shared" ref="I5:I68" si="16">ISNUMBER(SEARCH("[]",G5))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="8"/>
         <v>number</v>
       </c>
-      <c r="J5" t="str">
-        <f>IFERROR(VLOOKUP(I5,Types!$F$3:$G$7,2,FALSE),I5)</f>
+      <c r="K5" t="str">
+        <f>IFERROR(VLOOKUP(J5,Types!$F$3:$G$7,2,FALSE),J5)</f>
         <v>int</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="7"/>
-        <v>int?</v>
-      </c>
       <c r="L5" t="str">
-        <f t="shared" si="8"/>
-        <v>int?</v>
-      </c>
-      <c r="M5" s="2" t="str">
-        <f t="shared" ref="M5:M68" si="16">"public "&amp;L5&amp;" "&amp;E5&amp;" { get; set; }"</f>
-        <v>public int? StoreAddressId { get; set; }</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <f t="shared" si="9"/>
+        <v>int</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="10"/>
+        <v>int</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" ref="N5:N68" si="17">"public "&amp;M5&amp;" "&amp;E5&amp;" { get; set; }"</f>
+        <v>public int Port { get; set; }</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B6">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="14"/>
+        <v>EnableSsl</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>EnableSsl</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="15"/>
+        <v>boolean = null</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="6"/>
+        <v>boolean</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="8"/>
+        <v>boolean</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IFERROR(VLOOKUP(J6,Types!$F$3:$G$7,2,FALSE),J6)</f>
+        <v>bool</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="9"/>
+        <v>bool</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="12"/>
-        <v>tradingPeriodSelection?</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>TradingPeriodSelection</v>
-      </c>
-      <c r="F6" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="13"/>
-        <v>TradingPeriodSelection</v>
-      </c>
-      <c r="H6" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="15"/>
-        <v>TradingPeriodSelection</v>
-      </c>
-      <c r="J6" t="str">
-        <f>IFERROR(VLOOKUP(I6,Types!$F$3:$G$7,2,FALSE),I6)</f>
-        <v>TradingPeriodSelection</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="7"/>
-        <v>TradingPeriodSelection?</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="8"/>
-        <v>TradingPeriodSelection?</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>public TradingPeriodSelection? TradingPeriodSelection { get; set; }</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>bool</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>public bool EnableSsl { get; set; }</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B7">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="14"/>
+        <v>From</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>From</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="15"/>
+        <v>string = null</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="8"/>
+        <v>string</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IFERROR(VLOOKUP(J7,Types!$F$3:$G$7,2,FALSE),J7)</f>
+        <v>string</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="9"/>
+        <v>string</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="11"/>
+        <v>string</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>public string From { get; set; }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D8" t="str">
+        <f t="shared" si="14"/>
+        <v>FromDisplayName</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>FromDisplayName</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="15"/>
+        <v>string = null</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="8"/>
+        <v>string</v>
+      </c>
+      <c r="K8" t="str">
+        <f>IFERROR(VLOOKUP(J8,Types!$F$3:$G$7,2,FALSE),J8)</f>
+        <v>string</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="9"/>
+        <v>string</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="10"/>
+        <v>string</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>public string FromDisplayName { get; set; }</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="12"/>
-        <v>tradingPeriods?</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>TradingPeriods</v>
-      </c>
-      <c r="F7" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
+        <v>31</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="13"/>
-        <v>Date[]</v>
-      </c>
-      <c r="H7" t="b">
+        <v>15</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I7" t="str">
+        <v>UseCredentials</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>UseCredentials</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="15"/>
-        <v>Date</v>
-      </c>
-      <c r="J7" t="str">
-        <f>IFERROR(VLOOKUP(I7,Types!$F$3:$G$7,2,FALSE),I7)</f>
-        <v>DateTime</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="7"/>
-        <v>DateTime?</v>
-      </c>
-      <c r="L7" t="str">
+        <v>boolean = null</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="6"/>
+        <v>boolean</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="8"/>
-        <v>List&lt;DateTime?&gt;</v>
-      </c>
-      <c r="M7" s="2" t="str">
+        <v>boolean</v>
+      </c>
+      <c r="K9" t="str">
+        <f>IFERROR(VLOOKUP(J9,Types!$F$3:$G$7,2,FALSE),J9)</f>
+        <v>bool</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="9"/>
+        <v>bool</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="10"/>
+        <v>bool</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>public bool UseCredentials { get; set; }</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" t="b">
         <f t="shared" si="16"/>
-        <v>public List&lt;DateTime?&gt; TradingPeriods { get; set; }</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" t="e">
+        <f>IFERROR(VLOOKUP(J10,Types!$F$3:$G$7,2,FALSE),J10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" t="e">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="D8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11">
         <f t="shared" si="12"/>
-        <v>tonnage</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="3"/>
-        <v>Tonnage</v>
-      </c>
-      <c r="F8" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" t="e">
         <f t="shared" si="13"/>
-        <v>number</v>
-      </c>
-      <c r="H8" t="b">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="e">
         <f t="shared" si="15"/>
-        <v>number</v>
-      </c>
-      <c r="J8" t="str">
-        <f>IFERROR(VLOOKUP(I8,Types!$F$3:$G$7,2,FALSE),I8)</f>
-        <v>int</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="7"/>
-        <v>int</v>
-      </c>
-      <c r="L8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="e">
         <f t="shared" si="8"/>
-        <v>int</v>
-      </c>
-      <c r="M8" s="2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" t="e">
+        <f>IFERROR(VLOOKUP(J11,Types!$F$3:$G$7,2,FALSE),J11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" t="b">
         <f t="shared" si="16"/>
-        <v>public int Tonnage { get; set; }</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" t="e">
+        <f>IFERROR(VLOOKUP(J12,Types!$F$3:$G$7,2,FALSE),J12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C9" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N12" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="e">
+        <v>0</v>
+      </c>
+      <c r="C13" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" t="b">
+      <c r="D13" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J9" t="e">
-        <f>IFERROR(VLOOKUP(I9,Types!$F$3:$G$7,2,FALSE),I9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" t="e">
+      <c r="H13" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="2" t="e">
+      <c r="K13" t="e">
+        <f>IFERROR(VLOOKUP(J13,Types!$F$3:$G$7,2,FALSE),J13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L13" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N13" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" t="e">
+        <f>IFERROR(VLOOKUP(J14,Types!$F$3:$G$7,2,FALSE),J14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C10" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N14" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="e">
+        <v>0</v>
+      </c>
+      <c r="C15" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" t="b">
+      <c r="D15" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J10" t="e">
-        <f>IFERROR(VLOOKUP(I10,Types!$F$3:$G$7,2,FALSE),I10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" t="e">
+      <c r="H15" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="2" t="e">
+      <c r="K15" t="e">
+        <f>IFERROR(VLOOKUP(J15,Types!$F$3:$G$7,2,FALSE),J15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N15" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" t="e">
+        <f>IFERROR(VLOOKUP(J16,Types!$F$3:$G$7,2,FALSE),J16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C11" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N16" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G11" t="e">
+        <v>0</v>
+      </c>
+      <c r="C17" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H11" t="b">
+      <c r="D17" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" t="e">
-        <f>IFERROR(VLOOKUP(I11,Types!$F$3:$G$7,2,FALSE),I11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+      <c r="H17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="2" t="e">
+      <c r="K17" t="e">
+        <f>IFERROR(VLOOKUP(J17,Types!$F$3:$G$7,2,FALSE),J17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N17" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" t="e">
+        <f>IFERROR(VLOOKUP(J18,Types!$F$3:$G$7,2,FALSE),J18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C12" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N18" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G12" t="e">
+        <v>0</v>
+      </c>
+      <c r="C19" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H12" t="b">
+      <c r="D19" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" t="e">
-        <f>IFERROR(VLOOKUP(I12,Types!$F$3:$G$7,2,FALSE),I12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" t="e">
+      <c r="H19" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="2" t="e">
+      <c r="K19" t="e">
+        <f>IFERROR(VLOOKUP(J19,Types!$F$3:$G$7,2,FALSE),J19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L19" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" t="e">
+        <f>IFERROR(VLOOKUP(J20,Types!$F$3:$G$7,2,FALSE),J20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C13" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N20" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13" t="e">
+        <v>0</v>
+      </c>
+      <c r="C21" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" t="b">
+      <c r="D21" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J13" t="e">
-        <f>IFERROR(VLOOKUP(I13,Types!$F$3:$G$7,2,FALSE),I13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" t="e">
+      <c r="H21" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="2" t="e">
+      <c r="K21" t="e">
+        <f>IFERROR(VLOOKUP(J21,Types!$F$3:$G$7,2,FALSE),J21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N21" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="J22" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" t="e">
+        <f>IFERROR(VLOOKUP(J22,Types!$F$3:$G$7,2,FALSE),J22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C14" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N22" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="e">
+        <v>0</v>
+      </c>
+      <c r="C23" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" t="b">
+      <c r="D23" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J14" t="e">
-        <f>IFERROR(VLOOKUP(I14,Types!$F$3:$G$7,2,FALSE),I14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" t="e">
+      <c r="H23" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="2" t="e">
+      <c r="K23" t="e">
+        <f>IFERROR(VLOOKUP(J23,Types!$F$3:$G$7,2,FALSE),J23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="J24" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" t="e">
+        <f>IFERROR(VLOOKUP(J24,Types!$F$3:$G$7,2,FALSE),J24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C15" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G15" t="e">
+        <v>0</v>
+      </c>
+      <c r="C25" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" t="b">
+      <c r="D25" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J15" t="e">
-        <f>IFERROR(VLOOKUP(I15,Types!$F$3:$G$7,2,FALSE),I15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" t="e">
+      <c r="H25" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="2" t="e">
+      <c r="K25" t="e">
+        <f>IFERROR(VLOOKUP(J25,Types!$F$3:$G$7,2,FALSE),J25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N25" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="J26" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" t="e">
+        <f>IFERROR(VLOOKUP(J26,Types!$F$3:$G$7,2,FALSE),J26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C16" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" t="e">
+        <v>0</v>
+      </c>
+      <c r="C27" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H16" t="b">
+      <c r="D27" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" t="e">
-        <f>IFERROR(VLOOKUP(I16,Types!$F$3:$G$7,2,FALSE),I16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" t="e">
+      <c r="H27" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="2" t="e">
+      <c r="K27" t="e">
+        <f>IFERROR(VLOOKUP(J27,Types!$F$3:$G$7,2,FALSE),J27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="J28" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" t="e">
+        <f>IFERROR(VLOOKUP(J28,Types!$F$3:$G$7,2,FALSE),J28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C17" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="e">
+        <v>0</v>
+      </c>
+      <c r="C29" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" t="b">
+      <c r="D29" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" t="e">
-        <f>IFERROR(VLOOKUP(I17,Types!$F$3:$G$7,2,FALSE),I17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L17" t="e">
+      <c r="H29" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="2" t="e">
+      <c r="K29" t="e">
+        <f>IFERROR(VLOOKUP(J29,Types!$F$3:$G$7,2,FALSE),J29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="J30" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" t="e">
+        <f>IFERROR(VLOOKUP(J30,Types!$F$3:$G$7,2,FALSE),J30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C18" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18" t="e">
+        <v>0</v>
+      </c>
+      <c r="C31" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" t="b">
+      <c r="D31" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J18" t="e">
-        <f>IFERROR(VLOOKUP(I18,Types!$F$3:$G$7,2,FALSE),I18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" t="e">
+      <c r="H31" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="2" t="e">
+      <c r="K31" t="e">
+        <f>IFERROR(VLOOKUP(J31,Types!$F$3:$G$7,2,FALSE),J31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" t="e">
+        <f>IFERROR(VLOOKUP(J32,Types!$F$3:$G$7,2,FALSE),J32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C19" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G19" t="e">
+        <v>0</v>
+      </c>
+      <c r="C33" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" t="b">
+      <c r="D33" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J19" t="e">
-        <f>IFERROR(VLOOKUP(I19,Types!$F$3:$G$7,2,FALSE),I19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" t="e">
+      <c r="H33" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="2" t="e">
+      <c r="K33" t="e">
+        <f>IFERROR(VLOOKUP(J33,Types!$F$3:$G$7,2,FALSE),J33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="J34" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" t="e">
+        <f>IFERROR(VLOOKUP(J34,Types!$F$3:$G$7,2,FALSE),J34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L34" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C20" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N34" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G20" t="e">
+        <v>0</v>
+      </c>
+      <c r="C35" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" t="b">
+      <c r="D35" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J20" t="e">
-        <f>IFERROR(VLOOKUP(I20,Types!$F$3:$G$7,2,FALSE),I20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" t="e">
+      <c r="H35" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="2" t="e">
+      <c r="K35" t="e">
+        <f>IFERROR(VLOOKUP(J35,Types!$F$3:$G$7,2,FALSE),J35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M35" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N35" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" t="e">
+        <f>IFERROR(VLOOKUP(J36,Types!$F$3:$G$7,2,FALSE),J36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L36" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C21" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G21" t="e">
+        <v>0</v>
+      </c>
+      <c r="C37" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" t="b">
+      <c r="D37" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J21" t="e">
-        <f>IFERROR(VLOOKUP(I21,Types!$F$3:$G$7,2,FALSE),I21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" t="e">
+      <c r="H37" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="2" t="e">
+      <c r="K37" t="e">
+        <f>IFERROR(VLOOKUP(J37,Types!$F$3:$G$7,2,FALSE),J37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L37" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M37" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N37" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="J38" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" t="e">
+        <f>IFERROR(VLOOKUP(J38,Types!$F$3:$G$7,2,FALSE),J38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L38" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C22" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N38" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G22" t="e">
+        <v>0</v>
+      </c>
+      <c r="C39" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H22" t="b">
+      <c r="D39" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J22" t="e">
-        <f>IFERROR(VLOOKUP(I22,Types!$F$3:$G$7,2,FALSE),I22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" t="e">
+      <c r="H39" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="2" t="e">
+      <c r="K39" t="e">
+        <f>IFERROR(VLOOKUP(J39,Types!$F$3:$G$7,2,FALSE),J39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L39" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N39" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I40" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="J40" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" t="e">
+        <f>IFERROR(VLOOKUP(J40,Types!$F$3:$G$7,2,FALSE),J40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L40" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M40" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C23" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N40" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="e">
+        <v>0</v>
+      </c>
+      <c r="C41" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" t="b">
+      <c r="D41" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" t="e">
-        <f>IFERROR(VLOOKUP(I23,Types!$F$3:$G$7,2,FALSE),I23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L23" t="e">
+      <c r="H41" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="2" t="e">
+      <c r="K41" t="e">
+        <f>IFERROR(VLOOKUP(J41,Types!$F$3:$G$7,2,FALSE),J41)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L41" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M41" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N41" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C42" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H42" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="J42" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" t="e">
+        <f>IFERROR(VLOOKUP(J42,Types!$F$3:$G$7,2,FALSE),J42)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L42" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M42" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C24" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N42" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24" t="e">
+        <v>0</v>
+      </c>
+      <c r="C43" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H24" t="b">
+      <c r="D43" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I24" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" t="e">
-        <f>IFERROR(VLOOKUP(I24,Types!$F$3:$G$7,2,FALSE),I24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" t="e">
+      <c r="H43" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="2" t="e">
+      <c r="K43" t="e">
+        <f>IFERROR(VLOOKUP(J43,Types!$F$3:$G$7,2,FALSE),J43)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L43" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M43" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N43" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C44" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E44" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="J44" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" t="e">
+        <f>IFERROR(VLOOKUP(J44,Types!$F$3:$G$7,2,FALSE),J44)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L44" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C25" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N44" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G25" t="e">
+        <v>0</v>
+      </c>
+      <c r="C45" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" t="b">
+      <c r="D45" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I25" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" t="e">
-        <f>IFERROR(VLOOKUP(I25,Types!$F$3:$G$7,2,FALSE),I25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L25" t="e">
+      <c r="H45" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="2" t="e">
+      <c r="K45" t="e">
+        <f>IFERROR(VLOOKUP(J45,Types!$F$3:$G$7,2,FALSE),J45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L45" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N45" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C46" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E46" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="J46" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" t="e">
+        <f>IFERROR(VLOOKUP(J46,Types!$F$3:$G$7,2,FALSE),J46)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L46" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C26" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N46" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26" t="e">
+        <v>0</v>
+      </c>
+      <c r="C47" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H26" t="b">
+      <c r="D47" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I26" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" t="e">
-        <f>IFERROR(VLOOKUP(I26,Types!$F$3:$G$7,2,FALSE),I26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L26" t="e">
+      <c r="H47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="2" t="e">
+      <c r="K47" t="e">
+        <f>IFERROR(VLOOKUP(J47,Types!$F$3:$G$7,2,FALSE),J47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L47" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N47" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="J48" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" t="e">
+        <f>IFERROR(VLOOKUP(J48,Types!$F$3:$G$7,2,FALSE),J48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L48" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C27" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N48" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="e">
+        <v>0</v>
+      </c>
+      <c r="C49" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" t="b">
+      <c r="D49" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I27" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" t="e">
-        <f>IFERROR(VLOOKUP(I27,Types!$F$3:$G$7,2,FALSE),I27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L27" t="e">
+      <c r="H49" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="2" t="e">
+      <c r="K49" t="e">
+        <f>IFERROR(VLOOKUP(J49,Types!$F$3:$G$7,2,FALSE),J49)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M49" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N49" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="J50" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" t="e">
+        <f>IFERROR(VLOOKUP(J50,Types!$F$3:$G$7,2,FALSE),J50)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M50" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C28" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N50" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G28" t="e">
+        <v>0</v>
+      </c>
+      <c r="C51" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H28" t="b">
+      <c r="D51" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" t="e">
-        <f>IFERROR(VLOOKUP(I28,Types!$F$3:$G$7,2,FALSE),I28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" t="e">
+      <c r="H51" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="2" t="e">
+      <c r="K51" t="e">
+        <f>IFERROR(VLOOKUP(J51,Types!$F$3:$G$7,2,FALSE),J51)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L51" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N51" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C52" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="J52" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" t="e">
+        <f>IFERROR(VLOOKUP(J52,Types!$F$3:$G$7,2,FALSE),J52)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L52" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C29" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N52" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G29" t="e">
+        <v>0</v>
+      </c>
+      <c r="C53" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" t="b">
+      <c r="D53" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I29" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G53" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" t="e">
-        <f>IFERROR(VLOOKUP(I29,Types!$F$3:$G$7,2,FALSE),I29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" t="e">
+      <c r="H53" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="2" t="e">
+      <c r="K53" t="e">
+        <f>IFERROR(VLOOKUP(J53,Types!$F$3:$G$7,2,FALSE),J53)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L53" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M53" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N53" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C54" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E54" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H54" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="J54" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" t="e">
+        <f>IFERROR(VLOOKUP(J54,Types!$F$3:$G$7,2,FALSE),J54)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L54" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M54" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C30" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N54" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30" t="e">
+        <v>0</v>
+      </c>
+      <c r="C55" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H30" t="b">
+      <c r="D55" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I30" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E55" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" t="e">
-        <f>IFERROR(VLOOKUP(I30,Types!$F$3:$G$7,2,FALSE),I30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" t="e">
+      <c r="H55" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="2" t="e">
+      <c r="K55" t="e">
+        <f>IFERROR(VLOOKUP(J55,Types!$F$3:$G$7,2,FALSE),J55)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L55" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M55" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N55" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C56" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E56" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I56" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="J56" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" t="e">
+        <f>IFERROR(VLOOKUP(J56,Types!$F$3:$G$7,2,FALSE),J56)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L56" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M56" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C31" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N56" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G31" t="e">
+        <v>0</v>
+      </c>
+      <c r="C57" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H31" t="b">
+      <c r="D57" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E57" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G57" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" t="e">
-        <f>IFERROR(VLOOKUP(I31,Types!$F$3:$G$7,2,FALSE),I31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" t="e">
+      <c r="H57" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I57" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="2" t="e">
+      <c r="K57" t="e">
+        <f>IFERROR(VLOOKUP(J57,Types!$F$3:$G$7,2,FALSE),J57)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L57" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M57" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N57" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C58" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D58" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="J58" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" t="e">
+        <f>IFERROR(VLOOKUP(J58,Types!$F$3:$G$7,2,FALSE),J58)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L58" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M58" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C32" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N58" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G32" t="e">
+        <v>0</v>
+      </c>
+      <c r="C59" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H32" t="b">
+      <c r="D59" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I32" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" t="e">
-        <f>IFERROR(VLOOKUP(I32,Types!$F$3:$G$7,2,FALSE),I32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" t="e">
+      <c r="H59" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="2" t="e">
+      <c r="K59" t="e">
+        <f>IFERROR(VLOOKUP(J59,Types!$F$3:$G$7,2,FALSE),J59)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L59" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M59" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N59" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C60" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="J60" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" t="e">
+        <f>IFERROR(VLOOKUP(J60,Types!$F$3:$G$7,2,FALSE),J60)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L60" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C33" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N60" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G33" t="e">
+        <v>0</v>
+      </c>
+      <c r="C61" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" t="b">
+      <c r="D61" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I33" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G61" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" t="e">
-        <f>IFERROR(VLOOKUP(I33,Types!$F$3:$G$7,2,FALSE),I33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L33" t="e">
+      <c r="H61" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="2" t="e">
+      <c r="K61" t="e">
+        <f>IFERROR(VLOOKUP(J61,Types!$F$3:$G$7,2,FALSE),J61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L61" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M61" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N61" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C62" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D62" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E62" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I62" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="J62" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" t="e">
+        <f>IFERROR(VLOOKUP(J62,Types!$F$3:$G$7,2,FALSE),J62)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L62" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M62" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C34" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N62" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E34" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G34" t="e">
+        <v>0</v>
+      </c>
+      <c r="C63" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H34" t="b">
+      <c r="D63" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I34" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E63" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F63" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" t="e">
-        <f>IFERROR(VLOOKUP(I34,Types!$F$3:$G$7,2,FALSE),I34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L34" t="e">
+      <c r="H63" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I63" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="2" t="e">
+      <c r="K63" t="e">
+        <f>IFERROR(VLOOKUP(J63,Types!$F$3:$G$7,2,FALSE),J63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L63" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M63" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N63" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C64" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D64" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E64" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I64" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="J64" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" t="e">
+        <f>IFERROR(VLOOKUP(J64,Types!$F$3:$G$7,2,FALSE),J64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L64" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M64" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C35" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N64" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E35" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="e">
+        <v>0</v>
+      </c>
+      <c r="C65" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H35" t="b">
+      <c r="D65" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I35" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E65" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G65" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" t="e">
-        <f>IFERROR(VLOOKUP(I35,Types!$F$3:$G$7,2,FALSE),I35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L35" t="e">
+      <c r="H65" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I65" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="2" t="e">
+      <c r="K65" t="e">
+        <f>IFERROR(VLOOKUP(J65,Types!$F$3:$G$7,2,FALSE),J65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L65" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M65" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N65" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C66" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D66" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E66" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I66" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="J66" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K66" t="e">
+        <f>IFERROR(VLOOKUP(J66,Types!$F$3:$G$7,2,FALSE),J66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L66" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M66" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C36" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N66" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="e">
+        <v>0</v>
+      </c>
+      <c r="C67" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H36" t="b">
+      <c r="D67" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I36" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E67" t="e">
+        <f t="shared" ref="E67:E90" si="18">SUBSTITUTE(UPPER(LEFT(D67,1))&amp;RIGHT(D67, LEN(D67)-1),"?","")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" t="b">
+        <f t="shared" ref="F67:F90" si="19">ISNUMBER(SEARCH("~?",D67))</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J36" t="e">
-        <f>IFERROR(VLOOKUP(I36,Types!$F$3:$G$7,2,FALSE),I36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L36" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M36" s="2" t="e">
+      <c r="H67" t="e">
+        <f t="shared" ref="H67:H90" si="20">IF(FIND("=",G67) &gt; -1, TRIM(LEFT(G67, FIND("=", G67) - 1)), G67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I67" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C37" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" t="e">
+        <v>0</v>
+      </c>
+      <c r="J67" t="e">
+        <f t="shared" ref="J67:J90" si="21">IF(I67,LEFT(H67,LEN(H67)-2),H67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" t="e">
+        <f>IFERROR(VLOOKUP(J67,Types!$F$3:$G$7,2,FALSE),J67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L67" t="e">
+        <f t="shared" ref="L67:L90" si="22">IF(F67,K67&amp;"?",K67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" t="e">
+        <f t="shared" ref="M67:M90" si="23">IF(I67,"List&lt;"&amp;L67&amp;"&gt;",L67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N67" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E37" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G37" t="e">
+        <v>0</v>
+      </c>
+      <c r="C68" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" t="b">
+      <c r="D68" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I37" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E68" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J37" t="e">
-        <f>IFERROR(VLOOKUP(I37,Types!$F$3:$G$7,2,FALSE),I37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L37" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M37" s="2" t="e">
+      <c r="H68" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I68" t="b">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C38" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E38" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G38" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H38" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I38" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J38" t="e">
-        <f>IFERROR(VLOOKUP(I38,Types!$F$3:$G$7,2,FALSE),I38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L38" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C39" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E39" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G39" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H39" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I39" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J39" t="e">
-        <f>IFERROR(VLOOKUP(I39,Types!$F$3:$G$7,2,FALSE),I39)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L39" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M39" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C40" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G40" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I40" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" t="e">
-        <f>IFERROR(VLOOKUP(I40,Types!$F$3:$G$7,2,FALSE),I40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L40" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M40" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C41" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G41" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I41" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" t="e">
-        <f>IFERROR(VLOOKUP(I41,Types!$F$3:$G$7,2,FALSE),I41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K41" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M41" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C42" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D42" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E42" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G42" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H42" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I42" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J42" t="e">
-        <f>IFERROR(VLOOKUP(I42,Types!$F$3:$G$7,2,FALSE),I42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K42" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L42" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M42" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C43" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D43" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E43" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G43" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I43" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J43" t="e">
-        <f>IFERROR(VLOOKUP(I43,Types!$F$3:$G$7,2,FALSE),I43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K43" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L43" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M43" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C44" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D44" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E44" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G44" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H44" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I44" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J44" t="e">
-        <f>IFERROR(VLOOKUP(I44,Types!$F$3:$G$7,2,FALSE),I44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K44" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L44" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M44" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C45" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D45" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E45" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F45" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G45" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H45" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I45" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J45" t="e">
-        <f>IFERROR(VLOOKUP(I45,Types!$F$3:$G$7,2,FALSE),I45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L45" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M45" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C46" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D46" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E46" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F46" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G46" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H46" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I46" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J46" t="e">
-        <f>IFERROR(VLOOKUP(I46,Types!$F$3:$G$7,2,FALSE),I46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L46" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M46" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C47" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D47" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E47" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F47" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G47" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H47" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I47" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" t="e">
-        <f>IFERROR(VLOOKUP(I47,Types!$F$3:$G$7,2,FALSE),I47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L47" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M47" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C48" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D48" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E48" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G48" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H48" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I48" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J48" t="e">
-        <f>IFERROR(VLOOKUP(I48,Types!$F$3:$G$7,2,FALSE),I48)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L48" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M48" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C49" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D49" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E49" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G49" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I49" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J49" t="e">
-        <f>IFERROR(VLOOKUP(I49,Types!$F$3:$G$7,2,FALSE),I49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L49" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M49" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C50" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G50" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I50" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" t="e">
-        <f>IFERROR(VLOOKUP(I50,Types!$F$3:$G$7,2,FALSE),I50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L50" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M50" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C51" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E51" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G51" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I51" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" t="e">
-        <f>IFERROR(VLOOKUP(I51,Types!$F$3:$G$7,2,FALSE),I51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M51" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C52" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E52" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G52" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H52" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I52" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J52" t="e">
-        <f>IFERROR(VLOOKUP(I52,Types!$F$3:$G$7,2,FALSE),I52)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M52" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C53" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G53" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I53" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J53" t="e">
-        <f>IFERROR(VLOOKUP(I53,Types!$F$3:$G$7,2,FALSE),I53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K53" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L53" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M53" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C54" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D54" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E54" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G54" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I54" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" t="e">
-        <f>IFERROR(VLOOKUP(I54,Types!$F$3:$G$7,2,FALSE),I54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L54" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M54" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C55" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D55" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E55" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G55" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H55" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I55" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J55" t="e">
-        <f>IFERROR(VLOOKUP(I55,Types!$F$3:$G$7,2,FALSE),I55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L55" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M55" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C56" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D56" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E56" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G56" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H56" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I56" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J56" t="e">
-        <f>IFERROR(VLOOKUP(I56,Types!$F$3:$G$7,2,FALSE),I56)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K56" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L56" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M56" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="B57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C57" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D57" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E57" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G57" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H57" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I57" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J57" t="e">
-        <f>IFERROR(VLOOKUP(I57,Types!$F$3:$G$7,2,FALSE),I57)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K57" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L57" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M57" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C58" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D58" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E58" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G58" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H58" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I58" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J58" t="e">
-        <f>IFERROR(VLOOKUP(I58,Types!$F$3:$G$7,2,FALSE),I58)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K58" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L58" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M58" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C59" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D59" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E59" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G59" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H59" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I59" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J59" t="e">
-        <f>IFERROR(VLOOKUP(I59,Types!$F$3:$G$7,2,FALSE),I59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K59" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L59" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M59" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C60" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D60" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G60" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I60" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J60" t="e">
-        <f>IFERROR(VLOOKUP(I60,Types!$F$3:$G$7,2,FALSE),I60)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K60" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L60" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M60" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C61" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D61" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G61" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I61" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J61" t="e">
-        <f>IFERROR(VLOOKUP(I61,Types!$F$3:$G$7,2,FALSE),I61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L61" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M61" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13">
-      <c r="B62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C62" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D62" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E62" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G62" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H62" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I62" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J62" t="e">
-        <f>IFERROR(VLOOKUP(I62,Types!$F$3:$G$7,2,FALSE),I62)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K62" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L62" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M62" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C63" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D63" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E63" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G63" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H63" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I63" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J63" t="e">
-        <f>IFERROR(VLOOKUP(I63,Types!$F$3:$G$7,2,FALSE),I63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K63" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L63" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M63" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13">
-      <c r="B64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C64" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D64" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E64" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G64" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H64" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I64" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J64" t="e">
-        <f>IFERROR(VLOOKUP(I64,Types!$F$3:$G$7,2,FALSE),I64)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K64" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L64" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M64" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13">
-      <c r="B65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C65" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D65" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E65" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G65" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H65" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I65" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J65" t="e">
-        <f>IFERROR(VLOOKUP(I65,Types!$F$3:$G$7,2,FALSE),I65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K65" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L65" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M65" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13">
-      <c r="B66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C66" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D66" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E66" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G66" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H66" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I66" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J66" t="e">
-        <f>IFERROR(VLOOKUP(I66,Types!$F$3:$G$7,2,FALSE),I66)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K66" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L66" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M66" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13">
-      <c r="B67">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C67" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D67" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E67" t="e">
-        <f t="shared" ref="E67:E90" si="17">SUBSTITUTE(UPPER(LEFT(D67,1))&amp;RIGHT(D67, LEN(D67)-1),"?","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" t="b">
-        <f t="shared" ref="F67:F90" si="18">ISNUMBER(SEARCH("~?",D67))</f>
-        <v>0</v>
-      </c>
-      <c r="G67" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H67" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I67" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J67" t="e">
-        <f>IFERROR(VLOOKUP(I67,Types!$F$3:$G$7,2,FALSE),I67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K67" t="e">
-        <f t="shared" ref="K67:K90" si="19">IF(F67,J67&amp;"?",J67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L67" t="e">
-        <f t="shared" ref="L67:L90" si="20">IF(H67,"List&lt;"&amp;K67&amp;"&gt;",K67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M67" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13">
-      <c r="B68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C68" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D68" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E68" t="e">
+        <v>0</v>
+      </c>
+      <c r="J68" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K68" t="e">
+        <f>IFERROR(VLOOKUP(J68,Types!$F$3:$G$7,2,FALSE),J68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L68" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M68" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N68" s="2" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F68" t="b">
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69">
+        <f t="shared" ref="B69:B90" si="24">LEN(A69)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" t="e">
+        <f t="shared" ref="C69:C90" si="25">FIND(":", A69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D69" t="e">
+        <f t="shared" ref="D69:D90" si="26">LEFT(A69,C69-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E69" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G68" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H68" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I68" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J68" t="e">
-        <f>IFERROR(VLOOKUP(I68,Types!$F$3:$G$7,2,FALSE),I68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K68" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L68" t="e">
+        <v>0</v>
+      </c>
+      <c r="G69" t="e">
+        <f t="shared" ref="G69:G90" si="27">SUBSTITUTE(RIGHT(A69,B69-C69-1),";","")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M68" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13">
-      <c r="B69">
-        <f t="shared" ref="B69:B90" si="21">LEN(A69)</f>
-        <v>0</v>
-      </c>
-      <c r="C69" t="e">
-        <f t="shared" ref="C69:C90" si="22">FIND(":", A69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D69" t="e">
-        <f t="shared" ref="D69:D90" si="23">LEFT(A69,C69-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E69" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F69" t="b">
+      <c r="I69" t="b">
+        <f t="shared" ref="I69:I90" si="28">ISNUMBER(SEARCH("[]",G69))</f>
+        <v>0</v>
+      </c>
+      <c r="J69" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K69" t="e">
+        <f>IFERROR(VLOOKUP(J69,Types!$F$3:$G$7,2,FALSE),J69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L69" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M69" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N69" s="2" t="e">
+        <f t="shared" ref="N69:N90" si="29">"public "&amp;M69&amp;" "&amp;E69&amp;" { get; set; }"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C70" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D70" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G69" t="e">
-        <f t="shared" ref="G69:G90" si="24">SUBSTITUTE(RIGHT(A69,B69-C69-1),";","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H69" t="b">
-        <f t="shared" ref="H69:H90" si="25">ISNUMBER(SEARCH("[]",G69))</f>
-        <v>0</v>
-      </c>
-      <c r="I69" t="e">
-        <f t="shared" ref="I69:I90" si="26">IF(H69,LEFT(G69,LEN(G69)-2),G69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J69" t="e">
-        <f>IFERROR(VLOOKUP(I69,Types!$F$3:$G$7,2,FALSE),I69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K69" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L69" t="e">
+        <v>0</v>
+      </c>
+      <c r="G70" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M69" s="2" t="e">
-        <f t="shared" ref="M69:M90" si="27">"public "&amp;L69&amp;" "&amp;E69&amp;" { get; set; }"</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13">
-      <c r="B70">
+      <c r="I70" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K70" t="e">
+        <f>IFERROR(VLOOKUP(J70,Types!$F$3:$G$7,2,FALSE),J70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L70" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D70" t="e">
+      <c r="M70" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E70" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F70" t="b">
+      <c r="N70" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C71" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D71" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E71" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I71" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K71" t="e">
+        <f>IFERROR(VLOOKUP(J71,Types!$F$3:$G$7,2,FALSE),J71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L71" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M71" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N71" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D72" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J70" t="e">
-        <f>IFERROR(VLOOKUP(I70,Types!$F$3:$G$7,2,FALSE),I70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K70" t="e">
+      <c r="E72" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L70" t="e">
+        <v>0</v>
+      </c>
+      <c r="G72" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M70" s="2" t="e">
+      <c r="I72" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K72" t="e">
+        <f>IFERROR(VLOOKUP(J72,Types!$F$3:$G$7,2,FALSE),J72)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L72" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M72" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N72" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C73" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D73" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E73" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G73" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="71" spans="2:13">
-      <c r="B71">
+      <c r="H73" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I73" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K73" t="e">
+        <f>IFERROR(VLOOKUP(J73,Types!$F$3:$G$7,2,FALSE),J73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L73" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D71" t="e">
+      <c r="M73" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E71" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F71" t="b">
+      <c r="N73" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C74" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D74" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E74" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G74" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I74" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K74" t="e">
+        <f>IFERROR(VLOOKUP(J74,Types!$F$3:$G$7,2,FALSE),J74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L74" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M74" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N74" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D75" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J71" t="e">
-        <f>IFERROR(VLOOKUP(I71,Types!$F$3:$G$7,2,FALSE),I71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K71" t="e">
+      <c r="E75" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L71" t="e">
+        <v>0</v>
+      </c>
+      <c r="G75" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M71" s="2" t="e">
+      <c r="I75" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K75" t="e">
+        <f>IFERROR(VLOOKUP(J75,Types!$F$3:$G$7,2,FALSE),J75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L75" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M75" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N75" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C76" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D76" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E76" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="72" spans="2:13">
-      <c r="B72">
+      <c r="H76" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I76" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K76" t="e">
+        <f>IFERROR(VLOOKUP(J76,Types!$F$3:$G$7,2,FALSE),J76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L76" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D72" t="e">
+      <c r="M76" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E72" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F72" t="b">
+      <c r="N76" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C77" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D77" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E77" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G77" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I77" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K77" t="e">
+        <f>IFERROR(VLOOKUP(J77,Types!$F$3:$G$7,2,FALSE),J77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L77" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M77" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N77" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D78" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J72" t="e">
-        <f>IFERROR(VLOOKUP(I72,Types!$F$3:$G$7,2,FALSE),I72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K72" t="e">
+      <c r="E78" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L72" t="e">
+        <v>0</v>
+      </c>
+      <c r="G78" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M72" s="2" t="e">
+      <c r="I78" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K78" t="e">
+        <f>IFERROR(VLOOKUP(J78,Types!$F$3:$G$7,2,FALSE),J78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L78" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M78" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N78" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C79" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D79" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E79" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="73" spans="2:13">
-      <c r="B73">
+      <c r="H79" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I79" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K79" t="e">
+        <f>IFERROR(VLOOKUP(J79,Types!$F$3:$G$7,2,FALSE),J79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L79" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D73" t="e">
+      <c r="M79" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E73" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F73" t="b">
+      <c r="N79" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C80" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D80" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E80" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G80" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I80" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K80" t="e">
+        <f>IFERROR(VLOOKUP(J80,Types!$F$3:$G$7,2,FALSE),J80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L80" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M80" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N80" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D81" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J73" t="e">
-        <f>IFERROR(VLOOKUP(I73,Types!$F$3:$G$7,2,FALSE),I73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K73" t="e">
+      <c r="E81" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L73" t="e">
+        <v>0</v>
+      </c>
+      <c r="G81" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H81" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M73" s="2" t="e">
+      <c r="I81" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K81" t="e">
+        <f>IFERROR(VLOOKUP(J81,Types!$F$3:$G$7,2,FALSE),J81)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L81" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M81" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N81" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C82" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D82" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E82" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G82" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="74" spans="2:13">
-      <c r="B74">
+      <c r="H82" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I82" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K82" t="e">
+        <f>IFERROR(VLOOKUP(J82,Types!$F$3:$G$7,2,FALSE),J82)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L82" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D74" t="e">
+      <c r="M82" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E74" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" t="b">
+      <c r="N82" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C83" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D83" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E83" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G83" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I83" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K83" t="e">
+        <f>IFERROR(VLOOKUP(J83,Types!$F$3:$G$7,2,FALSE),J83)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L83" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M83" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N83" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D84" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J74" t="e">
-        <f>IFERROR(VLOOKUP(I74,Types!$F$3:$G$7,2,FALSE),I74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K74" t="e">
+      <c r="E84" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L74" t="e">
+        <v>0</v>
+      </c>
+      <c r="G84" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H84" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M74" s="2" t="e">
+      <c r="I84" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K84" t="e">
+        <f>IFERROR(VLOOKUP(J84,Types!$F$3:$G$7,2,FALSE),J84)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L84" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M84" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N84" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C85" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D85" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E85" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G85" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="75" spans="2:13">
-      <c r="B75">
+      <c r="H85" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I85" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K85" t="e">
+        <f>IFERROR(VLOOKUP(J85,Types!$F$3:$G$7,2,FALSE),J85)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L85" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D75" t="e">
+      <c r="M85" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E75" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F75" t="b">
+      <c r="N85" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C86" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D86" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E86" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G86" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I86" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K86" t="e">
+        <f>IFERROR(VLOOKUP(J86,Types!$F$3:$G$7,2,FALSE),J86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L86" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M86" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N86" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D87" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J75" t="e">
-        <f>IFERROR(VLOOKUP(I75,Types!$F$3:$G$7,2,FALSE),I75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K75" t="e">
+      <c r="E87" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L75" t="e">
+        <v>0</v>
+      </c>
+      <c r="G87" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H87" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M75" s="2" t="e">
+      <c r="I87" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K87" t="e">
+        <f>IFERROR(VLOOKUP(J87,Types!$F$3:$G$7,2,FALSE),J87)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L87" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M87" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N87" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C88" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D88" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E88" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G88" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="76" spans="2:13">
-      <c r="B76">
+      <c r="H88" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I88" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K88" t="e">
+        <f>IFERROR(VLOOKUP(J88,Types!$F$3:$G$7,2,FALSE),J88)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L88" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D76" t="e">
+      <c r="M88" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E76" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F76" t="b">
+      <c r="N88" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C89" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G89" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H89" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I89" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K89" t="e">
+        <f>IFERROR(VLOOKUP(J89,Types!$F$3:$G$7,2,FALSE),J89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L89" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M89" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N89" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D90" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J76" t="e">
-        <f>IFERROR(VLOOKUP(I76,Types!$F$3:$G$7,2,FALSE),I76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K76" t="e">
+      <c r="E90" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" t="b">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L76" t="e">
+        <v>0</v>
+      </c>
+      <c r="G90" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M76" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13">
-      <c r="B77">
+      <c r="I90" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="e">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C77" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K90" t="e">
+        <f>IFERROR(VLOOKUP(J90,Types!$F$3:$G$7,2,FALSE),J90)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L90" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D77" t="e">
+      <c r="M90" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E77" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G77" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H77" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I77" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J77" t="e">
-        <f>IFERROR(VLOOKUP(I77,Types!$F$3:$G$7,2,FALSE),I77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K77" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L77" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M77" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13">
-      <c r="B78">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C78" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D78" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E78" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G78" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H78" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I78" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J78" t="e">
-        <f>IFERROR(VLOOKUP(I78,Types!$F$3:$G$7,2,FALSE),I78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K78" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L78" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M78" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13">
-      <c r="B79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C79" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D79" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E79" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F79" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G79" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H79" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I79" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J79" t="e">
-        <f>IFERROR(VLOOKUP(I79,Types!$F$3:$G$7,2,FALSE),I79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K79" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L79" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M79" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13">
-      <c r="B80">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C80" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D80" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E80" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F80" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G80" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H80" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I80" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J80" t="e">
-        <f>IFERROR(VLOOKUP(I80,Types!$F$3:$G$7,2,FALSE),I80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K80" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L80" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M80" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13">
-      <c r="B81">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C81" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D81" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E81" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F81" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G81" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H81" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I81" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J81" t="e">
-        <f>IFERROR(VLOOKUP(I81,Types!$F$3:$G$7,2,FALSE),I81)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K81" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M81" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13">
-      <c r="B82">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C82" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D82" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E82" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F82" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G82" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H82" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I82" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J82" t="e">
-        <f>IFERROR(VLOOKUP(I82,Types!$F$3:$G$7,2,FALSE),I82)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K82" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L82" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M82" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13">
-      <c r="B83">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C83" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D83" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E83" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G83" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H83" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I83" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J83" t="e">
-        <f>IFERROR(VLOOKUP(I83,Types!$F$3:$G$7,2,FALSE),I83)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K83" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L83" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M83" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13">
-      <c r="B84">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C84" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D84" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E84" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G84" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H84" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I84" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J84" t="e">
-        <f>IFERROR(VLOOKUP(I84,Types!$F$3:$G$7,2,FALSE),I84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K84" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L84" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M84" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13">
-      <c r="B85">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C85" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D85" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E85" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G85" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H85" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I85" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J85" t="e">
-        <f>IFERROR(VLOOKUP(I85,Types!$F$3:$G$7,2,FALSE),I85)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K85" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L85" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M85" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13">
-      <c r="B86">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C86" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D86" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E86" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G86" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H86" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I86" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J86" t="e">
-        <f>IFERROR(VLOOKUP(I86,Types!$F$3:$G$7,2,FALSE),I86)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K86" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L86" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M86" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13">
-      <c r="B87">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C87" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D87" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E87" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G87" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H87" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I87" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J87" t="e">
-        <f>IFERROR(VLOOKUP(I87,Types!$F$3:$G$7,2,FALSE),I87)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K87" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L87" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M87" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13">
-      <c r="B88">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C88" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D88" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E88" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F88" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G88" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H88" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I88" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J88" t="e">
-        <f>IFERROR(VLOOKUP(I88,Types!$F$3:$G$7,2,FALSE),I88)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K88" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L88" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M88" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13">
-      <c r="B89">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C89" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G89" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H89" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I89" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J89" t="e">
-        <f>IFERROR(VLOOKUP(I89,Types!$F$3:$G$7,2,FALSE),I89)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K89" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L89" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M89" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13">
-      <c r="B90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C90" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D90" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E90" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F90" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G90" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H90" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I90" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J90" t="e">
-        <f>IFERROR(VLOOKUP(I90,Types!$F$3:$G$7,2,FALSE),I90)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K90" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L90" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M90" s="2" t="e">
-        <f t="shared" si="27"/>
+      <c r="N90" s="2" t="e">
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/convert c# to typescript - lower case.xlsx
+++ b/convert c# to typescript - lower case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://audacia-my.sharepoint.com/personal/tim_hilton_audacia_co_uk/Documents/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2C27D8-ED40-44C8-8DDE-C2424F98DD04}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{14342027-79ED-4EE2-88B8-121A4C891E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90ABB3B0-0DAB-46E8-A644-AD66384B3255}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C# model to ts" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -3865,8 +3865,11 @@
     <t>C# nullable type</t>
   </si>
   <si>
-    <r>
-      <t>Username</t>
+    <t>Type onwards</t>
+  </si>
+  <si>
+    <r>
+      <t>salesContractId</t>
     </r>
     <r>
       <rPr>
@@ -3884,16 +3887,30 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>salesContractNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -3902,7 +3919,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>null</t>
+      <t>string</t>
     </r>
     <r>
       <rPr>
@@ -3916,7 +3933,7 @@
   </si>
   <si>
     <r>
-      <t>Password</t>
+      <t>deliveryOrderNumber</t>
     </r>
     <r>
       <rPr>
@@ -3934,16 +3951,62 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tradingPeriod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC191FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>currentPrice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -3952,7 +4015,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>null</t>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -3966,7 +4029,7 @@
   </si>
   <si>
     <r>
-      <t>Host</t>
+      <t>proposedPrice</t>
     </r>
     <r>
       <rPr>
@@ -3984,16 +4047,30 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>createdBy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -4002,7 +4079,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>null</t>
+      <t>string</t>
     </r>
     <r>
       <rPr>
@@ -4016,7 +4093,7 @@
   </si>
   <si>
     <r>
-      <t>Port</t>
+      <t>created</t>
     </r>
     <r>
       <rPr>
@@ -4030,29 +4107,43 @@
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
+        <color rgb="FFC191FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>currency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBDBDBD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
         <color rgb="FF6C95EB"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">number </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
+      <t>string</t>
     </r>
     <r>
       <rPr>
@@ -4065,214 +4156,35 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>EnableSsl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">boolean </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>From</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FromDisplayName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UseCredentials</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">boolean </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6C95EB"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBDBDBD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>Type onwards</t>
+    <t>Username: string = null;</t>
+  </si>
+  <si>
+    <t>Password: string = null;</t>
+  </si>
+  <si>
+    <t>Host: string = null;</t>
+  </si>
+  <si>
+    <t>Port: number = null;</t>
+  </si>
+  <si>
+    <t>EnableSsl: boolean = null;</t>
+  </si>
+  <si>
+    <t>From: string = null;</t>
+  </si>
+  <si>
+    <t>FromDisplayName: string = null;</t>
+  </si>
+  <si>
+    <t>UseCredentials: boolean = null;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4355,6 +4267,12 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FFE1BFFF"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC191FF"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -9950,7 +9868,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9988,7 +9906,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>107</v>
@@ -10014,7 +9932,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2">
         <f>LEN(A2)</f>
@@ -10022,15 +9940,15 @@
       </c>
       <c r="C2">
         <f>FIND(":", A2)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="str">
         <f>LEFT(A2,C2-1)</f>
-        <v>Username</v>
+        <v>salesContractId</v>
       </c>
       <c r="E2" t="str">
         <f>SUBSTITUTE(UPPER(LEFT(D2,1))&amp;RIGHT(D2, LEN(D2)-1),"?","")</f>
-        <v>Username</v>
+        <v>SalesContractId</v>
       </c>
       <c r="F2" t="b">
         <f>ISNUMBER(SEARCH("~?",D2))</f>
@@ -10038,11 +9956,11 @@
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(RIGHT(A2,B2-C2-1),";","")</f>
-        <v>string = null</v>
+        <v>number</v>
       </c>
       <c r="H2" t="str">
-        <f>IF(FIND("=",G2) &gt; -1, TRIM(LEFT(G2, FIND("=", G2) - 1)), G2)</f>
-        <v>string</v>
+        <f>IF(ISNUMBER(SEARCH("=",G2)), TRIM(LEFT(G2, FIND("=", G2) - 1)), G2)</f>
+        <v>number</v>
       </c>
       <c r="I2" t="b">
         <f>ISNUMBER(SEARCH("[]",G2))</f>
@@ -10050,44 +9968,44 @@
       </c>
       <c r="J2" t="str">
         <f>IF(I2,LEFT(H2,LEN(H2)-2),H2)</f>
-        <v>string</v>
+        <v>number</v>
       </c>
       <c r="K2" t="str">
         <f>IFERROR(VLOOKUP(J2,Types!$F$3:$G$7,2,FALSE),J2)</f>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="L2" t="str">
         <f>IF(F2,K2&amp;"?",K2)</f>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="M2" t="str">
         <f>IF(I2,"List&lt;"&amp;L2&amp;"&gt;",L2)</f>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="N2" s="2" t="str">
         <f>"public "&amp;M2&amp;" "&amp;E2&amp;" { get; set; }"</f>
-        <v>public string Username { get; set; }</v>
+        <v>public int SalesContractId { get; set; }</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B4" si="0">LEN(A3)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C4" si="1">FIND(":", A3)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" si="2">LEFT(A3,C3-1)</f>
-        <v>Password</v>
+        <v>salesContractNumber</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="3">SUBSTITUTE(UPPER(LEFT(D3,1))&amp;RIGHT(D3, LEN(D3)-1),"?","")</f>
-        <v>Password</v>
+        <v>SalesContractNumber</v>
       </c>
       <c r="F3" t="b">
         <f t="shared" ref="F3:F66" si="4">ISNUMBER(SEARCH("~?",D3))</f>
@@ -10095,10 +10013,10 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G4" si="5">SUBSTITUTE(RIGHT(A3,B3-C3-1),";","")</f>
-        <v>string = null</v>
+        <v>string</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="6">IF(FIND("=",G3) &gt; -1, TRIM(LEFT(G3, FIND("=", G3) - 1)), G3)</f>
+        <f t="shared" ref="H3:H66" si="6">IF(ISNUMBER(SEARCH("=",G3)), TRIM(LEFT(G3, FIND("=", G3) - 1)), G3)</f>
         <v>string</v>
       </c>
       <c r="I3" t="b">
@@ -10123,28 +10041,28 @@
       </c>
       <c r="N3" s="2" t="str">
         <f t="shared" ref="N3:N4" si="11">"public "&amp;M3&amp;" "&amp;E3&amp;" { get; set; }"</f>
-        <v>public string Password { get; set; }</v>
+        <v>public string SalesContractNumber { get; set; }</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>Host</v>
+        <v>deliveryOrderNumber</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
-        <v>Host</v>
+        <v>DeliveryOrderNumber</v>
       </c>
       <c r="F4" t="b">
         <f t="shared" si="4"/>
@@ -10152,7 +10070,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="5"/>
-        <v>string = null</v>
+        <v>string</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="6"/>
@@ -10180,12 +10098,12 @@
       </c>
       <c r="N4" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>public string Host { get; set; }</v>
+        <v>public string DeliveryOrderNumber { get; set; }</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B68" si="12">LEN(A5)</f>
@@ -10193,15 +10111,15 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="13">FIND(":", A5)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D68" si="14">LEFT(A5,C5-1)</f>
-        <v>Port</v>
+        <v>tradingPeriod</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="3"/>
-        <v>Port</v>
+        <v>TradingPeriod</v>
       </c>
       <c r="F5" t="b">
         <f t="shared" si="4"/>
@@ -10209,11 +10127,11 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G68" si="15">SUBSTITUTE(RIGHT(A5,B5-C5-1),";","")</f>
-        <v>number = null</v>
+        <v>Date</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="6"/>
-        <v>number</v>
+        <v>Date</v>
       </c>
       <c r="I5" t="b">
         <f t="shared" ref="I5:I68" si="16">ISNUMBER(SEARCH("[]",G5))</f>
@@ -10221,44 +10139,44 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="8"/>
-        <v>number</v>
+        <v>Date</v>
       </c>
       <c r="K5" t="str">
         <f>IFERROR(VLOOKUP(J5,Types!$F$3:$G$7,2,FALSE),J5)</f>
-        <v>int</v>
+        <v>DateTime</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="9"/>
-        <v>int</v>
+        <v>DateTime</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="10"/>
-        <v>int</v>
+        <v>DateTime</v>
       </c>
       <c r="N5" s="2" t="str">
         <f t="shared" ref="N5:N68" si="17">"public "&amp;M5&amp;" "&amp;E5&amp;" { get; set; }"</f>
-        <v>public int Port { get; set; }</v>
+        <v>public DateTime TradingPeriod { get; set; }</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="14"/>
-        <v>EnableSsl</v>
+        <v>currentPrice</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
-        <v>EnableSsl</v>
+        <v>CurrentPrice</v>
       </c>
       <c r="F6" t="b">
         <f t="shared" si="4"/>
@@ -10266,11 +10184,11 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="15"/>
-        <v>boolean = null</v>
+        <v>number</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="6"/>
-        <v>boolean</v>
+        <v>number</v>
       </c>
       <c r="I6" t="b">
         <f t="shared" si="16"/>
@@ -10278,44 +10196,44 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="8"/>
-        <v>boolean</v>
+        <v>number</v>
       </c>
       <c r="K6" t="str">
         <f>IFERROR(VLOOKUP(J6,Types!$F$3:$G$7,2,FALSE),J6)</f>
-        <v>bool</v>
+        <v>int</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="9"/>
-        <v>bool</v>
+        <v>int</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="10"/>
-        <v>bool</v>
+        <v>int</v>
       </c>
       <c r="N6" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>public bool EnableSsl { get; set; }</v>
+        <v>public int CurrentPrice { get; set; }</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="14"/>
-        <v>From</v>
+        <v>proposedPrice</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="3"/>
-        <v>From</v>
+        <v>ProposedPrice</v>
       </c>
       <c r="F7" t="b">
         <f t="shared" si="4"/>
@@ -10323,11 +10241,11 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="15"/>
-        <v>string = null</v>
+        <v>number</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="6"/>
-        <v>string</v>
+        <v>number</v>
       </c>
       <c r="I7" t="b">
         <f t="shared" si="16"/>
@@ -10335,44 +10253,44 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="8"/>
-        <v>string</v>
+        <v>number</v>
       </c>
       <c r="K7" t="str">
         <f>IFERROR(VLOOKUP(J7,Types!$F$3:$G$7,2,FALSE),J7)</f>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="9"/>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="10"/>
-        <v>string</v>
+        <v>int</v>
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>public string From { get; set; }</v>
+        <v>public int ProposedPrice { get; set; }</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="14"/>
-        <v>FromDisplayName</v>
+        <v>createdBy</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="3"/>
-        <v>FromDisplayName</v>
+        <v>CreatedBy</v>
       </c>
       <c r="F8" t="b">
         <f t="shared" si="4"/>
@@ -10380,7 +10298,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="15"/>
-        <v>string = null</v>
+        <v>string</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="6"/>
@@ -10408,28 +10326,28 @@
       </c>
       <c r="N8" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>public string FromDisplayName { get; set; }</v>
+        <v>public string CreatedBy { get; set; }</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="14"/>
-        <v>UseCredentials</v>
+        <v>created</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="3"/>
-        <v>UseCredentials</v>
+        <v>Created</v>
       </c>
       <c r="F9" t="b">
         <f t="shared" si="4"/>
@@ -10437,11 +10355,11 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="15"/>
-        <v>boolean = null</v>
+        <v>Date</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="6"/>
-        <v>boolean</v>
+        <v>Date</v>
       </c>
       <c r="I9" t="b">
         <f t="shared" si="16"/>
@@ -10449,144 +10367,150 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="8"/>
-        <v>boolean</v>
+        <v>Date</v>
       </c>
       <c r="K9" t="str">
         <f>IFERROR(VLOOKUP(J9,Types!$F$3:$G$7,2,FALSE),J9)</f>
-        <v>bool</v>
+        <v>DateTime</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="9"/>
-        <v>bool</v>
+        <v>DateTime</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="10"/>
-        <v>bool</v>
+        <v>DateTime</v>
       </c>
       <c r="N9" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>public bool UseCredentials { get; set; }</v>
+        <v>public DateTime Created { get; set; }</v>
       </c>
     </row>
     <row r="10" spans="1:14">
+      <c r="A10" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="B10">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C10" t="e">
+        <v>17</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" t="e">
+        <v>9</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>currency</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>Currency</v>
       </c>
       <c r="F10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G10" t="e">
+      <c r="G10" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>string</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
       </c>
       <c r="I10" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J10" t="e">
+      <c r="J10" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" t="e">
+        <v>string</v>
+      </c>
+      <c r="K10" t="str">
         <f>IFERROR(VLOOKUP(J10,Types!$F$3:$G$7,2,FALSE),J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" t="e">
+        <v>string</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" t="e">
+        <v>string</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N10" s="2" t="e">
+        <v>string</v>
+      </c>
+      <c r="N10" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>public string Currency { get; set; }</v>
       </c>
     </row>
     <row r="11" spans="1:14">
+      <c r="A11" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="B11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C11" t="e">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" t="e">
+        <v>20</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>deliveryOrderNumber</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>DeliveryOrderNumber</v>
       </c>
       <c r="F11" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G11" t="e">
+      <c r="G11" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>string</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
       </c>
       <c r="I11" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J11" t="e">
+      <c r="J11" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" t="e">
+        <v>string</v>
+      </c>
+      <c r="K11" t="str">
         <f>IFERROR(VLOOKUP(J11,Types!$F$3:$G$7,2,FALSE),J11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>string</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>string</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" s="2" t="e">
+        <v>string</v>
+      </c>
+      <c r="N11" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>public string DeliveryOrderNumber { get; set; }</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="B12">
-        <f t="shared" si="12"/>
+        <f>LEN(A12)</f>
         <v>0</v>
       </c>
       <c r="C12" t="e">
-        <f t="shared" si="13"/>
+        <f>FIND(":", A12)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D12" t="e">
-        <f t="shared" si="14"/>
+        <f>LEFT(A12,C12-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E12" t="e">
@@ -10598,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="e">
-        <f t="shared" si="15"/>
+        <f>SUBSTITUTE(RIGHT(A12,B12-C12-1),";","")</f>
         <v>#VALUE!</v>
       </c>
       <c r="H12" t="e">
@@ -10631,438 +10555,462 @@
       </c>
     </row>
     <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
       <c r="B13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C13" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f>LEN(A13)</f>
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f>FIND(":", A13)</f>
+        <v>9</v>
+      </c>
+      <c r="D13" t="str">
+        <f>LEFT(A13,C13-1)</f>
+        <v>Username</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>Username</v>
       </c>
       <c r="F13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G13" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G13" t="str">
+        <f>SUBSTITUTE(RIGHT(A13,B13-C13-1),";","")</f>
+        <v>string = null</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
       </c>
       <c r="I13" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J13" t="e">
+      <c r="J13" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" t="e">
+        <v>string</v>
+      </c>
+      <c r="K13" t="str">
         <f>IFERROR(VLOOKUP(J13,Types!$F$3:$G$7,2,FALSE),J13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" t="e">
+        <v>string</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>string</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N13" s="2" t="e">
+        <v>string</v>
+      </c>
+      <c r="N13" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>public string Username { get; set; }</v>
       </c>
     </row>
     <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
       <c r="B14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C14" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f>LEN(A14)</f>
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <f>FIND(":", A14)</f>
+        <v>9</v>
+      </c>
+      <c r="D14" t="str">
+        <f>LEFT(A14,C14-1)</f>
+        <v>Password</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>Password</v>
       </c>
       <c r="F14" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G14" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G14" t="str">
+        <f>SUBSTITUTE(RIGHT(A14,B14-C14-1),";","")</f>
+        <v>string = null</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
       </c>
       <c r="I14" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J14" t="e">
+      <c r="J14" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" t="e">
+        <v>string</v>
+      </c>
+      <c r="K14" t="str">
         <f>IFERROR(VLOOKUP(J14,Types!$F$3:$G$7,2,FALSE),J14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" t="e">
+        <v>string</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>string</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N14" s="2" t="e">
+        <v>string</v>
+      </c>
+      <c r="N14" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>public string Password { get; set; }</v>
       </c>
     </row>
     <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
       <c r="B15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f>LEN(A15)</f>
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <f>FIND(":", A15)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" t="str">
+        <f>LEFT(A15,C15-1)</f>
+        <v>Host</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>Host</v>
       </c>
       <c r="F15" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G15" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G15" t="str">
+        <f>SUBSTITUTE(RIGHT(A15,B15-C15-1),";","")</f>
+        <v>string = null</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
       </c>
       <c r="I15" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J15" t="e">
+      <c r="J15" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" t="e">
+        <v>string</v>
+      </c>
+      <c r="K15" t="str">
         <f>IFERROR(VLOOKUP(J15,Types!$F$3:$G$7,2,FALSE),J15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" t="e">
+        <v>string</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" t="e">
+        <v>string</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N15" s="2" t="e">
+        <v>string</v>
+      </c>
+      <c r="N15" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>public string Host { get; set; }</v>
       </c>
     </row>
     <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
       <c r="B16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C16" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f>LEN(A16)</f>
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <f>FIND(":", A16)</f>
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f>LEFT(A16,C16-1)</f>
+        <v>Port</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>Port</v>
       </c>
       <c r="F16" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G16" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G16" t="str">
+        <f>SUBSTITUTE(RIGHT(A16,B16-C16-1),";","")</f>
+        <v>number = null</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="6"/>
+        <v>number</v>
       </c>
       <c r="I16" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J16" t="e">
+      <c r="J16" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" t="e">
+        <v>number</v>
+      </c>
+      <c r="K16" t="str">
         <f>IFERROR(VLOOKUP(J16,Types!$F$3:$G$7,2,FALSE),J16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" t="e">
+        <v>int</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M16" t="e">
+        <v>int</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N16" s="2" t="e">
+        <v>int</v>
+      </c>
+      <c r="N16" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
+        <v>public int Port { get; set; }</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
       <c r="B17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C17" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f>LEN(A17)</f>
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <f>FIND(":", A17)</f>
+        <v>10</v>
+      </c>
+      <c r="D17" t="str">
+        <f>LEFT(A17,C17-1)</f>
+        <v>EnableSsl</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>EnableSsl</v>
       </c>
       <c r="F17" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G17" t="str">
+        <f>SUBSTITUTE(RIGHT(A17,B17-C17-1),";","")</f>
+        <v>boolean = null</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="6"/>
+        <v>boolean</v>
       </c>
       <c r="I17" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J17" t="e">
+      <c r="J17" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" t="e">
+        <v>boolean</v>
+      </c>
+      <c r="K17" t="str">
         <f>IFERROR(VLOOKUP(J17,Types!$F$3:$G$7,2,FALSE),J17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L17" t="e">
+        <v>bool</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M17" t="e">
+        <v>bool</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N17" s="2" t="e">
+        <v>bool</v>
+      </c>
+      <c r="N17" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+        <v>public bool EnableSsl { get; set; }</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
       <c r="B18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C18" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f>LEN(A18)</f>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f>FIND(":", A18)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" t="str">
+        <f>LEFT(A18,C18-1)</f>
+        <v>From</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>From</v>
       </c>
       <c r="F18" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G18" t="str">
+        <f>SUBSTITUTE(RIGHT(A18,B18-C18-1),";","")</f>
+        <v>string = null</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
       </c>
       <c r="I18" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J18" t="e">
+      <c r="J18" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" t="e">
+        <v>string</v>
+      </c>
+      <c r="K18" t="str">
         <f>IFERROR(VLOOKUP(J18,Types!$F$3:$G$7,2,FALSE),J18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" t="e">
+        <v>string</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18" t="e">
+        <v>string</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N18" s="2" t="e">
+        <v>string</v>
+      </c>
+      <c r="N18" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
+        <v>public string From { get; set; }</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
       <c r="B19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C19" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f>LEN(A19)</f>
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <f>FIND(":", A19)</f>
+        <v>16</v>
+      </c>
+      <c r="D19" t="str">
+        <f>LEFT(A19,C19-1)</f>
+        <v>FromDisplayName</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>FromDisplayName</v>
       </c>
       <c r="F19" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G19" t="str">
+        <f>SUBSTITUTE(RIGHT(A19,B19-C19-1),";","")</f>
+        <v>string = null</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="6"/>
+        <v>string</v>
       </c>
       <c r="I19" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J19" t="e">
+      <c r="J19" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" t="e">
+        <v>string</v>
+      </c>
+      <c r="K19" t="str">
         <f>IFERROR(VLOOKUP(J19,Types!$F$3:$G$7,2,FALSE),J19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" t="e">
+        <v>string</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M19" t="e">
+        <v>string</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" s="2" t="e">
+        <v>string</v>
+      </c>
+      <c r="N19" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
+        <v>public string FromDisplayName { get; set; }</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
       <c r="B20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C20" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f>LEN(A20)</f>
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <f>FIND(":", A20)</f>
+        <v>15</v>
+      </c>
+      <c r="D20" t="str">
+        <f>LEFT(A20,C20-1)</f>
+        <v>UseCredentials</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>UseCredentials</v>
       </c>
       <c r="F20" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G20" t="str">
+        <f>SUBSTITUTE(RIGHT(A20,B20-C20-1),";","")</f>
+        <v>boolean = null</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="6"/>
+        <v>boolean</v>
       </c>
       <c r="I20" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J20" t="e">
+      <c r="J20" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" t="e">
+        <v>boolean</v>
+      </c>
+      <c r="K20" t="str">
         <f>IFERROR(VLOOKUP(J20,Types!$F$3:$G$7,2,FALSE),J20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" t="e">
+        <v>bool</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M20" t="e">
+        <v>bool</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N20" s="2" t="e">
+        <v>bool</v>
+      </c>
+      <c r="N20" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
+        <v>public bool UseCredentials { get; set; }</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="B21">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11116,7 +11064,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="1:14">
       <c r="B22">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11170,7 +11118,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="1:14">
       <c r="B23">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11224,7 +11172,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="1:14">
       <c r="B24">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11278,7 +11226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="1:14">
       <c r="B25">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11332,7 +11280,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="1:14">
       <c r="B26">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11386,7 +11334,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="1:14">
       <c r="B27">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11440,7 +11388,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="1:14">
       <c r="B28">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11494,7 +11442,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="1:14">
       <c r="B29">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11548,7 +11496,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="1:14">
       <c r="B30">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11602,7 +11550,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="1:14">
       <c r="B31">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11656,7 +11604,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="1:14">
       <c r="B32">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13572,7 +13520,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H67" t="e">
-        <f t="shared" ref="H67:H90" si="20">IF(FIND("=",G67) &gt; -1, TRIM(LEFT(G67, FIND("=", G67) - 1)), G67)</f>
+        <f t="shared" ref="H67:H90" si="20">IF(ISNUMBER(SEARCH("=",G67)), TRIM(LEFT(G67, FIND("=", G67) - 1)), G67)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I67" t="b">
